--- a/CHC-indentification.xlsx
+++ b/CHC-indentification.xlsx
@@ -9,14 +9,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daniel\Documentos\PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB36CA0-6115-4F8A-AD2B-CCE4C9999E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D624ED-1051-4FFF-B4CF-07C8EFFAA647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="097FGWlWYFTK/0FG2lB+72shyRPGqCqZjG+vN/O7jEZcbY1z+zoGRSy1D8+Ave/ZEAB2ubKfltV0f1awL1hlGA==" workbookSaltValue="wlTpuOApVMHVSYv8mkR95A==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E627A05E-6340-4C51-B36C-84944E4086CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Identification" sheetId="1" r:id="rId1"/>
-    <sheet name="post-DMDS" sheetId="2" r:id="rId2"/>
-    <sheet name="Carlson(1998)-methyl alkanes" sheetId="3" r:id="rId3"/>
+    <sheet name="Carlson(1998)-methyl alkanes" sheetId="3" r:id="rId2"/>
+    <sheet name="post-DMDS" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -97,174 +98,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{AF3EA82D-F2B1-478D-BE86-391646CC8B52}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="10"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Here is displayed the expected ions for the methylation position you indicated above.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{37C3D0D1-0044-480C-AB5A-BD51C561A2BD}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="10"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Here is displayed the expected ions for the methylation position you indicated above.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{301071F3-832A-4356-B4AB-C069DC71CADA}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="10"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Here is displayed the expected ions for the methylation position you indicated above.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{B25F6FA3-4C1D-435E-89BB-F61ECA6F3A95}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="10"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Here is displayed the expected ions for the methylation position you indicated above.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{44793071-AC1F-4F96-BC02-4EC178ECDF17}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="10"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Here is displayed the expected ions for the methylation position you indicated above.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{2A8D47CC-CB22-4865-A45D-62AEDF521AC3}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="10"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Here is displayed the expected ions for the methylation position you indicated above.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L5" authorId="0" shapeId="0" xr:uid="{1AB01942-DF5B-49DC-8BE1-D123ABC47BF5}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="10"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Here is displayed the expected ions for the methylation position you indicated above.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M5" authorId="0" shapeId="0" xr:uid="{61C644C3-A9AC-4024-ABED-63A1D3876AB1}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="10"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Here is displayed the expected ions for the methylation position you indicated above.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N5" authorId="0" shapeId="0" xr:uid="{1C845CCC-8840-4632-99C6-55CE0AF16FAE}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="10"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Here is displayed the expected ions for the methylation position you indicated above.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O5" authorId="0" shapeId="0" xr:uid="{56F5889C-98C5-40C9-B54B-1A5FA231EE5C}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="10"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Here is displayed the expected ions for the methylation position you indicated above.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P5" authorId="0" shapeId="0" xr:uid="{D78DC6FD-8D02-43F4-A91E-1A5C74E8FB7D}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="10"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Here is displayed the expected ions for the methylation position you indicated above.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q5" authorId="0" shapeId="0" xr:uid="{DAD32575-CA84-4163-919B-EC4C4BE2465B}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="10"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Here is displayed the expected ions for the methylation position you indicated above.</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B6" authorId="0" shapeId="0" xr:uid="{1A3695D4-1537-441A-9A4F-E7E2D6C3F2AA}">
       <text>
         <r>
@@ -295,7 +128,22 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{8F04FC9F-A6C5-4B20-83AC-63364042D12D}">
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{DDBE1A69-BC2E-4912-A071-4D771C0354D5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="10"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>It is rare to see the total mass diagnostic ion of methyl-branched alkanes in their Mass spectra. 
+Do not base your identification decision on this trait for these compounds!</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F16" authorId="0" shapeId="0" xr:uid="{CC677F18-DE2F-465E-AEB5-33BF9ADF79F0}">
       <text>
         <r>
           <rPr>
@@ -309,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{E1958BA4-32B7-4226-8963-D706EDA9FDC5}">
+    <comment ref="G16" authorId="0" shapeId="0" xr:uid="{70242358-C6DF-4C4D-8BD5-0E648ACA0BA0}">
       <text>
         <r>
           <rPr>
@@ -323,7 +171,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{60F0743C-6AE4-4CFE-90E3-1FDEEF3B7148}">
+    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{19F0BAFF-CF45-463B-AEAA-EBDC2603D255}">
       <text>
         <r>
           <rPr>
@@ -337,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{A48F1FFD-6C6A-4C83-83D2-12B0BDDFAB4B}">
+    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{4168B0BC-4655-4E5D-81C2-7AB5A8C5A915}">
       <text>
         <r>
           <rPr>
@@ -351,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0" shapeId="0" xr:uid="{76900143-46CE-4F4C-A1BA-D393A47B942A}">
+    <comment ref="J16" authorId="0" shapeId="0" xr:uid="{41AC8E45-E43C-4BF1-9BFF-B65AF67826F5}">
       <text>
         <r>
           <rPr>
@@ -365,7 +213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K7" authorId="0" shapeId="0" xr:uid="{11CE946E-D7C2-423D-B542-078D8AC6E670}">
+    <comment ref="K16" authorId="0" shapeId="0" xr:uid="{6BE7AEDF-61BF-4598-809A-DFF32450F999}">
       <text>
         <r>
           <rPr>
@@ -379,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0" shapeId="0" xr:uid="{AB4AEF33-5E5D-43B5-9B3C-56D706D8CE8D}">
+    <comment ref="L16" authorId="0" shapeId="0" xr:uid="{3E23812A-2416-4556-B80D-C11188908988}">
       <text>
         <r>
           <rPr>
@@ -393,7 +241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M7" authorId="0" shapeId="0" xr:uid="{63D80831-73D3-4004-861A-4DEB35AB23A6}">
+    <comment ref="M16" authorId="0" shapeId="0" xr:uid="{8A5C9088-BC99-4EAE-9ABB-95569911AC82}">
       <text>
         <r>
           <rPr>
@@ -407,7 +255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0" shapeId="0" xr:uid="{77F608D6-8C70-422F-BD26-87FFF36D294B}">
+    <comment ref="N16" authorId="0" shapeId="0" xr:uid="{756C1C44-A4B8-4AD2-8F93-714B086D051D}">
       <text>
         <r>
           <rPr>
@@ -421,7 +269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O7" authorId="0" shapeId="0" xr:uid="{06193EAE-BC1A-47C0-B1C2-CAD21F4DD46C}">
+    <comment ref="O16" authorId="0" shapeId="0" xr:uid="{707C34EA-CCFE-46C1-8230-C97E42B556B0}">
       <text>
         <r>
           <rPr>
@@ -435,7 +283,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0" shapeId="0" xr:uid="{DC0F5BEA-8786-42F1-8C23-D14DA18B8C94}">
+    <comment ref="P16" authorId="0" shapeId="0" xr:uid="{8539FA97-6591-4D46-BBD4-D38A50FAC605}">
       <text>
         <r>
           <rPr>
@@ -449,7 +297,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q7" authorId="0" shapeId="0" xr:uid="{784159FF-CE78-4E47-B329-14C55246FFC4}">
+    <comment ref="Q16" authorId="0" shapeId="0" xr:uid="{B66BF5E8-A234-4758-8902-728C2EE901E3}">
       <text>
         <r>
           <rPr>
@@ -463,7 +311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{065008FD-319B-4DCE-86BB-00DFA66F8F9A}">
+    <comment ref="F18" authorId="0" shapeId="0" xr:uid="{3D8B3A3E-DF3D-4ABF-AB19-E50C51EA384B}">
       <text>
         <r>
           <rPr>
@@ -477,7 +325,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{792616BF-C7FF-41FB-9CD6-9D89C4FED5B1}">
+    <comment ref="G18" authorId="0" shapeId="0" xr:uid="{325700B8-2FC5-4072-84EA-F379263AD4FA}">
       <text>
         <r>
           <rPr>
@@ -491,7 +339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{0536AD91-0E6E-47E6-9F1C-61AE83FD486D}">
+    <comment ref="H18" authorId="0" shapeId="0" xr:uid="{DB6910C8-212C-40EB-B5D1-ECE9AD30B0E6}">
       <text>
         <r>
           <rPr>
@@ -505,7 +353,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{45AAAF81-1C2E-4B3A-85A2-665FCE1E2C1F}">
+    <comment ref="I18" authorId="0" shapeId="0" xr:uid="{86011644-4B06-4F25-83B8-CA4CB7E7B27C}">
       <text>
         <r>
           <rPr>
@@ -519,7 +367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J9" authorId="0" shapeId="0" xr:uid="{F9063685-CB8F-41CB-A446-B6B8FC8CD5C8}">
+    <comment ref="J18" authorId="0" shapeId="0" xr:uid="{11A94B6F-4623-46C0-A0B2-6BD9A01D2760}">
       <text>
         <r>
           <rPr>
@@ -533,7 +381,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="0" shapeId="0" xr:uid="{DA63742C-A9E5-4F7D-ADF3-43C2BA7EF152}">
+    <comment ref="K18" authorId="0" shapeId="0" xr:uid="{4ABBA7D7-E3BA-4D36-BFB4-818484777D4E}">
       <text>
         <r>
           <rPr>
@@ -547,7 +395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L9" authorId="0" shapeId="0" xr:uid="{9EA77B26-AC48-4377-A4A3-6EB94083188A}">
+    <comment ref="L18" authorId="0" shapeId="0" xr:uid="{42B3E00F-254E-4935-9D51-91E13B601F7A}">
       <text>
         <r>
           <rPr>
@@ -561,7 +409,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M9" authorId="0" shapeId="0" xr:uid="{542F0AFB-4816-4061-9642-640AFF28B734}">
+    <comment ref="M18" authorId="0" shapeId="0" xr:uid="{9EA65949-1026-4832-9BC4-45673BB4AC68}">
       <text>
         <r>
           <rPr>
@@ -575,7 +423,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N9" authorId="0" shapeId="0" xr:uid="{BA7EAF2C-461E-4E06-8664-256DBF8D2510}">
+    <comment ref="N18" authorId="0" shapeId="0" xr:uid="{60120DD2-EFA9-469E-BBFB-AA7B3175F8E4}">
       <text>
         <r>
           <rPr>
@@ -589,7 +437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O9" authorId="0" shapeId="0" xr:uid="{C609AF5A-AFC3-42AC-B80D-D5A711DBA2E4}">
+    <comment ref="O18" authorId="0" shapeId="0" xr:uid="{E2358F1D-164D-4EB4-82EA-8EE6A4A3C76C}">
       <text>
         <r>
           <rPr>
@@ -603,7 +451,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P9" authorId="0" shapeId="0" xr:uid="{6CEF242B-6C6F-4784-847E-291D2DBE8F28}">
+    <comment ref="P18" authorId="0" shapeId="0" xr:uid="{E838120C-0E97-4941-BE75-881AED40351F}">
       <text>
         <r>
           <rPr>
@@ -617,7 +465,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q9" authorId="0" shapeId="0" xr:uid="{A07191BB-E6C5-430F-9FC5-0BD87E797414}">
+    <comment ref="Q18" authorId="0" shapeId="0" xr:uid="{E592D087-5655-452E-8FA2-135F88A33DC2}">
       <text>
         <r>
           <rPr>
@@ -631,7 +479,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{71D60D54-18EA-4FB8-A88B-C8AD6392FD92}">
+    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{CBD35587-6D4E-47DB-B86A-D044229918B7}">
       <text>
         <r>
           <rPr>
@@ -645,7 +493,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{4AF4B608-927E-480C-A92E-BC46DF2F4195}">
+    <comment ref="G20" authorId="0" shapeId="0" xr:uid="{B0ECB957-BDF1-4832-98D8-42E7F4698811}">
       <text>
         <r>
           <rPr>
@@ -659,7 +507,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{F0DE0C3B-1458-46DA-A655-1833ACCF7F63}">
+    <comment ref="H20" authorId="0" shapeId="0" xr:uid="{5BFDE3DB-5B07-4BB5-B509-02D5AAF49BC5}">
       <text>
         <r>
           <rPr>
@@ -673,7 +521,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{8C915F81-9FE6-4BDD-9F45-9CF43C357B36}">
+    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{EF86446F-4E66-4905-A66D-5B359C2AE05F}">
       <text>
         <r>
           <rPr>
@@ -687,7 +535,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J11" authorId="0" shapeId="0" xr:uid="{14925685-42B4-4C33-9CAC-7946BCED71F4}">
+    <comment ref="J20" authorId="0" shapeId="0" xr:uid="{2062429E-C1BB-43CB-BC14-9A6FE2A9D922}">
       <text>
         <r>
           <rPr>
@@ -701,7 +549,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K11" authorId="0" shapeId="0" xr:uid="{A3B4A567-5758-4C10-9CCF-650B95776295}">
+    <comment ref="K20" authorId="0" shapeId="0" xr:uid="{6F99037F-938C-494B-BF87-0EF3367F36F5}">
       <text>
         <r>
           <rPr>
@@ -715,7 +563,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L11" authorId="0" shapeId="0" xr:uid="{331E446C-CCF8-4521-AEF8-013CFF94B55A}">
+    <comment ref="L20" authorId="0" shapeId="0" xr:uid="{11BD6680-F03C-4025-B60C-C9D340C6786D}">
       <text>
         <r>
           <rPr>
@@ -729,7 +577,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M11" authorId="0" shapeId="0" xr:uid="{ED8CB49F-CA82-4819-9939-A54699743204}">
+    <comment ref="M20" authorId="0" shapeId="0" xr:uid="{4DACC991-2FB2-4679-9576-0FD2A424670A}">
       <text>
         <r>
           <rPr>
@@ -743,7 +591,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N11" authorId="0" shapeId="0" xr:uid="{78EB7936-ECF4-4742-9510-299B0F275327}">
+    <comment ref="N20" authorId="0" shapeId="0" xr:uid="{151A506C-D4DA-4632-A381-C82E204868D4}">
       <text>
         <r>
           <rPr>
@@ -757,7 +605,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O11" authorId="0" shapeId="0" xr:uid="{9B350C94-CE79-42EC-BAD1-F3A85F519447}">
+    <comment ref="O20" authorId="0" shapeId="0" xr:uid="{314F7EAF-7A47-4170-B42B-97B7D42B94A5}">
       <text>
         <r>
           <rPr>
@@ -771,7 +619,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P11" authorId="0" shapeId="0" xr:uid="{5BDF81E6-1427-49C5-8BFD-9DE6D32765D4}">
+    <comment ref="P20" authorId="0" shapeId="0" xr:uid="{9766F333-A30A-4025-92AB-F009E703EEC3}">
       <text>
         <r>
           <rPr>
@@ -785,7 +633,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q11" authorId="0" shapeId="0" xr:uid="{679178C3-519E-4E3F-9E11-060F2097F160}">
+    <comment ref="Q20" authorId="0" shapeId="0" xr:uid="{98D28F72-85A5-43D8-8CCC-AFCAA5857047}">
       <text>
         <r>
           <rPr>
@@ -799,7 +647,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{2C7EEFFD-936F-4135-BF44-45BB3B7D982C}">
+    <comment ref="F22" authorId="0" shapeId="0" xr:uid="{6DE1A7E1-EF0C-4532-B4F3-36B1E1DEE55B}">
       <text>
         <r>
           <rPr>
@@ -813,7 +661,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{46169AA5-0E57-4B8F-9179-AA31FA9044CB}">
+    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{0F6162DF-0373-4D9E-BDD2-CE079134A96A}">
       <text>
         <r>
           <rPr>
@@ -827,7 +675,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{2A037FC7-3AAD-460A-8DB1-5725F9C74497}">
+    <comment ref="H22" authorId="0" shapeId="0" xr:uid="{DBC0D3CB-9407-447D-A688-6F16CD9B2690}">
       <text>
         <r>
           <rPr>
@@ -841,7 +689,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{A3AA46DF-E778-4E94-A0F7-E1DBD6E4C6FD}">
+    <comment ref="I22" authorId="0" shapeId="0" xr:uid="{FD6E0607-B6AF-4325-90C3-66BDB6243204}">
       <text>
         <r>
           <rPr>
@@ -855,7 +703,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J13" authorId="0" shapeId="0" xr:uid="{A9A83EDC-075E-42C9-82CA-09159AED6156}">
+    <comment ref="J22" authorId="0" shapeId="0" xr:uid="{39A6D414-A8D9-4739-AE62-2AF8FC0D9617}">
       <text>
         <r>
           <rPr>
@@ -869,7 +717,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K13" authorId="0" shapeId="0" xr:uid="{43D31CB5-F727-43D7-9F62-DCBEC790D80C}">
+    <comment ref="K22" authorId="0" shapeId="0" xr:uid="{C01A7DB9-DA2E-40F7-910C-AD1263B7977C}">
       <text>
         <r>
           <rPr>
@@ -883,7 +731,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L13" authorId="0" shapeId="0" xr:uid="{03CDD3A7-C136-48F9-B179-93A3E68918FC}">
+    <comment ref="L22" authorId="0" shapeId="0" xr:uid="{FC3EA714-7BC8-4134-9EDC-D583203444E7}">
       <text>
         <r>
           <rPr>
@@ -897,7 +745,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M13" authorId="0" shapeId="0" xr:uid="{1C8B79F8-ACCF-4E5F-99E2-C1BF5538F43F}">
+    <comment ref="M22" authorId="0" shapeId="0" xr:uid="{E519B118-6ACC-4505-ACB3-94AC2928B2C2}">
       <text>
         <r>
           <rPr>
@@ -911,7 +759,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N13" authorId="0" shapeId="0" xr:uid="{BD079DCC-84C4-49DA-B225-CC3922F46ED0}">
+    <comment ref="N22" authorId="0" shapeId="0" xr:uid="{B3F61DB9-889C-427A-9675-7AB7D2F4E616}">
       <text>
         <r>
           <rPr>
@@ -925,7 +773,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O13" authorId="0" shapeId="0" xr:uid="{C0B9B787-38AD-4496-9CED-40EA9E1D58CD}">
+    <comment ref="O22" authorId="0" shapeId="0" xr:uid="{85D6E5E6-C793-4C9F-AAF8-FFDBA8D26409}">
       <text>
         <r>
           <rPr>
@@ -939,7 +787,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P13" authorId="0" shapeId="0" xr:uid="{3892907E-966B-4FB3-AFA7-80F4720D76D0}">
+    <comment ref="P22" authorId="0" shapeId="0" xr:uid="{DE3D26D4-A136-47C6-98CD-64279DE2C4DF}">
       <text>
         <r>
           <rPr>
@@ -953,175 +801,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q13" authorId="0" shapeId="0" xr:uid="{07E40FF8-B788-4906-A182-3440CDB9F688}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="10"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Here is displayed the expected ions for the methylation position you indicated above.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F15" authorId="0" shapeId="0" xr:uid="{0C93EF8E-AC39-4FE4-99ED-F93B7828FC24}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="10"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Here is displayed the expected ions for the methylation position you indicated above.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G15" authorId="0" shapeId="0" xr:uid="{4DD6F91A-1733-4600-A8C0-402BCFB163C7}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="10"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Here is displayed the expected ions for the methylation position you indicated above.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{F329FE66-67D3-48DE-9E08-01FB30CFA1BF}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="10"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Here is displayed the expected ions for the methylation position you indicated above.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I15" authorId="0" shapeId="0" xr:uid="{EE58194D-7001-48F1-A734-C5A4BDB74A9C}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="10"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Here is displayed the expected ions for the methylation position you indicated above.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J15" authorId="0" shapeId="0" xr:uid="{CE6D5005-7442-4C4B-B1E6-A9CFA5162471}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="10"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Here is displayed the expected ions for the methylation position you indicated above.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K15" authorId="0" shapeId="0" xr:uid="{3071E660-6C59-4127-8EEC-0E98AE6A6A58}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="10"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Here is displayed the expected ions for the methylation position you indicated above.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L15" authorId="0" shapeId="0" xr:uid="{AAAB91E7-5910-474D-9AF2-D840AB55877F}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="10"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Here is displayed the expected ions for the methylation position you indicated above.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M15" authorId="0" shapeId="0" xr:uid="{2412CED8-939F-440D-B494-CB7ED497E570}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="10"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Here is displayed the expected ions for the methylation position you indicated above.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N15" authorId="0" shapeId="0" xr:uid="{C5296FC0-2FC1-4D24-AF9E-C8A00537123F}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="10"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Here is displayed the expected ions for the methylation position you indicated above.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O15" authorId="0" shapeId="0" xr:uid="{E1055C6D-C2A9-4A6F-8B7F-AFF28ACAC2D7}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="10"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Here is displayed the expected ions for the methylation position you indicated above.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P15" authorId="0" shapeId="0" xr:uid="{1F83F50B-933D-4E80-B03E-DE240977EF90}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="10"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Here is displayed the expected ions for the methylation position you indicated above.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q15" authorId="0" shapeId="0" xr:uid="{E7CB1873-1558-409F-B938-F35D0EC7934F}">
+    <comment ref="Q22" authorId="0" shapeId="0" xr:uid="{76768DA1-0C29-461C-94CD-6B2A8AA7F9A2}">
       <text>
         <r>
           <rPr>
@@ -1139,8 +819,30 @@
 </comments>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="20">
   <si>
     <t>Alkane</t>
   </si>
@@ -1166,9 +868,6 @@
     <t>Fragmentation</t>
   </si>
   <si>
-    <t>Diagnostic total mass Ion</t>
-  </si>
-  <si>
     <t>Monomethyl alkane</t>
   </si>
   <si>
@@ -1176,9 +875,6 @@
   </si>
   <si>
     <t>Rodríguez-León (2022)</t>
-  </si>
-  <si>
-    <t>The blue fields correspond to the input fields. There you can enter the number corresponding to the expected trait of the hydrocarbon you are aiming to find. The input font color is red.                                                                                                                                                                                                                                                                                                                                                      Yellow cells display information, according to the entry you give to the input fields. These cells change to dark purple to indicate that the information that is displayed inside themis not valid for your target compound.                                                                                                                                                                                                                                                                                                                                                                           Extra explanatory information is displayed when you hover with the mouse over some cells.</t>
   </si>
   <si>
     <t>Trimethyl alkane</t>
@@ -1192,12 +888,27 @@
   <si>
     <t>Source:</t>
   </si>
+  <si>
+    <t>DO NOT MODIFY ANYTHING IN THIS SECTION, IT IS ESSENTIAL FOR THE CORRECT FUNCTION OF THE FORMULAS THAT CALCULATE THE POSITION OF THE METHYLATIONS OF THE METHYL BRANCHED ALKANES</t>
+  </si>
+  <si>
+    <t>Below you can introduce a methylation position to obtain its expected diagnostic ions</t>
+  </si>
+  <si>
+    <t>Total mass diagnostic Ion</t>
+  </si>
+  <si>
+    <t>Below you can introduce the ions you see in the mass spectra to obtain the corresponding position of the methylation</t>
+  </si>
+  <si>
+    <t>The blue fields correspond to the input fields. There you can enter the number corresponding to the expected trait of the hydrocarbon you are aiming to find. The input font color is red.                                                                                                                                                                                                                                                                                                                                                      Yellow cells display information, according to the entry you give to the input fields. These cells change to dark purple to indicate that they are not showing information regarding your target compound.                                                                                                                                                                                                                                                                                                                                                                           Extra explanatory information is displayed when you hover with the mouse over some cells.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1215,13 +926,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1266,8 +970,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1298,8 +1023,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1588,21 +1319,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="slantDashDot">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1726,16 +1442,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1763,15 +1515,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1793,25 +1539,13 @@
     <xf numFmtId="1" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1820,20 +1554,65 @@
     <xf numFmtId="1" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1845,34 +1624,55 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1880,7 +1680,833 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="176">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2715,1212 +3341,1581 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FD13C8-9C57-4E7C-B7EE-A41A7F7BBBB9}">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="13" style="6" customWidth="1"/>
-    <col min="6" max="17" width="14.140625" style="6" customWidth="1"/>
-    <col min="18" max="16384" width="17.42578125" style="6"/>
+    <col min="1" max="1" width="21" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="13" style="5" customWidth="1"/>
+    <col min="6" max="17" width="14.140625" style="5" customWidth="1"/>
+    <col min="18" max="16384" width="17.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1" ht="75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:17" s="4" customFormat="1" ht="68.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="46"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="51"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="42" t="s">
+      <c r="A2" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="44"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="49"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="10">
         <f>B4+2</f>
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="41"/>
+      <c r="F3" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="55"/>
     </row>
-    <row r="4" spans="1:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="10">
         <f>B1*14</f>
         <v>0</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="11">
         <v>43</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="12">
         <f>C4-2</f>
         <v>41</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="13">
         <f>D4-2</f>
         <v>39</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="O4" s="21"/>
-      <c r="P4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="27"/>
+      <c r="F4" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="61"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <f>B4-2</f>
         <v>-2</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="11">
         <v>57</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="12">
         <f t="shared" ref="D5:E5" si="0">C5-2</f>
         <v>55</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="13">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="F5" s="22" t="str">
-        <f>_xlfn.CONCAT((G4*14+14+1),"|",(G4*14+14))</f>
-        <v>15|14</v>
-      </c>
-      <c r="G5" s="23" t="str">
-        <f>_xlfn.CONCAT(($B$6-(G4*14+14+1)+28), "|", ($B$6-(G4*14+14+1)+28)-1)</f>
-        <v>29|28</v>
-      </c>
-      <c r="H5" s="22" t="str">
-        <f>_xlfn.CONCAT((I4*14+14+1),"|",(I4*14+14))</f>
-        <v>15|14</v>
-      </c>
-      <c r="I5" s="23" t="str">
-        <f>_xlfn.CONCAT(($B$7-(I4*14+14+1)+28), "|", ($B$7-(I4*14+14+1)+28)-1)</f>
-        <v>43|42</v>
-      </c>
-      <c r="J5" s="22" t="str">
-        <f>_xlfn.CONCAT((K4*14+(14*2)+1),"|",(K4*14+(14*2)))</f>
-        <v>29|28</v>
-      </c>
-      <c r="K5" s="12" t="str">
-        <f>_xlfn.CONCAT(($B$7-(K4*14+1)),"|",($B$7-(K4*14+1)-1))</f>
-        <v>29|28</v>
-      </c>
-      <c r="L5" s="22" t="str">
-        <f>_xlfn.CONCAT((M4*14+14+1),"|",(M4*14+14))</f>
-        <v>15|14</v>
-      </c>
-      <c r="M5" s="23" t="str">
-        <f>_xlfn.CONCAT(($B$8-(M4*14+14+1)+28), "|", ($B$8-(M4*14+14+1)+28)-1)</f>
-        <v>57|56</v>
-      </c>
-      <c r="N5" s="22" t="str">
-        <f>_xlfn.CONCAT((O4*14+(14*2)+1),"|",(O4*14+(14*2)))</f>
-        <v>29|28</v>
-      </c>
-      <c r="O5" s="23" t="str">
-        <f>_xlfn.CONCAT(($B$8-(O4*14+1)),"|",($B$8-(O4*14+1)-1))</f>
-        <v>43|42</v>
-      </c>
-      <c r="P5" s="22" t="str">
-        <f>_xlfn.CONCAT((Q4*14+(14*3)+1),"|",(Q4*14+(14*3)))</f>
-        <v>43|42</v>
-      </c>
-      <c r="Q5" s="28" t="str">
-        <f>_xlfn.CONCAT(($B$8-(Q4*14+14+1)),"|",($B$8-(Q4*14+14+1)-1))</f>
-        <v>29|28</v>
+      <c r="F5" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="18" t="e">
+        <f>MIN(F36:G36)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="18" t="e">
+        <f>MIN(H36:I36)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="18" t="e">
+        <f>MIN(J36:K36)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="18" t="e">
+        <f>MIN(L36:M36)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="18" t="e">
+        <f>MIN(N36:O36)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P5" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="21" t="e">
+        <f>MIN(P36:Q36)</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="12">
+    <row r="6" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="10">
         <f>B3+14</f>
         <v>16</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="11">
         <v>71</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="12">
         <f t="shared" ref="D6:E6" si="1">C6-2</f>
         <v>69</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="13">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="21"/>
-      <c r="N6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="O6" s="21"/>
-      <c r="P6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q6" s="27"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="26"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="28">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="21">
         <f>B6+14</f>
         <v>30</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="11">
         <v>85</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="12">
         <f t="shared" ref="D7:E7" si="2">C7-2</f>
         <v>83</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="13">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="F7" s="22" t="str">
-        <f>_xlfn.CONCAT((G6*14+14+1),"|",(G6*14+14))</f>
-        <v>15|14</v>
-      </c>
-      <c r="G7" s="23" t="str">
-        <f>_xlfn.CONCAT(($B$6-(G6*14+14+1)+28), "|", ($B$6-(G6*14+14+1)+28)-1)</f>
-        <v>29|28</v>
-      </c>
-      <c r="H7" s="22" t="str">
-        <f>_xlfn.CONCAT((I6*14+14+1),"|",(I6*14+14))</f>
-        <v>15|14</v>
-      </c>
-      <c r="I7" s="23" t="str">
-        <f>_xlfn.CONCAT(($B$7-(I6*14+14+1)+28), "|", ($B$7-(I6*14+14+1)+28)-1)</f>
-        <v>43|42</v>
-      </c>
-      <c r="J7" s="22" t="str">
-        <f>_xlfn.CONCAT((K6*14+(14*2)+1),"|",(K6*14+(14*2)))</f>
-        <v>29|28</v>
-      </c>
-      <c r="K7" s="12" t="str">
-        <f>_xlfn.CONCAT(($B$7-(K6*14+1)),"|",($B$7-(K6*14+1)-1))</f>
-        <v>29|28</v>
-      </c>
-      <c r="L7" s="22" t="str">
-        <f>_xlfn.CONCAT((M6*14+14+1),"|",(M6*14+14))</f>
-        <v>15|14</v>
-      </c>
-      <c r="M7" s="23" t="str">
-        <f>_xlfn.CONCAT(($B$8-(M6*14+14+1)+28), "|", ($B$8-(M6*14+14+1)+28)-1)</f>
-        <v>57|56</v>
-      </c>
-      <c r="N7" s="22" t="str">
-        <f>_xlfn.CONCAT((O6*14+(14*2)+1),"|",(O6*14+(14*2)))</f>
-        <v>29|28</v>
-      </c>
-      <c r="O7" s="23" t="str">
-        <f>_xlfn.CONCAT(($B$8-(O6*14+1)),"|",($B$8-(O6*14+1)-1))</f>
-        <v>43|42</v>
-      </c>
-      <c r="P7" s="22" t="str">
-        <f>_xlfn.CONCAT((Q6*14+(14*3)+1),"|",(Q6*14+(14*3)))</f>
-        <v>43|42</v>
-      </c>
-      <c r="Q7" s="28" t="str">
-        <f>_xlfn.CONCAT(($B$8-(Q6*14+14+1)),"|",($B$8-(Q6*14+14+1)-1))</f>
-        <v>29|28</v>
+      <c r="F7" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="18" t="e">
+        <f>MIN(F37:G37)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="18" t="e">
+        <f>MIN(H37:I37)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="18" t="e">
+        <f>MIN(J37:K37)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L7" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="18" t="e">
+        <f>MIN(L37:M37)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="18" t="e">
+        <f>MIN(N37:O37)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P7" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="21" t="e">
+        <f>MIN(P37:Q37)</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="29">
+    <row r="8" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="22">
         <f>B7+14</f>
         <v>44</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="11">
         <v>99</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="12">
         <f t="shared" ref="D8:E8" si="3">C8-2</f>
         <v>97</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="13">
         <f t="shared" si="3"/>
         <v>95</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M8" s="21"/>
-      <c r="N8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="O8" s="21"/>
-      <c r="P8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q8" s="27"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="26"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C9" s="14">
+      <c r="C9" s="11">
         <v>113</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="12">
         <f t="shared" ref="D9:E9" si="4">C9-2</f>
         <v>111</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="13">
         <f t="shared" si="4"/>
         <v>109</v>
       </c>
-      <c r="F9" s="22" t="str">
-        <f>_xlfn.CONCAT((G8*14+14+1),"|",(G8*14+14))</f>
-        <v>15|14</v>
-      </c>
-      <c r="G9" s="23" t="str">
-        <f>_xlfn.CONCAT(($B$6-(G8*14+14+1)+28), "|", ($B$6-(G8*14+14+1)+28)-1)</f>
-        <v>29|28</v>
-      </c>
-      <c r="H9" s="22" t="str">
-        <f>_xlfn.CONCAT((I8*14+14+1),"|",(I8*14+14))</f>
-        <v>15|14</v>
-      </c>
-      <c r="I9" s="23" t="str">
-        <f>_xlfn.CONCAT(($B$7-(I8*14+14+1)+28), "|", ($B$7-(I8*14+14+1)+28)-1)</f>
-        <v>43|42</v>
-      </c>
-      <c r="J9" s="22" t="str">
-        <f>_xlfn.CONCAT((K8*14+(14*2)+1),"|",(K8*14+(14*2)))</f>
-        <v>29|28</v>
-      </c>
-      <c r="K9" s="12" t="str">
-        <f>_xlfn.CONCAT(($B$7-(K8*14+1)),"|",($B$7-(K8*14+1)-1))</f>
-        <v>29|28</v>
-      </c>
-      <c r="L9" s="22" t="str">
-        <f>_xlfn.CONCAT((M8*14+14+1),"|",(M8*14+14))</f>
-        <v>15|14</v>
-      </c>
-      <c r="M9" s="23" t="str">
-        <f>_xlfn.CONCAT(($B$8-(M8*14+14+1)+28), "|", ($B$8-(M8*14+14+1)+28)-1)</f>
-        <v>57|56</v>
-      </c>
-      <c r="N9" s="22" t="str">
-        <f>_xlfn.CONCAT((O8*14+(14*2)+1),"|",(O8*14+(14*2)))</f>
-        <v>29|28</v>
-      </c>
-      <c r="O9" s="23" t="str">
-        <f>_xlfn.CONCAT(($B$8-(O8*14+1)),"|",($B$8-(O8*14+1)-1))</f>
-        <v>43|42</v>
-      </c>
-      <c r="P9" s="22" t="str">
-        <f>_xlfn.CONCAT((Q8*14+(14*3)+1),"|",(Q8*14+(14*3)))</f>
-        <v>43|42</v>
-      </c>
-      <c r="Q9" s="28" t="str">
-        <f>_xlfn.CONCAT(($B$8-(Q8*14+14+1)),"|",($B$8-(Q8*14+14+1)-1))</f>
-        <v>29|28</v>
+      <c r="F9" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="18" t="e">
+        <f>MIN(F38:G38)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="18" t="e">
+        <f>MIN(H38:I38)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="18" t="e">
+        <f>MIN(J38:K38)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="18" t="e">
+        <f>MIN(L38:M38)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N9" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" s="18" t="e">
+        <f>MIN(N38:O38)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P9" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="21" t="e">
+        <f>MIN(P38:Q38)</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="C10" s="14">
+    <row r="10" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="11">
         <v>127</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="12">
         <f t="shared" ref="D10:E10" si="5">C10-2</f>
         <v>125</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="13">
         <f t="shared" si="5"/>
         <v>123</v>
       </c>
-      <c r="F10" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="21"/>
-      <c r="N10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="O10" s="21"/>
-      <c r="P10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q10" s="27"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="26"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C11" s="14">
+      <c r="C11" s="11">
         <v>141</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="12">
         <f t="shared" ref="D11:E11" si="6">C11-2</f>
         <v>139</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="13">
         <f t="shared" si="6"/>
         <v>137</v>
       </c>
-      <c r="F11" s="22" t="str">
-        <f>_xlfn.CONCAT((G10*14+14+1),"|",(G10*14+14))</f>
-        <v>15|14</v>
-      </c>
-      <c r="G11" s="23" t="str">
-        <f>_xlfn.CONCAT(($B$6-(G10*14+14+1)+28), "|", ($B$6-(G10*14+14+1)+28)-1)</f>
-        <v>29|28</v>
-      </c>
-      <c r="H11" s="22" t="str">
-        <f>_xlfn.CONCAT((I10*14+14+1),"|",(I10*14+14))</f>
-        <v>15|14</v>
-      </c>
-      <c r="I11" s="23" t="str">
-        <f>_xlfn.CONCAT(($B$7-(I10*14+14+1)+28), "|", ($B$7-(I10*14+14+1)+28)-1)</f>
-        <v>43|42</v>
-      </c>
-      <c r="J11" s="22" t="str">
-        <f>_xlfn.CONCAT((K10*14+(14*2)+1),"|",(K10*14+(14*2)))</f>
-        <v>29|28</v>
-      </c>
-      <c r="K11" s="12" t="str">
-        <f>_xlfn.CONCAT(($B$7-(K10*14+1)),"|",($B$7-(K10*14+1)-1))</f>
-        <v>29|28</v>
-      </c>
-      <c r="L11" s="22" t="str">
-        <f>_xlfn.CONCAT((M10*14+14+1),"|",(M10*14+14))</f>
-        <v>15|14</v>
-      </c>
-      <c r="M11" s="23" t="str">
-        <f>_xlfn.CONCAT(($B$8-(M10*14+14+1)+28), "|", ($B$8-(M10*14+14+1)+28)-1)</f>
-        <v>57|56</v>
-      </c>
-      <c r="N11" s="22" t="str">
-        <f>_xlfn.CONCAT((O10*14+(14*2)+1),"|",(O10*14+(14*2)))</f>
-        <v>29|28</v>
-      </c>
-      <c r="O11" s="23" t="str">
-        <f>_xlfn.CONCAT(($B$8-(O10*14+1)),"|",($B$8-(O10*14+1)-1))</f>
-        <v>43|42</v>
-      </c>
-      <c r="P11" s="22" t="str">
-        <f>_xlfn.CONCAT((Q10*14+(14*3)+1),"|",(Q10*14+(14*3)))</f>
-        <v>43|42</v>
-      </c>
-      <c r="Q11" s="28" t="str">
-        <f>_xlfn.CONCAT(($B$8-(Q10*14+14+1)),"|",($B$8-(Q10*14+14+1)-1))</f>
-        <v>29|28</v>
+      <c r="F11" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="18" t="e">
+        <f>MIN(F39:G39)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="18" t="e">
+        <f>MIN(H39:I39)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="18" t="e">
+        <f>MIN(J39:K39)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L11" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="18" t="e">
+        <f>MIN(L39:M39)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N11" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11" s="18" t="e">
+        <f>MIN(N39:O39)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P11" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="21" t="e">
+        <f>MIN(P39:Q39)</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="C12" s="14">
+    <row r="12" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="11">
         <v>155</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="12">
         <f t="shared" ref="D12:E12" si="7">C12-2</f>
         <v>153</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="13">
         <f t="shared" si="7"/>
         <v>151</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M12" s="21"/>
-      <c r="N12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="O12" s="21"/>
-      <c r="P12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q12" s="27"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="34"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C13" s="14">
+      <c r="C13" s="11">
         <v>169</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="12">
         <f t="shared" ref="D13:E13" si="8">C13-2</f>
         <v>167</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="14">
         <f t="shared" si="8"/>
         <v>165</v>
       </c>
-      <c r="F13" s="22" t="str">
-        <f>_xlfn.CONCAT((G12*14+14+1),"|",(G12*14+14))</f>
-        <v>15|14</v>
-      </c>
-      <c r="G13" s="23" t="str">
-        <f>_xlfn.CONCAT(($B$6-(G12*14+14+1)+28), "|", ($B$6-(G12*14+14+1)+28)-1)</f>
-        <v>29|28</v>
-      </c>
-      <c r="H13" s="22" t="str">
-        <f>_xlfn.CONCAT((I12*14+14+1),"|",(I12*14+14))</f>
-        <v>15|14</v>
-      </c>
-      <c r="I13" s="23" t="str">
-        <f>_xlfn.CONCAT(($B$7-(I12*14+14+1)+28), "|", ($B$7-(I12*14+14+1)+28)-1)</f>
-        <v>43|42</v>
-      </c>
-      <c r="J13" s="22" t="str">
-        <f>_xlfn.CONCAT((K12*14+(14*2)+1),"|",(K12*14+(14*2)))</f>
-        <v>29|28</v>
-      </c>
-      <c r="K13" s="12" t="str">
-        <f>_xlfn.CONCAT(($B$7-(K12*14+1)),"|",($B$7-(K12*14+1)-1))</f>
-        <v>29|28</v>
-      </c>
-      <c r="L13" s="22" t="str">
-        <f>_xlfn.CONCAT((M12*14+14+1),"|",(M12*14+14))</f>
-        <v>15|14</v>
-      </c>
-      <c r="M13" s="23" t="str">
-        <f>_xlfn.CONCAT(($B$8-(M12*14+14+1)+28), "|", ($B$8-(M12*14+14+1)+28)-1)</f>
-        <v>57|56</v>
-      </c>
-      <c r="N13" s="22" t="str">
-        <f>_xlfn.CONCAT((O12*14+(14*2)+1),"|",(O12*14+(14*2)))</f>
-        <v>29|28</v>
-      </c>
-      <c r="O13" s="23" t="str">
-        <f>_xlfn.CONCAT(($B$8-(O12*14+1)),"|",($B$8-(O12*14+1)-1))</f>
-        <v>43|42</v>
-      </c>
-      <c r="P13" s="22" t="str">
-        <f>_xlfn.CONCAT((Q12*14+(14*3)+1),"|",(Q12*14+(14*3)))</f>
-        <v>43|42</v>
-      </c>
-      <c r="Q13" s="28" t="str">
-        <f>_xlfn.CONCAT(($B$8-(Q12*14+14+1)),"|",($B$8-(Q12*14+14+1)-1))</f>
-        <v>29|28</v>
-      </c>
+      <c r="F13" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="55"/>
     </row>
-    <row r="14" spans="1:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="C14" s="14">
+    <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="11">
         <v>183</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="12">
         <f t="shared" ref="D14:E14" si="9">C14-2</f>
         <v>181</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="14">
         <f t="shared" si="9"/>
         <v>179</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" s="30"/>
-      <c r="L14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="21"/>
-      <c r="N14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="O14" s="21"/>
-      <c r="P14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q14" s="27"/>
+      <c r="F14" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="61"/>
     </row>
-    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="14">
+    <row r="15" spans="1:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="C15" s="11">
         <v>197</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="12">
         <f t="shared" ref="D15:E15" si="10">C15-2</f>
         <v>195</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="14">
         <f t="shared" si="10"/>
         <v>193</v>
       </c>
-      <c r="F15" s="26" t="str">
-        <f>_xlfn.CONCAT((G14*14+14+1),"|",(G14*14+14))</f>
-        <v>15|14</v>
-      </c>
-      <c r="G15" s="25" t="str">
-        <f>_xlfn.CONCAT(($B$6-(G14*14+14+1)+28), "|", ($B$6-(G14*14+14+1)+28)-1)</f>
-        <v>29|28</v>
-      </c>
-      <c r="H15" s="26" t="str">
-        <f>_xlfn.CONCAT((I14*14+14+1),"|",(I14*14+14))</f>
-        <v>15|14</v>
-      </c>
-      <c r="I15" s="25" t="str">
-        <f>_xlfn.CONCAT(($B$7-(I14*14+14+1)+28), "|", ($B$7-(I14*14+14+1)+28)-1)</f>
-        <v>43|42</v>
-      </c>
-      <c r="J15" s="26" t="str">
-        <f>_xlfn.CONCAT((K14*14+(14*2)+1),"|",(K14*14+(14*2)))</f>
-        <v>29|28</v>
-      </c>
-      <c r="K15" s="13" t="str">
-        <f>_xlfn.CONCAT(($B$7-(K14*14+1)),"|",($B$7-(K14*14+1)-1))</f>
-        <v>29|28</v>
-      </c>
-      <c r="L15" s="26" t="str">
-        <f>_xlfn.CONCAT((M14*14+14+1),"|",(M14*14+14))</f>
-        <v>15|14</v>
-      </c>
-      <c r="M15" s="25" t="str">
-        <f>_xlfn.CONCAT(($B$8-(M14*14+14+1)+28), "|", ($B$8-(M14*14+14+1)+28)-1)</f>
-        <v>57|56</v>
-      </c>
-      <c r="N15" s="26" t="str">
-        <f>_xlfn.CONCAT((O14*14+(14*2)+1),"|",(O14*14+(14*2)))</f>
-        <v>29|28</v>
-      </c>
-      <c r="O15" s="25" t="str">
-        <f>_xlfn.CONCAT(($B$8-(O14*14+1)),"|",($B$8-(O14*14+1)-1))</f>
-        <v>43|42</v>
-      </c>
-      <c r="P15" s="26" t="str">
-        <f>_xlfn.CONCAT((Q14*14+(14*3)+1),"|",(Q14*14+(14*3)))</f>
-        <v>43|42</v>
-      </c>
-      <c r="Q15" s="29" t="str">
-        <f>_xlfn.CONCAT(($B$8-(Q14*14+14+1)),"|",($B$8-(Q14*14+14+1)-1))</f>
-        <v>29|28</v>
-      </c>
+      <c r="F15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="36"/>
+      <c r="H15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="36"/>
+      <c r="J15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="37"/>
+      <c r="L15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="36"/>
+      <c r="N15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="36"/>
+      <c r="P15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="20"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C16" s="14">
+      <c r="C16" s="11">
         <v>211</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="12">
         <f t="shared" ref="D16:E16" si="11">C16-2</f>
         <v>209</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="14">
         <f t="shared" si="11"/>
         <v>207</v>
       </c>
+      <c r="F16" s="38" t="str">
+        <f>_xlfn.CONCAT((G15*14+14+1),"|",(G15*14+14))</f>
+        <v>15|14</v>
+      </c>
+      <c r="G16" s="39" t="str">
+        <f>_xlfn.CONCAT(($B$6-(G15*14+14+1)+28), "|", ($B$6-(G15*14+14+1)+28)-1)</f>
+        <v>29|28</v>
+      </c>
+      <c r="H16" s="38" t="str">
+        <f>_xlfn.CONCAT((I15*14+14+1),"|",(I15*14+14))</f>
+        <v>15|14</v>
+      </c>
+      <c r="I16" s="39" t="str">
+        <f>_xlfn.CONCAT(($B$7-(I15*14+14+1)+28), "|", ($B$7-(I15*14+14+1)+28)-1)</f>
+        <v>43|42</v>
+      </c>
+      <c r="J16" s="38" t="str">
+        <f>_xlfn.CONCAT((K15*14+(14*2)+1),"|",(K15*14+(14*2)))</f>
+        <v>29|28</v>
+      </c>
+      <c r="K16" s="39" t="str">
+        <f>_xlfn.CONCAT(($B$7-(K15*14+1)),"|",($B$7-(K15*14+1)-1))</f>
+        <v>29|28</v>
+      </c>
+      <c r="L16" s="38" t="str">
+        <f>_xlfn.CONCAT((M15*14+14+1),"|",(M15*14+14))</f>
+        <v>15|14</v>
+      </c>
+      <c r="M16" s="39" t="str">
+        <f>_xlfn.CONCAT(($B$8-(M15*14+14+1)+28), "|", ($B$8-(M15*14+14+1)+28)-1)</f>
+        <v>57|56</v>
+      </c>
+      <c r="N16" s="38" t="str">
+        <f>_xlfn.CONCAT((O15*14+(14*2)+1),"|",(O15*14+(14*2)))</f>
+        <v>29|28</v>
+      </c>
+      <c r="O16" s="39" t="str">
+        <f>_xlfn.CONCAT(($B$8-(O15*14+1)),"|",($B$8-(O15*14+1)-1))</f>
+        <v>43|42</v>
+      </c>
+      <c r="P16" s="38" t="str">
+        <f>_xlfn.CONCAT((Q15*14+(14*3)+1),"|",(Q15*14+(14*3)))</f>
+        <v>43|42</v>
+      </c>
+      <c r="Q16" s="41" t="str">
+        <f>_xlfn.CONCAT(($B$8-(Q15*14+14+1)),"|",($B$8-(Q15*14+14+1)-1))</f>
+        <v>29|28</v>
+      </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="14">
+    <row r="17" spans="3:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="C17" s="11">
         <v>225</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="12">
         <f t="shared" ref="D17:E17" si="12">C17-2</f>
         <v>223</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="14">
         <f t="shared" si="12"/>
         <v>221</v>
       </c>
+      <c r="F17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="36"/>
+      <c r="H17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="36"/>
+      <c r="J17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="37"/>
+      <c r="L17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="36"/>
+      <c r="N17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O17" s="36"/>
+      <c r="P17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="20"/>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="14">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C18" s="11">
         <v>239</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="12">
         <f t="shared" ref="D18:E18" si="13">C18-2</f>
         <v>237</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="14">
         <f t="shared" si="13"/>
         <v>235</v>
       </c>
+      <c r="F18" s="38" t="str">
+        <f>_xlfn.CONCAT((G17*14+14+1),"|",(G17*14+14))</f>
+        <v>15|14</v>
+      </c>
+      <c r="G18" s="39" t="str">
+        <f>_xlfn.CONCAT(($B$6-(G17*14+14+1)+28), "|", ($B$6-(G17*14+14+1)+28)-1)</f>
+        <v>29|28</v>
+      </c>
+      <c r="H18" s="38" t="str">
+        <f>_xlfn.CONCAT((I17*14+14+1),"|",(I17*14+14))</f>
+        <v>15|14</v>
+      </c>
+      <c r="I18" s="39" t="str">
+        <f>_xlfn.CONCAT(($B$7-(I17*14+14+1)+28), "|", ($B$7-(I17*14+14+1)+28)-1)</f>
+        <v>43|42</v>
+      </c>
+      <c r="J18" s="38" t="str">
+        <f>_xlfn.CONCAT((K17*14+(14*2)+1),"|",(K17*14+(14*2)))</f>
+        <v>29|28</v>
+      </c>
+      <c r="K18" s="40" t="str">
+        <f>_xlfn.CONCAT(($B$7-(K17*14+1)),"|",($B$7-(K17*14+1)-1))</f>
+        <v>29|28</v>
+      </c>
+      <c r="L18" s="38" t="str">
+        <f>_xlfn.CONCAT((M17*14+14+1),"|",(M17*14+14))</f>
+        <v>15|14</v>
+      </c>
+      <c r="M18" s="39" t="str">
+        <f>_xlfn.CONCAT(($B$8-(M17*14+14+1)+28), "|", ($B$8-(M17*14+14+1)+28)-1)</f>
+        <v>57|56</v>
+      </c>
+      <c r="N18" s="38" t="str">
+        <f>_xlfn.CONCAT((O17*14+(14*2)+1),"|",(O17*14+(14*2)))</f>
+        <v>29|28</v>
+      </c>
+      <c r="O18" s="39" t="str">
+        <f>_xlfn.CONCAT(($B$8-(O17*14+1)),"|",($B$8-(O17*14+1)-1))</f>
+        <v>43|42</v>
+      </c>
+      <c r="P18" s="38" t="str">
+        <f>_xlfn.CONCAT((Q17*14+(14*3)+1),"|",(Q17*14+(14*3)))</f>
+        <v>43|42</v>
+      </c>
+      <c r="Q18" s="41" t="str">
+        <f>_xlfn.CONCAT(($B$8-(Q17*14+14+1)),"|",($B$8-(Q17*14+14+1)-1))</f>
+        <v>29|28</v>
+      </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="14">
+    <row r="19" spans="3:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="C19" s="11">
         <v>253</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="12">
         <f t="shared" ref="D19:E19" si="14">C19-2</f>
         <v>251</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="14">
         <f t="shared" si="14"/>
         <v>249</v>
       </c>
+      <c r="F19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="36"/>
+      <c r="H19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="36"/>
+      <c r="J19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" s="37"/>
+      <c r="L19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M19" s="36"/>
+      <c r="N19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19" s="36"/>
+      <c r="P19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="20"/>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="14">
+    <row r="20" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C20" s="11">
         <v>267</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="12">
         <f t="shared" ref="D20:E20" si="15">C20-2</f>
         <v>265</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="14">
         <f t="shared" si="15"/>
         <v>263</v>
       </c>
+      <c r="F20" s="38" t="str">
+        <f>_xlfn.CONCAT((G19*14+14+1),"|",(G19*14+14))</f>
+        <v>15|14</v>
+      </c>
+      <c r="G20" s="39" t="str">
+        <f>_xlfn.CONCAT(($B$6-(G19*14+14+1)+28), "|", ($B$6-(G19*14+14+1)+28)-1)</f>
+        <v>29|28</v>
+      </c>
+      <c r="H20" s="38" t="str">
+        <f>_xlfn.CONCAT((I19*14+14+1),"|",(I19*14+14))</f>
+        <v>15|14</v>
+      </c>
+      <c r="I20" s="39" t="str">
+        <f>_xlfn.CONCAT(($B$7-(I19*14+14+1)+28), "|", ($B$7-(I19*14+14+1)+28)-1)</f>
+        <v>43|42</v>
+      </c>
+      <c r="J20" s="38" t="str">
+        <f>_xlfn.CONCAT((K19*14+(14*2)+1),"|",(K19*14+(14*2)))</f>
+        <v>29|28</v>
+      </c>
+      <c r="K20" s="40" t="str">
+        <f>_xlfn.CONCAT(($B$7-(K19*14+1)),"|",($B$7-(K19*14+1)-1))</f>
+        <v>29|28</v>
+      </c>
+      <c r="L20" s="38" t="str">
+        <f>_xlfn.CONCAT((M19*14+14+1),"|",(M19*14+14))</f>
+        <v>15|14</v>
+      </c>
+      <c r="M20" s="39" t="str">
+        <f>_xlfn.CONCAT(($B$8-(M19*14+14+1)+28), "|", ($B$8-(M19*14+14+1)+28)-1)</f>
+        <v>57|56</v>
+      </c>
+      <c r="N20" s="38" t="str">
+        <f>_xlfn.CONCAT((O19*14+(14*2)+1),"|",(O19*14+(14*2)))</f>
+        <v>29|28</v>
+      </c>
+      <c r="O20" s="39" t="str">
+        <f>_xlfn.CONCAT(($B$8-(O19*14+1)),"|",($B$8-(O19*14+1)-1))</f>
+        <v>43|42</v>
+      </c>
+      <c r="P20" s="38" t="str">
+        <f>_xlfn.CONCAT((Q19*14+(14*3)+1),"|",(Q19*14+(14*3)))</f>
+        <v>43|42</v>
+      </c>
+      <c r="Q20" s="41" t="str">
+        <f>_xlfn.CONCAT(($B$8-(Q19*14+14+1)),"|",($B$8-(Q19*14+14+1)-1))</f>
+        <v>29|28</v>
+      </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="14">
+    <row r="21" spans="3:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="C21" s="11">
         <v>281</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="12">
         <f t="shared" ref="D21:E21" si="16">C21-2</f>
         <v>279</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="14">
         <f t="shared" si="16"/>
         <v>277</v>
       </c>
+      <c r="F21" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="36"/>
+      <c r="H21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="36"/>
+      <c r="J21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="37"/>
+      <c r="L21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="36"/>
+      <c r="N21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O21" s="36"/>
+      <c r="P21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q21" s="20"/>
     </row>
-    <row r="22" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="14">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C22" s="11">
         <v>295</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="12">
         <f t="shared" ref="D22:E22" si="17">C22-2</f>
         <v>293</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="14">
         <f t="shared" si="17"/>
         <v>291</v>
       </c>
-      <c r="H22" s="1"/>
+      <c r="F22" s="38" t="str">
+        <f>_xlfn.CONCAT((G21*14+14+1),"|",(G21*14+14))</f>
+        <v>15|14</v>
+      </c>
+      <c r="G22" s="39" t="str">
+        <f>_xlfn.CONCAT(($B$6-(G21*14+14+1)+28), "|", ($B$6-(G21*14+14+1)+28)-1)</f>
+        <v>29|28</v>
+      </c>
+      <c r="H22" s="38" t="str">
+        <f>_xlfn.CONCAT((I21*14+14+1),"|",(I21*14+14))</f>
+        <v>15|14</v>
+      </c>
+      <c r="I22" s="39" t="str">
+        <f>_xlfn.CONCAT(($B$7-(I21*14+14+1)+28), "|", ($B$7-(I21*14+14+1)+28)-1)</f>
+        <v>43|42</v>
+      </c>
+      <c r="J22" s="38" t="str">
+        <f>_xlfn.CONCAT((K21*14+(14*2)+1),"|",(K21*14+(14*2)))</f>
+        <v>29|28</v>
+      </c>
+      <c r="K22" s="40" t="str">
+        <f>_xlfn.CONCAT(($B$7-(K21*14+1)),"|",($B$7-(K21*14+1)-1))</f>
+        <v>29|28</v>
+      </c>
+      <c r="L22" s="38" t="str">
+        <f>_xlfn.CONCAT((M21*14+14+1),"|",(M21*14+14))</f>
+        <v>15|14</v>
+      </c>
+      <c r="M22" s="39" t="str">
+        <f>_xlfn.CONCAT(($B$8-(M21*14+14+1)+28), "|", ($B$8-(M21*14+14+1)+28)-1)</f>
+        <v>57|56</v>
+      </c>
+      <c r="N22" s="38" t="str">
+        <f>_xlfn.CONCAT((O21*14+(14*2)+1),"|",(O21*14+(14*2)))</f>
+        <v>29|28</v>
+      </c>
+      <c r="O22" s="39" t="str">
+        <f>_xlfn.CONCAT(($B$8-(O21*14+1)),"|",($B$8-(O21*14+1)-1))</f>
+        <v>43|42</v>
+      </c>
+      <c r="P22" s="38" t="str">
+        <f>_xlfn.CONCAT((Q21*14+(14*3)+1),"|",(Q21*14+(14*3)))</f>
+        <v>43|42</v>
+      </c>
+      <c r="Q22" s="41" t="str">
+        <f>_xlfn.CONCAT(($B$8-(Q21*14+14+1)),"|",($B$8-(Q21*14+14+1)-1))</f>
+        <v>29|28</v>
+      </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C23" s="14">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C23" s="11">
         <v>309</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="12">
         <f t="shared" ref="D23:E23" si="18">C23-2</f>
         <v>307</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="14">
         <f t="shared" si="18"/>
         <v>305</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C24" s="14">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C24" s="11">
         <v>323</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="12">
         <f t="shared" ref="D24:E24" si="19">C24-2</f>
         <v>321</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="14">
         <f t="shared" si="19"/>
         <v>319</v>
       </c>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C25" s="14">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C25" s="11">
         <v>337</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="12">
         <f t="shared" ref="D25:E25" si="20">C25-2</f>
         <v>335</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="14">
         <f t="shared" si="20"/>
         <v>333</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C26" s="14">
+    <row r="26" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C26" s="11">
         <v>351</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="12">
         <f t="shared" ref="D26:E26" si="21">C26-2</f>
         <v>349</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="14">
         <f t="shared" si="21"/>
         <v>347</v>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C27" s="14">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C27" s="11">
         <v>365</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="12">
         <f t="shared" ref="D27:E27" si="22">C27-2</f>
         <v>363</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="14">
         <f t="shared" si="22"/>
         <v>361</v>
       </c>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C28" s="14">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C28" s="11">
         <v>379</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="12">
         <f t="shared" ref="D28:E28" si="23">C28-2</f>
         <v>377</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="14">
         <f t="shared" si="23"/>
         <v>375</v>
       </c>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C29" s="14">
+    <row r="29" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C29" s="11">
         <v>393</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="12">
         <f t="shared" ref="D29:E29" si="24">C29-2</f>
         <v>391</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="14">
         <f t="shared" si="24"/>
         <v>389</v>
       </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C30" s="14">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C30" s="11">
         <v>407</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="12">
         <f t="shared" ref="D30:E30" si="25">C30-2</f>
         <v>405</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="14">
         <f t="shared" si="25"/>
         <v>403</v>
       </c>
     </row>
-    <row r="31" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="18">
+    <row r="31" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="15">
         <v>421</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="16">
         <f t="shared" ref="D31:E31" si="26">C31-2</f>
         <v>419</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="17">
         <f t="shared" si="26"/>
         <v>417</v>
       </c>
     </row>
+    <row r="34" spans="6:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F34" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="52"/>
+      <c r="O34" s="52"/>
+      <c r="P34" s="52"/>
+      <c r="Q34" s="52"/>
+    </row>
+    <row r="35" spans="6:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F35" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="52"/>
+    </row>
+    <row r="36" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F36" s="35" t="e" cm="1">
+        <f t="array" ref="F36">_xlfn.IFS(ROUND((F6-15)/14,0)=ROUND((-(G6-28-$B$6)-15)/14,0),ROUND((-(G6-28-$B$6)-15)/14,0),ROUND((G6-15)/14,0)=ROUND((-(F6-28-$B$6)-15)/14,0),ROUND((-(F6-28-$B$6)-15)/14,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G36" s="35" t="e" cm="1">
+        <f t="array" ref="G36">_xlfn.IFS(ROUND((G6-15)/14,0)=ROUND((-(F6-28-$B$6)-15)/14,0),ROUND((-(F6-28-$B$6)-15)/14,0),ROUND((F6-15)/14,0)=ROUND((-(G6-28-$B$6)-15)/14,0),ROUND((-(G6-28-$B$6)-15)/14,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H36" s="35" t="e" cm="1">
+        <f t="array" ref="H36">_xlfn.IFS(ROUND((H6-15)/14,0)=ROUND((-(I6-28-$B$7)-15)/14,0),ROUND((-(I6-28-$B$7)-15)/14,0),ROUND((I6-15)/14,0)=ROUND((-(H6-28-$B$7)-15)/14,0),ROUND((-(H6-28-$B$7)-15)/14,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I36" s="35" t="e" cm="1">
+        <f t="array" ref="I36">_xlfn.IFS(ROUND((I6-15)/14,0)=ROUND((-(H6-28-$B$7)-15)/14,0),ROUND((-(H6-28-$B$7)-15)/14,0),ROUND((H6-15)/14,0)=ROUND((-(I6-28-$B$7)-15)/14,0),ROUND((-(I6-28-$B$7)-15)/14,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J36" s="35" t="e" cm="1">
+        <f t="array" ref="J36">_xlfn.IFS(ROUND((J6-28-1)/14,0)=ROUND((-(K6-$B$7)-1)/14,0),(J6-28-1)/14,ROUND((K6-28-1)/14,0)=ROUND((-(J6-$B$7)-1)/14,0),(K6-28-1)/14)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K36" s="35" t="e" cm="1">
+        <f t="array" ref="K36">_xlfn.IFS(ROUND((K6-28-1)/14,0)=ROUND((-(J6-$B$7)-1)/14,0),(K6-28-1)/14,ROUND((J6-28-1)/14,0)=ROUND((-(K6-$B$7)-1)/14,0),(J6-28-1)/14)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L36" s="35" t="e" cm="1">
+        <f t="array" ref="L36">_xlfn.IFS(ROUND((L6-15)/14,0)=ROUND((-(M6-$B$8-28)-15)/14,0),ROUND((L6-15)/14,0),ROUND((M6-15)/14,0)=ROUND((-(L6-$B$8-28)-15)/14,0),ROUND((M6-15)/14,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M36" s="35" t="e" cm="1">
+        <f t="array" ref="M36">_xlfn.IFS(ROUND((M6-15)/14,0)=ROUND((-(L6-$B$8-28)-15)/14,0),ROUND((M6-15)/14,0),ROUND((L6-15)/14,0)=ROUND((-(M6-$B$8-28)-15)/14,0),ROUND((L6-15)/14,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N36" s="35" t="e" cm="1">
+        <f t="array" ref="N36">_xlfn.IFS(ROUND((N6-29)/14,0)=ROUND((-(O6-$B$8)-1)/14,0),ROUND((N6-29)/14,0),ROUND((O6-29)/14,0)=ROUND((-(N6-$B$8)-1)/14,0),ROUND((O6-29)/14,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O36" s="35" t="e" cm="1">
+        <f t="array" ref="O36">_xlfn.IFS(ROUND((O6-29)/14,0)=ROUND((-(N6-$B$8)-1)/14,0),ROUND((O6-29)/14,0),ROUND((N6-29)/14,0)=ROUND((-(O6-$B$8)-1)/14,0),ROUND((N6-29)/14,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P36" s="35" t="e" cm="1">
+        <f t="array" ref="P36">_xlfn.IFS(ROUND((P6-43)/14,0)=ROUND((-(Q6-$B$8)-15)/14,0),ROUND((P6-43)/14,0),ROUND((Q6-43)/14,0)=ROUND((-(P6-$B$8)-15)/14,0),ROUND((Q6-43)/14,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q36" s="35" t="e" cm="1">
+        <f t="array" ref="Q36">_xlfn.IFS(ROUND((Q6-43)/14,0)=ROUND((-(P6-$B$8)-15)/14,0),ROUND((Q6-43)/14,0),ROUND((P6-43)/14,0)=ROUND((-(Q6-$B$8)-15)/14,0),ROUND((P6-43)/14,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F37" s="35" t="e" cm="1">
+        <f t="array" ref="F37">_xlfn.IFS(ROUND((F8-15)/14,0)=ROUND((-(G8-28-$B$6)-15)/14,0),ROUND((-(G8-28-$B$6)-15)/14,0),ROUND((G8-15)/14,0)=ROUND((-(F8-28-$B$6)-15)/14,0),ROUND((-(F8-28-$B$6)-15)/14,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G37" s="35" t="e" cm="1">
+        <f t="array" ref="G37">_xlfn.IFS(ROUND((G8-15)/14,0)=ROUND((-(F8-28-$B$6)-15)/14,0),ROUND((-(F8-28-$B$6)-15)/14,0),ROUND((F8-15)/14,0)=ROUND((-(G8-28-$B$6)-15)/14,0),ROUND((-(G8-28-$B$6)-15)/14,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H37" s="35" t="e" cm="1">
+        <f t="array" ref="H37">_xlfn.IFS(ROUND((H8-15)/14,0)=ROUND((-(I8-28-$B$7)-15)/14,0),ROUND((-(I8-28-$B$7)-15)/14,0),ROUND((I8-15)/14,0)=ROUND((-(H8-28-$B$7)-15)/14,0),ROUND((-(H8-28-$B$7)-15)/14,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I37" s="35" t="e" cm="1">
+        <f t="array" ref="I37">_xlfn.IFS(ROUND((I8-15)/14,0)=ROUND((-(H8-28-$B$7)-15)/14,0),ROUND((-(H8-28-$B$7)-15)/14,0),ROUND((H8-15)/14,0)=ROUND((-(I8-28-$B$7)-15)/14,0),ROUND((-(I8-28-$B$7)-15)/14,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J37" s="35" t="e" cm="1">
+        <f t="array" ref="J37">_xlfn.IFS(ROUND((J8-28-1)/14,0)=ROUND((-(K8-$B$7)-1)/14,0),(J8-28-1)/14,ROUND((K8-28-1)/14,0)=ROUND((-(J8-$B$7)-1)/14,0),(K8-28-1)/14)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K37" s="35" t="e" cm="1">
+        <f t="array" ref="K37">_xlfn.IFS(ROUND((K8-28-1)/14,0)=ROUND((-(J8-$B$7)-1)/14,0),(K8-28-1)/14,ROUND((J8-28-1)/14,0)=ROUND((-(K8-$B$7)-1)/14,0),(J8-28-1)/14)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L37" s="35" t="e" cm="1">
+        <f t="array" ref="L37">_xlfn.IFS(ROUND((L8-15)/14,0)=ROUND((-(M8-$B$8-28)-15)/14,0),ROUND((L8-15)/14,0),ROUND((M8-15)/14,0)=ROUND((-(L8-$B$8-28)-15)/14,0),ROUND((M8-15)/14,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M37" s="35" t="e" cm="1">
+        <f t="array" ref="M37">_xlfn.IFS(ROUND((M8-15)/14,0)=ROUND((-(L8-$B$8-28)-15)/14,0),ROUND((M8-15)/14,0),ROUND((L8-15)/14,0)=ROUND((-(M8-$B$8-28)-15)/14,0),ROUND((L8-15)/14,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N37" s="35" t="e" cm="1">
+        <f t="array" ref="N37">_xlfn.IFS(ROUND((N8-29)/14,0)=ROUND((-(O8-$B$8)-1)/14,0),ROUND((N8-29)/14,0),ROUND((O8-29)/14,0)=ROUND((-(N8-$B$8)-1)/14,0),ROUND((O8-29)/14,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O37" s="35" t="e" cm="1">
+        <f t="array" ref="O37">_xlfn.IFS(ROUND((O8-29)/14,0)=ROUND((-(N8-$B$8)-1)/14,0),ROUND((O8-29)/14,0),ROUND((N8-29)/14,0)=ROUND((-(O8-$B$8)-1)/14,0),ROUND((N8-29)/14,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P37" s="35" t="e" cm="1">
+        <f t="array" ref="P37">_xlfn.IFS(ROUND((P8-43)/14,0)=ROUND((-(Q8-$B$8)-15)/14,0),ROUND((P8-43)/14,0),ROUND((Q8-43)/14,0)=ROUND((-(P8-$B$8)-15)/14,0),ROUND((Q8-43)/14,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q37" s="35" t="e" cm="1">
+        <f t="array" ref="Q37">_xlfn.IFS(ROUND((Q8-43)/14,0)=ROUND((-(P8-$B$8)-15)/14,0),ROUND((Q8-43)/14,0),ROUND((P8-43)/14,0)=ROUND((-(Q8-$B$8)-15)/14,0),ROUND((P8-43)/14,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F38" s="35" t="e" cm="1">
+        <f t="array" ref="F38">_xlfn.IFS(ROUND((F10-15)/14,0)=ROUND((-(G10-28-$B$6)-15)/14,0),ROUND((-(G10-28-$B$6)-15)/14,0),ROUND((G10-15)/14,0)=ROUND((-(F10-28-$B$6)-15)/14,0),ROUND((-(F10-28-$B$6)-15)/14,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G38" s="35" t="e" cm="1">
+        <f t="array" ref="G38">_xlfn.IFS(ROUND((G10-15)/14,0)=ROUND((-(F10-28-$B$6)-15)/14,0),ROUND((-(F10-28-$B$6)-15)/14,0),ROUND((F10-15)/14,0)=ROUND((-(G10-28-$B$6)-15)/14,0),ROUND((-(G10-28-$B$6)-15)/14,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H38" s="35" t="e" cm="1">
+        <f t="array" ref="H38">_xlfn.IFS(ROUND((H10-15)/14,0)=ROUND((-(I10-28-$B$7)-15)/14,0),ROUND((-(I10-28-$B$7)-15)/14,0),ROUND((I10-15)/14,0)=ROUND((-(H10-28-$B$7)-15)/14,0),ROUND((-(H10-28-$B$7)-15)/14,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I38" s="35" t="e" cm="1">
+        <f t="array" ref="I38">_xlfn.IFS(ROUND((I10-15)/14,0)=ROUND((-(H10-28-$B$7)-15)/14,0),ROUND((-(H10-28-$B$7)-15)/14,0),ROUND((H10-15)/14,0)=ROUND((-(I10-28-$B$7)-15)/14,0),ROUND((-(I10-28-$B$7)-15)/14,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J38" s="35" t="e" cm="1">
+        <f t="array" ref="J38">_xlfn.IFS(ROUND((J10-28-1)/14,0)=ROUND((-(K10-$B$7)-1)/14,0),(J10-28-1)/14,ROUND((K10-28-1)/14,0)=ROUND((-(J10-$B$7)-1)/14,0),(K10-28-1)/14)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K38" s="35" t="e" cm="1">
+        <f t="array" ref="K38">_xlfn.IFS(ROUND((K10-28-1)/14,0)=ROUND((-(J10-$B$7)-1)/14,0),(K10-28-1)/14,ROUND((J10-28-1)/14,0)=ROUND((-(K10-$B$7)-1)/14,0),(J10-28-1)/14)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L38" s="35" t="e" cm="1">
+        <f t="array" ref="L38">_xlfn.IFS(ROUND((L10-15)/14,0)=ROUND((-(M10-$B$8-28)-15)/14,0),ROUND((L10-15)/14,0),ROUND((M10-15)/14,0)=ROUND((-(L10-$B$8-28)-15)/14,0),ROUND((M10-15)/14,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M38" s="35" t="e" cm="1">
+        <f t="array" ref="M38">_xlfn.IFS(ROUND((M10-15)/14,0)=ROUND((-(L10-$B$8-28)-15)/14,0),ROUND((M10-15)/14,0),ROUND((L10-15)/14,0)=ROUND((-(M10-$B$8-28)-15)/14,0),ROUND((L10-15)/14,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N38" s="35" t="e" cm="1">
+        <f t="array" ref="N38">_xlfn.IFS(ROUND((N10-29)/14,0)=ROUND((-(O10-$B$8)-1)/14,0),ROUND((N10-29)/14,0),ROUND((O10-29)/14,0)=ROUND((-(N10-$B$8)-1)/14,0),ROUND((O10-29)/14,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O38" s="35" t="e" cm="1">
+        <f t="array" ref="O38">_xlfn.IFS(ROUND((O10-29)/14,0)=ROUND((-(N10-$B$8)-1)/14,0),ROUND((O10-29)/14,0),ROUND((N10-29)/14,0)=ROUND((-(O10-$B$8)-1)/14,0),ROUND((N10-29)/14,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P38" s="35" t="e" cm="1">
+        <f t="array" ref="P38">_xlfn.IFS(ROUND((P10-43)/14,0)=ROUND((-(Q10-$B$8)-15)/14,0),ROUND((P10-43)/14,0),ROUND((Q10-43)/14,0)=ROUND((-(P10-$B$8)-15)/14,0),ROUND((Q10-43)/14,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q38" s="35" t="e" cm="1">
+        <f t="array" ref="Q38">_xlfn.IFS(ROUND((Q10-43)/14,0)=ROUND((-(P10-$B$8)-15)/14,0),ROUND((Q10-43)/14,0),ROUND((P10-43)/14,0)=ROUND((-(Q10-$B$8)-15)/14,0),ROUND((P10-43)/14,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F39" s="35" t="e" cm="1">
+        <f t="array" ref="F39">_xlfn.IFS(ROUND((F12-15)/14,0)=ROUND((-(G12-28-$B$6)-15)/14,0),ROUND((-(G12-28-$B$6)-15)/14,0),ROUND((G12-15)/14,0)=ROUND((-(F12-28-$B$6)-15)/14,0),ROUND((-(F12-28-$B$6)-15)/14,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G39" s="35" t="e" cm="1">
+        <f t="array" ref="G39">_xlfn.IFS(ROUND((G12-15)/14,0)=ROUND((-(F12-28-$B$6)-15)/14,0),ROUND((-(F12-28-$B$6)-15)/14,0),ROUND((F12-15)/14,0)=ROUND((-(G12-28-$B$6)-15)/14,0),ROUND((-(G12-28-$B$6)-15)/14,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H39" s="35" t="e" cm="1">
+        <f t="array" ref="H39">_xlfn.IFS(ROUND((H12-15)/14,0)=ROUND((-(I12-28-$B$7)-15)/14,0),ROUND((-(I12-28-$B$7)-15)/14,0),ROUND((I12-15)/14,0)=ROUND((-(H12-28-$B$7)-15)/14,0),ROUND((-(H12-28-$B$7)-15)/14,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I39" s="35" t="e" cm="1">
+        <f t="array" ref="I39">_xlfn.IFS(ROUND((I12-15)/14,0)=ROUND((-(H12-28-$B$7)-15)/14,0),ROUND((-(H12-28-$B$7)-15)/14,0),ROUND((H12-15)/14,0)=ROUND((-(I12-28-$B$7)-15)/14,0),ROUND((-(I12-28-$B$7)-15)/14,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J39" s="35" t="e" cm="1">
+        <f t="array" ref="J39">_xlfn.IFS(ROUND((J12-28-1)/14,0)=ROUND((-(K12-$B$7)-1)/14,0),(J12-28-1)/14,ROUND((K12-28-1)/14,0)=ROUND((-(J12-$B$7)-1)/14,0),(K12-28-1)/14)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K39" s="35" t="e" cm="1">
+        <f t="array" ref="K39">_xlfn.IFS(ROUND((K12-28-1)/14,0)=ROUND((-(J12-$B$7)-1)/14,0),(K12-28-1)/14,ROUND((J12-28-1)/14,0)=ROUND((-(K12-$B$7)-1)/14,0),(J12-28-1)/14)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L39" s="35" t="e" cm="1">
+        <f t="array" ref="L39">_xlfn.IFS(ROUND((L12-15)/14,0)=ROUND((-(M12-$B$8-28)-15)/14,0),ROUND((L12-15)/14,0),ROUND((M12-15)/14,0)=ROUND((-(L12-$B$8-28)-15)/14,0),ROUND((M12-15)/14,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M39" s="35" t="e" cm="1">
+        <f t="array" ref="M39">_xlfn.IFS(ROUND((M12-15)/14,0)=ROUND((-(L12-$B$8-28)-15)/14,0),ROUND((M12-15)/14,0),ROUND((L12-15)/14,0)=ROUND((-(M12-$B$8-28)-15)/14,0),ROUND((L12-15)/14,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N39" s="35" t="e" cm="1">
+        <f t="array" ref="N39">_xlfn.IFS(ROUND((N12-29)/14,0)=ROUND((-(O12-$B$8)-1)/14,0),ROUND((N12-29)/14,0),ROUND((O12-29)/14,0)=ROUND((-(N12-$B$8)-1)/14,0),ROUND((O12-29)/14,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O39" s="35" t="e" cm="1">
+        <f t="array" ref="O39">_xlfn.IFS(ROUND((O12-29)/14,0)=ROUND((-(N12-$B$8)-1)/14,0),ROUND((O12-29)/14,0),ROUND((N12-29)/14,0)=ROUND((-(O12-$B$8)-1)/14,0),ROUND((N12-29)/14,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P39" s="35" t="e" cm="1">
+        <f t="array" ref="P39">_xlfn.IFS(ROUND((P12-43)/14,0)=ROUND((-(Q12-$B$8)-15)/14,0),ROUND((P12-43)/14,0),ROUND((Q12-43)/14,0)=ROUND((-(P12-$B$8)-15)/14,0),ROUND((Q12-43)/14,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q39" s="35" t="e" cm="1">
+        <f t="array" ref="Q39">_xlfn.IFS(ROUND((Q12-43)/14,0)=ROUND((-(P12-$B$8)-15)/14,0),ROUND((Q12-43)/14,0),ROUND((P12-43)/14,0)=ROUND((-(Q12-$B$8)-15)/14,0),ROUND((P12-43)/14,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="16">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="F3:G3"/>
     <mergeCell ref="C1:N1"/>
-    <mergeCell ref="L3:Q3"/>
     <mergeCell ref="C2:Q2"/>
     <mergeCell ref="O1:P1"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:Q35"/>
+    <mergeCell ref="F3:Q3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:Q4"/>
+    <mergeCell ref="F34:Q34"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="F13:Q13"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:C31">
-    <cfRule type="cellIs" dxfId="57" priority="93" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="111" priority="201" operator="greaterThanOrEqual">
       <formula>$B$3-14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D31">
-    <cfRule type="cellIs" dxfId="56" priority="92" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="110" priority="200" operator="greaterThanOrEqual">
       <formula>$B$4-14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E31">
-    <cfRule type="cellIs" dxfId="55" priority="90" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="109" priority="198" operator="greaterThanOrEqual">
       <formula>$B$5-14</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:G5">
-    <cfRule type="expression" dxfId="54" priority="55">
-      <formula>COUNTIF($G$4,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7:G7">
-    <cfRule type="expression" dxfId="53" priority="54">
-      <formula>COUNTIF($G$6,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9:G9">
-    <cfRule type="expression" dxfId="52" priority="53">
-      <formula>COUNTIF($G$8,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:G11">
-    <cfRule type="expression" dxfId="51" priority="52">
-      <formula>COUNTIF($G$10,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13:G13">
-    <cfRule type="expression" dxfId="50" priority="51">
-      <formula>COUNTIF($G$12,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15:G15">
-    <cfRule type="expression" dxfId="49" priority="50">
-      <formula>COUNTIF($G$14,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5:I5">
-    <cfRule type="expression" dxfId="48" priority="49">
-      <formula>COUNTIF($I$4,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7:I7">
-    <cfRule type="expression" dxfId="47" priority="48">
-      <formula>COUNTIF($I$6,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9:I9">
-    <cfRule type="expression" dxfId="46" priority="47">
-      <formula>COUNTIF($I$8,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11:I11">
-    <cfRule type="expression" dxfId="45" priority="46">
-      <formula>COUNTIF($I$10,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13:I13">
-    <cfRule type="expression" dxfId="44" priority="45">
-      <formula>COUNTIF($I$12,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15:I15">
-    <cfRule type="expression" dxfId="43" priority="44">
-      <formula>COUNTIF($I$14,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5:K5">
-    <cfRule type="expression" dxfId="42" priority="43">
-      <formula>COUNTIF($K$4,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7:K7">
-    <cfRule type="expression" dxfId="41" priority="42">
-      <formula>COUNTIF($K$6,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9:K9">
-    <cfRule type="expression" dxfId="40" priority="41">
-      <formula>COUNTIF($K$8,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11:K11">
-    <cfRule type="expression" dxfId="39" priority="40">
-      <formula>COUNTIF($K$10,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13:K13">
-    <cfRule type="expression" dxfId="38" priority="39">
-      <formula>COUNTIF($K$12,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15:K15">
-    <cfRule type="expression" dxfId="37" priority="38">
-      <formula>COUNTIF($K$14,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B3:B8">
-    <cfRule type="expression" dxfId="36" priority="37">
+    <cfRule type="expression" dxfId="108" priority="108">
       <formula>COUNTIF($B$1,"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:M5">
-    <cfRule type="expression" dxfId="35" priority="18">
-      <formula>COUNTIF($M$4,"")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="36">
-      <formula>COUNTIF($I$4,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5:O5">
-    <cfRule type="expression" dxfId="33" priority="17">
-      <formula>COUNTIF($O$4,"")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="35">
-      <formula>COUNTIF($K$4,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5:Q5">
-    <cfRule type="expression" dxfId="31" priority="16">
-      <formula>COUNTIF($Q$4,"")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="34">
-      <formula>COUNTIF($K$4,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L7:M7">
-    <cfRule type="expression" dxfId="29" priority="15">
-      <formula>COUNTIF($M$6,"")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="33">
-      <formula>COUNTIF($I$4,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7:O7">
-    <cfRule type="expression" dxfId="27" priority="10">
-      <formula>COUNTIF($O$6,"")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="32">
-      <formula>COUNTIF($K$4,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P7:Q7">
-    <cfRule type="expression" dxfId="25" priority="5">
-      <formula>COUNTIF($Q$6,"")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="31">
-      <formula>COUNTIF($K$4,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L9:M9">
-    <cfRule type="expression" dxfId="23" priority="14">
-      <formula>COUNTIF($M$8,"")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="30">
-      <formula>COUNTIF($I$4,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N9:O9">
-    <cfRule type="expression" dxfId="21" priority="9">
-      <formula>COUNTIF($O$8,"")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="29">
-      <formula>COUNTIF($K$4,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P9:Q9">
-    <cfRule type="expression" dxfId="19" priority="4">
-      <formula>COUNTIF($Q$8,"")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="28">
-      <formula>COUNTIF($K$4,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L11:M11">
-    <cfRule type="expression" dxfId="17" priority="13">
-      <formula>COUNTIF($M$10,"")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="27">
-      <formula>COUNTIF($I$4,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N11:O11">
-    <cfRule type="expression" dxfId="15" priority="8">
-      <formula>COUNTIF($O$10,"")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="26">
-      <formula>COUNTIF($K$4,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P11:Q11">
-    <cfRule type="expression" dxfId="13" priority="3">
-      <formula>COUNTIF($Q$10,"")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="25">
-      <formula>COUNTIF($K$4,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L13:M13">
-    <cfRule type="expression" dxfId="11" priority="12">
-      <formula>COUNTIF($M$12,"")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="24">
-      <formula>COUNTIF($I$4,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N13:O13">
-    <cfRule type="expression" dxfId="9" priority="7">
-      <formula>COUNTIF($O$124,"")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="23">
-      <formula>COUNTIF($K$4,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P13:Q13">
-    <cfRule type="expression" dxfId="7" priority="2">
-      <formula>COUNTIF($Q$12,"")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="22">
-      <formula>COUNTIF($K$4,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L15:M15">
-    <cfRule type="expression" dxfId="5" priority="11">
-      <formula>COUNTIF($M$14,"")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="21">
-      <formula>COUNTIF($I$4,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N15:O15">
-    <cfRule type="expression" dxfId="3" priority="6">
-      <formula>COUNTIF($O$14,"")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="20">
-      <formula>COUNTIF($K$4,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P15:Q15">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>COUNTIF($Q$14,"")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="19">
-      <formula>COUNTIF($K$4,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="4">
+  <conditionalFormatting sqref="G5">
+    <cfRule type="expression" dxfId="107" priority="97">
+      <formula>COUNTIF(F$6:G$6,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5">
+    <cfRule type="expression" dxfId="106" priority="90">
+      <formula>COUNTIF(J6:K6,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="expression" dxfId="105" priority="89">
+      <formula>COUNTIF(L6:M6,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="expression" dxfId="104" priority="88">
+      <formula>COUNTIF(N6:O6,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="expression" dxfId="103" priority="87">
+      <formula>COUNTIF(P6:Q6,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="expression" dxfId="102" priority="86">
+      <formula>COUNTIF(F8:G8,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="expression" dxfId="101" priority="68">
+      <formula>COUNTIF(F10:G10,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="expression" dxfId="100" priority="67">
+      <formula>COUNTIF(F12:G12,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="expression" dxfId="99" priority="65">
+      <formula>COUNTIF(H$6:I$6,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="expression" dxfId="98" priority="60">
+      <formula>COUNTIF(H8:I8,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="expression" dxfId="97" priority="57">
+      <formula>COUNTIF(H10:I10,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="expression" dxfId="96" priority="56">
+      <formula>COUNTIF(H12:I12,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="expression" dxfId="95" priority="54">
+      <formula>COUNTIF(J10:K10,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="expression" dxfId="94" priority="53">
+      <formula>COUNTIF(J12:K12,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7">
+    <cfRule type="expression" dxfId="93" priority="52">
+      <formula>COUNTIF(J8:K8,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="expression" dxfId="92" priority="50">
+      <formula>COUNTIF(L8:M8,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M9">
+    <cfRule type="expression" dxfId="91" priority="49">
+      <formula>COUNTIF(L10:M10,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M11">
+    <cfRule type="expression" dxfId="90" priority="48">
+      <formula>COUNTIF(L12:M12,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7">
+    <cfRule type="expression" dxfId="89" priority="47">
+      <formula>COUNTIF(N8:O8,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9">
+    <cfRule type="expression" dxfId="88" priority="46">
+      <formula>COUNTIF(N10:O10,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O11">
+    <cfRule type="expression" dxfId="87" priority="45">
+      <formula>COUNTIF(N12:O12,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q7">
+    <cfRule type="expression" dxfId="86" priority="44">
+      <formula>COUNTIF(P8:Q8,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q9">
+    <cfRule type="expression" dxfId="85" priority="43">
+      <formula>COUNTIF(P10:Q10,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q11">
+    <cfRule type="expression" dxfId="84" priority="42">
+      <formula>COUNTIF(P12:Q12,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16:G16">
+    <cfRule type="expression" dxfId="83" priority="41">
+      <formula>COUNTIF($G$15,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18:I18">
+    <cfRule type="expression" dxfId="82" priority="36">
+      <formula>COUNTIF($I$17,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20:I20">
+    <cfRule type="expression" dxfId="81" priority="35">
+      <formula>COUNTIF($I$21,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22:I22">
+    <cfRule type="expression" dxfId="80" priority="34">
+      <formula>COUNTIF($I$19,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:K18">
+    <cfRule type="expression" dxfId="79" priority="32">
+      <formula>COUNTIF($K$17,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20:K20">
+    <cfRule type="expression" dxfId="78" priority="31">
+      <formula>COUNTIF($K$19,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22:K22">
+    <cfRule type="expression" dxfId="77" priority="30">
+      <formula>COUNTIF($K$21,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16:M16">
+    <cfRule type="expression" dxfId="76" priority="17">
+      <formula>COUNTIF($M$15,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16:O16">
+    <cfRule type="expression" dxfId="75" priority="16">
+      <formula>COUNTIF($O$15,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P16:Q16">
+    <cfRule type="expression" dxfId="74" priority="15">
+      <formula>COUNTIF($Q$15,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18:M18">
+    <cfRule type="expression" dxfId="73" priority="14">
+      <formula>COUNTIF($M$17,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N18:O18">
+    <cfRule type="expression" dxfId="72" priority="11">
+      <formula>COUNTIF($O$17,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P18:Q18">
+    <cfRule type="expression" dxfId="71" priority="8">
+      <formula>COUNTIF($Q$17,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L20:M20">
+    <cfRule type="expression" dxfId="70" priority="13">
+      <formula>COUNTIF($M$19,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N20:O20">
+    <cfRule type="expression" dxfId="69" priority="10">
+      <formula>COUNTIF($O$19,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P20:Q20">
+    <cfRule type="expression" dxfId="68" priority="7">
+      <formula>COUNTIF($Q$19,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22:M22">
+    <cfRule type="expression" dxfId="67" priority="12">
+      <formula>COUNTIF($M$21,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N22:O22">
+    <cfRule type="expression" dxfId="66" priority="9">
+      <formula>COUNTIF($O$21,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P22:Q22">
+    <cfRule type="expression" dxfId="65" priority="6">
+      <formula>COUNTIF($Q$21,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18:G18">
+    <cfRule type="expression" dxfId="64" priority="5">
+      <formula>COUNTIF($G$17,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20:G20">
+    <cfRule type="expression" dxfId="63" priority="4">
+      <formula>COUNTIF($G$19,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22:G22">
+    <cfRule type="expression" dxfId="62" priority="3">
+      <formula>COUNTIF($G$21,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16:I16">
+    <cfRule type="expression" dxfId="61" priority="2">
+      <formula>COUNTIF($I$15,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16:K16">
+    <cfRule type="expression" dxfId="60" priority="1">
+      <formula>COUNTIF($K$15,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="5">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Hydrocarbon chain length" prompt="Enter a whole number (greater than 1) indicating the number of carbons in the hydrocarbon chain of your target compound." sqref="B1" xr:uid="{59034CD3-07AD-43DA-BF0A-C169AB9D5C12}">
       <formula1>2</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Methylation position" prompt="Enter a whole number (greater than 1, smaller than the chain length of the target compound) indicating the position on the hydrocarbon chain length of your target monomethyl alkane, where you expect the methyl group to be located." sqref="G4 G6 G8 G10 G12 G14" xr:uid="{EE07E8DF-BEBF-47E5-9594-5DB4FCB68590}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Methylation  position" prompt="Enter a whole number (greater than 1, and smaller than the chain length of your target compound) indicating the position on the hydrocarbon chain length of your target trimethyl alkane, where you expect the methyl group to be located." sqref="M15 O15 Q15 M17 O17 Q17 M19 O19 Q19 M21 O21 Q21" xr:uid="{0B24CC8A-C58C-4D38-BC71-B4113371FCE0}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Methylation  position" prompt="Enter a whole number (greater than 1, and smaller than the chain length of your target compound) indicating the position on the hydrocarbon chain length of your target dimethyl alkane, where you expect the methyl group to be located." sqref="I4 K4 K6 I6 I8 K8 I10 K10 I12 K12 I14 K14" xr:uid="{6579DBED-D15C-4A57-A973-3E90AACD9F3C}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Methylation  position" prompt="Enter a whole number (greater than 1, and smaller than the chain length of your target compound) indicating the position on the hydrocarbon chain length of your target dimethyl alkane, where you expect the methyl group to be located." sqref="I15 K15 K17 I17 I19 K19 I21 K21" xr:uid="{9507EB1B-D621-4E76-AD73-96FD6786582F}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Methylation  position" prompt="Enter a whole number (greater than 1, and smaller than the chain length of your target compound) indicating the position on the hydrocarbon chain length of your target trimethyl alkane, where you expect the methyl group to be located." sqref="M4 O4 Q4 M6 O6 Q6 M8 O8 Q8 M10 O10 Q10 M12 O12 Q12 M14 O14 Q14" xr:uid="{9140A324-CD8E-4EC0-8E64-F2CB0D85721B}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Methylation position" prompt="Enter a whole number (greater than 1, smaller than the chain length of the target compound) indicating the position on the hydrocarbon chain length of your target monomethyl alkane, where you expect the methyl group to be located." sqref="G15 G17 G19 G21" xr:uid="{D5EE7E83-0507-4062-835B-B9CFD374095C}">
       <formula1>1</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Information display cell" prompt="Do not modify the content of this cell!_x000a_" sqref="B3:B8 C4:E31 F22:Q22 F20:Q20 F18:Q18 F16:Q16 G11 G9 G7 G5 I5 I7 I9 I11 K11 K9 K7 K5 M5 M7 M9 M11 O11 O9 O7 O5 Q5 Q7 Q9 Q11" xr:uid="{6031726E-2666-4FBA-A999-45AFAFAD390B}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3929,18 +4924,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7A751E-AC0F-4038-95D2-ABBAAB30BEF5}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA29C01F-D0C8-4179-B9E2-43A810D01174}">
   <dimension ref="A1:T1"/>
   <sheetViews>
@@ -3951,30 +4934,30 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="48"/>
+      <c r="A1" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3986,4 +4969,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7A751E-AC0F-4038-95D2-ABBAAB30BEF5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CHC-indentification.xlsx
+++ b/CHC-indentification.xlsx
@@ -6,16 +6,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daniel\Documentos\PhD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daniel\GitRepos\CHC-identification_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D624ED-1051-4FFF-B4CF-07C8EFFAA647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="097FGWlWYFTK/0FG2lB+72shyRPGqCqZjG+vN/O7jEZcbY1z+zoGRSy1D8+Ave/ZEAB2ubKfltV0f1awL1hlGA==" workbookSaltValue="wlTpuOApVMHVSYv8mkR95A==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED966C7-54E3-42A4-8D41-3FFAC1F64F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E627A05E-6340-4C51-B36C-84944E4086CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E627A05E-6340-4C51-B36C-84944E4086CC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Identification" sheetId="1" r:id="rId1"/>
+    <sheet name="CHC-Identification" sheetId="1" r:id="rId1"/>
     <sheet name="Carlson(1998)-methyl alkanes" sheetId="3" r:id="rId2"/>
     <sheet name="post-DMDS" sheetId="2" r:id="rId3"/>
   </sheets>
@@ -1680,875 +1679,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="176">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="52">
     <dxf>
       <fill>
         <patternFill>
@@ -3344,7 +2475,7 @@
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4643,262 +3774,262 @@
     <mergeCell ref="F13:Q13"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:C31">
-    <cfRule type="cellIs" dxfId="111" priority="201" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="51" priority="201" operator="greaterThanOrEqual">
       <formula>$B$3-14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D31">
-    <cfRule type="cellIs" dxfId="110" priority="200" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="50" priority="200" operator="greaterThanOrEqual">
       <formula>$B$4-14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E31">
-    <cfRule type="cellIs" dxfId="109" priority="198" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="49" priority="198" operator="greaterThanOrEqual">
       <formula>$B$5-14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B8">
-    <cfRule type="expression" dxfId="108" priority="108">
+    <cfRule type="expression" dxfId="48" priority="108">
       <formula>COUNTIF($B$1,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="107" priority="97">
+    <cfRule type="expression" dxfId="47" priority="97">
       <formula>COUNTIF(F$6:G$6,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="106" priority="90">
+    <cfRule type="expression" dxfId="46" priority="90">
       <formula>COUNTIF(J6:K6,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="expression" dxfId="105" priority="89">
+    <cfRule type="expression" dxfId="45" priority="89">
       <formula>COUNTIF(L6:M6,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
-    <cfRule type="expression" dxfId="104" priority="88">
+    <cfRule type="expression" dxfId="44" priority="88">
       <formula>COUNTIF(N6:O6,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="expression" dxfId="103" priority="87">
+    <cfRule type="expression" dxfId="43" priority="87">
       <formula>COUNTIF(P6:Q6,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="102" priority="86">
+    <cfRule type="expression" dxfId="42" priority="86">
       <formula>COUNTIF(F8:G8,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="101" priority="68">
+    <cfRule type="expression" dxfId="41" priority="68">
       <formula>COUNTIF(F10:G10,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="100" priority="67">
+    <cfRule type="expression" dxfId="40" priority="67">
       <formula>COUNTIF(F12:G12,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="99" priority="65">
+    <cfRule type="expression" dxfId="39" priority="65">
       <formula>COUNTIF(H$6:I$6,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="98" priority="60">
+    <cfRule type="expression" dxfId="38" priority="60">
       <formula>COUNTIF(H8:I8,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="97" priority="57">
+    <cfRule type="expression" dxfId="37" priority="57">
       <formula>COUNTIF(H10:I10,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="96" priority="56">
+    <cfRule type="expression" dxfId="36" priority="56">
       <formula>COUNTIF(H12:I12,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="95" priority="54">
+    <cfRule type="expression" dxfId="35" priority="54">
       <formula>COUNTIF(J10:K10,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="94" priority="53">
+    <cfRule type="expression" dxfId="34" priority="53">
       <formula>COUNTIF(J12:K12,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="expression" dxfId="93" priority="52">
+    <cfRule type="expression" dxfId="33" priority="52">
       <formula>COUNTIF(J8:K8,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7">
-    <cfRule type="expression" dxfId="92" priority="50">
+    <cfRule type="expression" dxfId="32" priority="50">
       <formula>COUNTIF(L8:M8,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="expression" dxfId="91" priority="49">
+    <cfRule type="expression" dxfId="31" priority="49">
       <formula>COUNTIF(L10:M10,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="expression" dxfId="90" priority="48">
+    <cfRule type="expression" dxfId="30" priority="48">
       <formula>COUNTIF(L12:M12,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7">
-    <cfRule type="expression" dxfId="89" priority="47">
+    <cfRule type="expression" dxfId="29" priority="47">
       <formula>COUNTIF(N8:O8,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9">
-    <cfRule type="expression" dxfId="88" priority="46">
+    <cfRule type="expression" dxfId="28" priority="46">
       <formula>COUNTIF(N10:O10,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11">
-    <cfRule type="expression" dxfId="87" priority="45">
+    <cfRule type="expression" dxfId="27" priority="45">
       <formula>COUNTIF(N12:O12,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q7">
-    <cfRule type="expression" dxfId="86" priority="44">
+    <cfRule type="expression" dxfId="26" priority="44">
       <formula>COUNTIF(P8:Q8,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9">
-    <cfRule type="expression" dxfId="85" priority="43">
+    <cfRule type="expression" dxfId="25" priority="43">
       <formula>COUNTIF(P10:Q10,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11">
-    <cfRule type="expression" dxfId="84" priority="42">
+    <cfRule type="expression" dxfId="24" priority="42">
       <formula>COUNTIF(P12:Q12,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:G16">
-    <cfRule type="expression" dxfId="83" priority="41">
+    <cfRule type="expression" dxfId="23" priority="41">
       <formula>COUNTIF($G$15,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:I18">
-    <cfRule type="expression" dxfId="82" priority="36">
+    <cfRule type="expression" dxfId="22" priority="36">
       <formula>COUNTIF($I$17,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:I20">
-    <cfRule type="expression" dxfId="81" priority="35">
+    <cfRule type="expression" dxfId="21" priority="35">
       <formula>COUNTIF($I$21,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:I22">
-    <cfRule type="expression" dxfId="80" priority="34">
+    <cfRule type="expression" dxfId="20" priority="34">
       <formula>COUNTIF($I$19,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:K18">
-    <cfRule type="expression" dxfId="79" priority="32">
+    <cfRule type="expression" dxfId="19" priority="32">
       <formula>COUNTIF($K$17,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:K20">
-    <cfRule type="expression" dxfId="78" priority="31">
+    <cfRule type="expression" dxfId="18" priority="31">
       <formula>COUNTIF($K$19,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:K22">
-    <cfRule type="expression" dxfId="77" priority="30">
+    <cfRule type="expression" dxfId="17" priority="30">
       <formula>COUNTIF($K$21,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16:M16">
-    <cfRule type="expression" dxfId="76" priority="17">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>COUNTIF($M$15,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16:O16">
-    <cfRule type="expression" dxfId="75" priority="16">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>COUNTIF($O$15,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16:Q16">
-    <cfRule type="expression" dxfId="74" priority="15">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>COUNTIF($Q$15,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18:M18">
-    <cfRule type="expression" dxfId="73" priority="14">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>COUNTIF($M$17,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18:O18">
-    <cfRule type="expression" dxfId="72" priority="11">
+    <cfRule type="expression" dxfId="12" priority="11">
       <formula>COUNTIF($O$17,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18:Q18">
-    <cfRule type="expression" dxfId="71" priority="8">
+    <cfRule type="expression" dxfId="11" priority="8">
       <formula>COUNTIF($Q$17,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20:M20">
-    <cfRule type="expression" dxfId="70" priority="13">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>COUNTIF($M$19,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20:O20">
-    <cfRule type="expression" dxfId="69" priority="10">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>COUNTIF($O$19,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:Q20">
-    <cfRule type="expression" dxfId="68" priority="7">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>COUNTIF($Q$19,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22:M22">
-    <cfRule type="expression" dxfId="67" priority="12">
+    <cfRule type="expression" dxfId="7" priority="12">
       <formula>COUNTIF($M$21,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22:O22">
-    <cfRule type="expression" dxfId="66" priority="9">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>COUNTIF($O$21,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22:Q22">
-    <cfRule type="expression" dxfId="65" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>COUNTIF($Q$21,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:G18">
-    <cfRule type="expression" dxfId="64" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>COUNTIF($G$17,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:G20">
-    <cfRule type="expression" dxfId="63" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>COUNTIF($G$19,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:G22">
-    <cfRule type="expression" dxfId="62" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>COUNTIF($G$21,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:I16">
-    <cfRule type="expression" dxfId="61" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>COUNTIF($I$15,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:K16">
-    <cfRule type="expression" dxfId="60" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>COUNTIF($K$15,"")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CHC-indentification.xlsx
+++ b/CHC-indentification.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daniel\GitRepos\CHC-identification_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED966C7-54E3-42A4-8D41-3FFAC1F64F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB991A02-D806-4AFD-BB70-4291026E5FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E627A05E-6340-4C51-B36C-84944E4086CC}"/>
   </bookViews>
@@ -2475,7 +2475,7 @@
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3925,111 +3925,111 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:I20">
     <cfRule type="expression" dxfId="21" priority="35">
+      <formula>COUNTIF($I$19,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22:I22">
+    <cfRule type="expression" dxfId="0" priority="34">
       <formula>COUNTIF($I$21,"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22:I22">
-    <cfRule type="expression" dxfId="20" priority="34">
-      <formula>COUNTIF($I$19,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J18:K18">
-    <cfRule type="expression" dxfId="19" priority="32">
+    <cfRule type="expression" dxfId="20" priority="32">
       <formula>COUNTIF($K$17,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:K20">
-    <cfRule type="expression" dxfId="18" priority="31">
+    <cfRule type="expression" dxfId="19" priority="31">
       <formula>COUNTIF($K$19,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:K22">
-    <cfRule type="expression" dxfId="17" priority="30">
+    <cfRule type="expression" dxfId="18" priority="30">
       <formula>COUNTIF($K$21,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16:M16">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="17" priority="17">
       <formula>COUNTIF($M$15,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16:O16">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="16" priority="16">
       <formula>COUNTIF($O$15,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16:Q16">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="15" priority="15">
       <formula>COUNTIF($Q$15,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18:M18">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="14" priority="14">
       <formula>COUNTIF($M$17,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18:O18">
-    <cfRule type="expression" dxfId="12" priority="11">
+    <cfRule type="expression" dxfId="13" priority="11">
       <formula>COUNTIF($O$17,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18:Q18">
-    <cfRule type="expression" dxfId="11" priority="8">
+    <cfRule type="expression" dxfId="12" priority="8">
       <formula>COUNTIF($Q$17,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20:M20">
-    <cfRule type="expression" dxfId="10" priority="13">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>COUNTIF($M$19,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20:O20">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>COUNTIF($O$19,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:Q20">
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>COUNTIF($Q$19,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22:M22">
-    <cfRule type="expression" dxfId="7" priority="12">
+    <cfRule type="expression" dxfId="8" priority="12">
       <formula>COUNTIF($M$21,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22:O22">
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>COUNTIF($O$21,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22:Q22">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>COUNTIF($Q$21,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:G18">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>COUNTIF($G$17,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:G20">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>COUNTIF($G$19,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:G22">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>COUNTIF($G$21,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:I16">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>COUNTIF($I$15,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:K16">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>COUNTIF($K$15,"")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CHC-indentification.xlsx
+++ b/CHC-indentification.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daniel\GitRepos\CHC-identification_tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Trabajo\Proyectos\Chemical Ecology\CHC-identification_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB991A02-D806-4AFD-BB70-4291026E5FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80038E6-A19A-4942-93F3-1AFAC2A6CC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E627A05E-6340-4C51-B36C-84944E4086CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E627A05E-6340-4C51-B36C-84944E4086CC}"/>
   </bookViews>
   <sheets>
     <sheet name="CHC-Identification" sheetId="1" r:id="rId1"/>
@@ -1485,7 +1485,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1496,10 +1496,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1514,31 +1514,31 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1547,13 +1547,13 @@
     <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1597,15 +1597,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2464,7 +2455,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2474,8 +2465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FD13C8-9C57-4E7C-B7EE-A41A7F7BBBB9}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2491,47 +2482,47 @@
         <v>3</v>
       </c>
       <c r="B1" s="24"/>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="50" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="51"/>
+      <c r="P1" s="48"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="47" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="49"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="46"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -2550,20 +2541,20 @@
       <c r="E3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="55"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="52"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -2584,24 +2575,24 @@
         <f>D4-2</f>
         <v>39</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57" t="s">
+      <c r="G4" s="54"/>
+      <c r="H4" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="59" t="s">
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="61"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="58"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -2640,7 +2631,7 @@
         <v>6</v>
       </c>
       <c r="K5" s="18" t="e">
-        <f>MIN(J36:K36)</f>
+        <f>MAX(J36:K36)</f>
         <v>#N/A</v>
       </c>
       <c r="L5" s="30" t="s">
@@ -2734,7 +2725,7 @@
         <v>6</v>
       </c>
       <c r="K7" s="18" t="e">
-        <f>MIN(J37:K37)</f>
+        <f>MAX(J37:K37)</f>
         <v>#N/A</v>
       </c>
       <c r="L7" s="30" t="s">
@@ -2821,7 +2812,7 @@
         <v>6</v>
       </c>
       <c r="K9" s="18" t="e">
-        <f>MIN(J38:K38)</f>
+        <f>MAX(J38:K38)</f>
         <v>#N/A</v>
       </c>
       <c r="L9" s="30" t="s">
@@ -2901,7 +2892,7 @@
         <v>6</v>
       </c>
       <c r="K11" s="18" t="e">
-        <f>MIN(J39:K39)</f>
+        <f>MAX(J39:K39)</f>
         <v>#N/A</v>
       </c>
       <c r="L11" s="30" t="s">
@@ -2963,20 +2954,20 @@
         <f t="shared" si="8"/>
         <v>165</v>
       </c>
-      <c r="F13" s="53" t="s">
+      <c r="F13" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="55"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="52"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C14" s="11">
@@ -2990,24 +2981,24 @@
         <f t="shared" si="9"/>
         <v>179</v>
       </c>
-      <c r="F14" s="57" t="s">
+      <c r="F14" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57" t="s">
+      <c r="G14" s="54"/>
+      <c r="H14" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="59" t="s">
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="60"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="60"/>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="61"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="58"/>
     </row>
     <row r="15" spans="1:17" ht="21" x14ac:dyDescent="0.25">
       <c r="C15" s="11">
@@ -3062,7 +3053,7 @@
         <f>_xlfn.CONCAT((G15*14+14+1),"|",(G15*14+14))</f>
         <v>15|14</v>
       </c>
-      <c r="G16" s="39" t="str">
+      <c r="G16" s="18" t="str">
         <f>_xlfn.CONCAT(($B$6-(G15*14+14+1)+28), "|", ($B$6-(G15*14+14+1)+28)-1)</f>
         <v>29|28</v>
       </c>
@@ -3070,7 +3061,7 @@
         <f>_xlfn.CONCAT((I15*14+14+1),"|",(I15*14+14))</f>
         <v>15|14</v>
       </c>
-      <c r="I16" s="39" t="str">
+      <c r="I16" s="18" t="str">
         <f>_xlfn.CONCAT(($B$7-(I15*14+14+1)+28), "|", ($B$7-(I15*14+14+1)+28)-1)</f>
         <v>43|42</v>
       </c>
@@ -3078,7 +3069,7 @@
         <f>_xlfn.CONCAT((K15*14+(14*2)+1),"|",(K15*14+(14*2)))</f>
         <v>29|28</v>
       </c>
-      <c r="K16" s="39" t="str">
+      <c r="K16" s="18" t="str">
         <f>_xlfn.CONCAT(($B$7-(K15*14+1)),"|",($B$7-(K15*14+1)-1))</f>
         <v>29|28</v>
       </c>
@@ -3086,7 +3077,7 @@
         <f>_xlfn.CONCAT((M15*14+14+1),"|",(M15*14+14))</f>
         <v>15|14</v>
       </c>
-      <c r="M16" s="39" t="str">
+      <c r="M16" s="18" t="str">
         <f>_xlfn.CONCAT(($B$8-(M15*14+14+1)+28), "|", ($B$8-(M15*14+14+1)+28)-1)</f>
         <v>57|56</v>
       </c>
@@ -3094,7 +3085,7 @@
         <f>_xlfn.CONCAT((O15*14+(14*2)+1),"|",(O15*14+(14*2)))</f>
         <v>29|28</v>
       </c>
-      <c r="O16" s="39" t="str">
+      <c r="O16" s="18" t="str">
         <f>_xlfn.CONCAT(($B$8-(O15*14+1)),"|",($B$8-(O15*14+1)-1))</f>
         <v>43|42</v>
       </c>
@@ -3102,7 +3093,7 @@
         <f>_xlfn.CONCAT((Q15*14+(14*3)+1),"|",(Q15*14+(14*3)))</f>
         <v>43|42</v>
       </c>
-      <c r="Q16" s="41" t="str">
+      <c r="Q16" s="21" t="str">
         <f>_xlfn.CONCAT(($B$8-(Q15*14+14+1)),"|",($B$8-(Q15*14+14+1)-1))</f>
         <v>29|28</v>
       </c>
@@ -3160,7 +3151,7 @@
         <f>_xlfn.CONCAT((G17*14+14+1),"|",(G17*14+14))</f>
         <v>15|14</v>
       </c>
-      <c r="G18" s="39" t="str">
+      <c r="G18" s="18" t="str">
         <f>_xlfn.CONCAT(($B$6-(G17*14+14+1)+28), "|", ($B$6-(G17*14+14+1)+28)-1)</f>
         <v>29|28</v>
       </c>
@@ -3168,7 +3159,7 @@
         <f>_xlfn.CONCAT((I17*14+14+1),"|",(I17*14+14))</f>
         <v>15|14</v>
       </c>
-      <c r="I18" s="39" t="str">
+      <c r="I18" s="18" t="str">
         <f>_xlfn.CONCAT(($B$7-(I17*14+14+1)+28), "|", ($B$7-(I17*14+14+1)+28)-1)</f>
         <v>43|42</v>
       </c>
@@ -3176,7 +3167,7 @@
         <f>_xlfn.CONCAT((K17*14+(14*2)+1),"|",(K17*14+(14*2)))</f>
         <v>29|28</v>
       </c>
-      <c r="K18" s="40" t="str">
+      <c r="K18" s="10" t="str">
         <f>_xlfn.CONCAT(($B$7-(K17*14+1)),"|",($B$7-(K17*14+1)-1))</f>
         <v>29|28</v>
       </c>
@@ -3184,7 +3175,7 @@
         <f>_xlfn.CONCAT((M17*14+14+1),"|",(M17*14+14))</f>
         <v>15|14</v>
       </c>
-      <c r="M18" s="39" t="str">
+      <c r="M18" s="18" t="str">
         <f>_xlfn.CONCAT(($B$8-(M17*14+14+1)+28), "|", ($B$8-(M17*14+14+1)+28)-1)</f>
         <v>57|56</v>
       </c>
@@ -3192,7 +3183,7 @@
         <f>_xlfn.CONCAT((O17*14+(14*2)+1),"|",(O17*14+(14*2)))</f>
         <v>29|28</v>
       </c>
-      <c r="O18" s="39" t="str">
+      <c r="O18" s="18" t="str">
         <f>_xlfn.CONCAT(($B$8-(O17*14+1)),"|",($B$8-(O17*14+1)-1))</f>
         <v>43|42</v>
       </c>
@@ -3200,7 +3191,7 @@
         <f>_xlfn.CONCAT((Q17*14+(14*3)+1),"|",(Q17*14+(14*3)))</f>
         <v>43|42</v>
       </c>
-      <c r="Q18" s="41" t="str">
+      <c r="Q18" s="21" t="str">
         <f>_xlfn.CONCAT(($B$8-(Q17*14+14+1)),"|",($B$8-(Q17*14+14+1)-1))</f>
         <v>29|28</v>
       </c>
@@ -3258,7 +3249,7 @@
         <f>_xlfn.CONCAT((G19*14+14+1),"|",(G19*14+14))</f>
         <v>15|14</v>
       </c>
-      <c r="G20" s="39" t="str">
+      <c r="G20" s="18" t="str">
         <f>_xlfn.CONCAT(($B$6-(G19*14+14+1)+28), "|", ($B$6-(G19*14+14+1)+28)-1)</f>
         <v>29|28</v>
       </c>
@@ -3266,7 +3257,7 @@
         <f>_xlfn.CONCAT((I19*14+14+1),"|",(I19*14+14))</f>
         <v>15|14</v>
       </c>
-      <c r="I20" s="39" t="str">
+      <c r="I20" s="18" t="str">
         <f>_xlfn.CONCAT(($B$7-(I19*14+14+1)+28), "|", ($B$7-(I19*14+14+1)+28)-1)</f>
         <v>43|42</v>
       </c>
@@ -3274,7 +3265,7 @@
         <f>_xlfn.CONCAT((K19*14+(14*2)+1),"|",(K19*14+(14*2)))</f>
         <v>29|28</v>
       </c>
-      <c r="K20" s="40" t="str">
+      <c r="K20" s="10" t="str">
         <f>_xlfn.CONCAT(($B$7-(K19*14+1)),"|",($B$7-(K19*14+1)-1))</f>
         <v>29|28</v>
       </c>
@@ -3282,7 +3273,7 @@
         <f>_xlfn.CONCAT((M19*14+14+1),"|",(M19*14+14))</f>
         <v>15|14</v>
       </c>
-      <c r="M20" s="39" t="str">
+      <c r="M20" s="18" t="str">
         <f>_xlfn.CONCAT(($B$8-(M19*14+14+1)+28), "|", ($B$8-(M19*14+14+1)+28)-1)</f>
         <v>57|56</v>
       </c>
@@ -3290,7 +3281,7 @@
         <f>_xlfn.CONCAT((O19*14+(14*2)+1),"|",(O19*14+(14*2)))</f>
         <v>29|28</v>
       </c>
-      <c r="O20" s="39" t="str">
+      <c r="O20" s="18" t="str">
         <f>_xlfn.CONCAT(($B$8-(O19*14+1)),"|",($B$8-(O19*14+1)-1))</f>
         <v>43|42</v>
       </c>
@@ -3298,7 +3289,7 @@
         <f>_xlfn.CONCAT((Q19*14+(14*3)+1),"|",(Q19*14+(14*3)))</f>
         <v>43|42</v>
       </c>
-      <c r="Q20" s="41" t="str">
+      <c r="Q20" s="21" t="str">
         <f>_xlfn.CONCAT(($B$8-(Q19*14+14+1)),"|",($B$8-(Q19*14+14+1)-1))</f>
         <v>29|28</v>
       </c>
@@ -3356,7 +3347,7 @@
         <f>_xlfn.CONCAT((G21*14+14+1),"|",(G21*14+14))</f>
         <v>15|14</v>
       </c>
-      <c r="G22" s="39" t="str">
+      <c r="G22" s="18" t="str">
         <f>_xlfn.CONCAT(($B$6-(G21*14+14+1)+28), "|", ($B$6-(G21*14+14+1)+28)-1)</f>
         <v>29|28</v>
       </c>
@@ -3364,7 +3355,7 @@
         <f>_xlfn.CONCAT((I21*14+14+1),"|",(I21*14+14))</f>
         <v>15|14</v>
       </c>
-      <c r="I22" s="39" t="str">
+      <c r="I22" s="18" t="str">
         <f>_xlfn.CONCAT(($B$7-(I21*14+14+1)+28), "|", ($B$7-(I21*14+14+1)+28)-1)</f>
         <v>43|42</v>
       </c>
@@ -3372,7 +3363,7 @@
         <f>_xlfn.CONCAT((K21*14+(14*2)+1),"|",(K21*14+(14*2)))</f>
         <v>29|28</v>
       </c>
-      <c r="K22" s="40" t="str">
+      <c r="K22" s="10" t="str">
         <f>_xlfn.CONCAT(($B$7-(K21*14+1)),"|",($B$7-(K21*14+1)-1))</f>
         <v>29|28</v>
       </c>
@@ -3380,7 +3371,7 @@
         <f>_xlfn.CONCAT((M21*14+14+1),"|",(M21*14+14))</f>
         <v>15|14</v>
       </c>
-      <c r="M22" s="39" t="str">
+      <c r="M22" s="18" t="str">
         <f>_xlfn.CONCAT(($B$8-(M21*14+14+1)+28), "|", ($B$8-(M21*14+14+1)+28)-1)</f>
         <v>57|56</v>
       </c>
@@ -3388,7 +3379,7 @@
         <f>_xlfn.CONCAT((O21*14+(14*2)+1),"|",(O21*14+(14*2)))</f>
         <v>29|28</v>
       </c>
-      <c r="O22" s="39" t="str">
+      <c r="O22" s="18" t="str">
         <f>_xlfn.CONCAT(($B$8-(O21*14+1)),"|",($B$8-(O21*14+1)-1))</f>
         <v>43|42</v>
       </c>
@@ -3396,7 +3387,7 @@
         <f>_xlfn.CONCAT((Q21*14+(14*3)+1),"|",(Q21*14+(14*3)))</f>
         <v>43|42</v>
       </c>
-      <c r="Q22" s="41" t="str">
+      <c r="Q22" s="21" t="str">
         <f>_xlfn.CONCAT(($B$8-(Q21*14+14+1)),"|",($B$8-(Q21*14+14+1)-1))</f>
         <v>29|28</v>
       </c>
@@ -3519,40 +3510,40 @@
       </c>
     </row>
     <row r="34" spans="6:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F34" s="52" t="s">
+      <c r="F34" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="52"/>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="52"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49"/>
     </row>
     <row r="35" spans="6:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F35" s="52" t="s">
+      <c r="F35" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52" t="s">
+      <c r="G35" s="49"/>
+      <c r="H35" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52" t="s">
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="M35" s="52"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="52"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="49"/>
     </row>
     <row r="36" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F36" s="35" t="e" cm="1">
@@ -3929,107 +3920,107 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:I22">
-    <cfRule type="expression" dxfId="0" priority="34">
+    <cfRule type="expression" dxfId="20" priority="34">
       <formula>COUNTIF($I$21,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:K18">
-    <cfRule type="expression" dxfId="20" priority="32">
+    <cfRule type="expression" dxfId="19" priority="32">
       <formula>COUNTIF($K$17,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:K20">
-    <cfRule type="expression" dxfId="19" priority="31">
+    <cfRule type="expression" dxfId="18" priority="31">
       <formula>COUNTIF($K$19,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:K22">
-    <cfRule type="expression" dxfId="18" priority="30">
+    <cfRule type="expression" dxfId="17" priority="30">
       <formula>COUNTIF($K$21,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16:M16">
-    <cfRule type="expression" dxfId="17" priority="17">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>COUNTIF($M$15,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16:O16">
-    <cfRule type="expression" dxfId="16" priority="16">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>COUNTIF($O$15,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16:Q16">
-    <cfRule type="expression" dxfId="15" priority="15">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>COUNTIF($Q$15,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18:M18">
-    <cfRule type="expression" dxfId="14" priority="14">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>COUNTIF($M$17,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18:O18">
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="12" priority="11">
       <formula>COUNTIF($O$17,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18:Q18">
-    <cfRule type="expression" dxfId="12" priority="8">
+    <cfRule type="expression" dxfId="11" priority="8">
       <formula>COUNTIF($Q$17,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20:M20">
-    <cfRule type="expression" dxfId="11" priority="13">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>COUNTIF($M$19,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20:O20">
-    <cfRule type="expression" dxfId="10" priority="10">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>COUNTIF($O$19,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:Q20">
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>COUNTIF($Q$19,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22:M22">
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="7" priority="12">
       <formula>COUNTIF($M$21,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22:O22">
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>COUNTIF($O$21,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22:Q22">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>COUNTIF($Q$21,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:G18">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>COUNTIF($G$17,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:G20">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>COUNTIF($G$19,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:G22">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>COUNTIF($G$21,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:I16">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>COUNTIF($I$15,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:K16">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>COUNTIF($K$15,"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4068,27 +4059,27 @@
       <c r="A1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="63"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/CHC-indentification.xlsx
+++ b/CHC-indentification.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Trabajo\Proyectos\Chemical Ecology\CHC-identification_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80038E6-A19A-4942-93F3-1AFAC2A6CC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C1C399-8DE4-4342-B08C-6478E4D0FE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E627A05E-6340-4C51-B36C-84944E4086CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{E627A05E-6340-4C51-B36C-84944E4086CC}"/>
   </bookViews>
   <sheets>
     <sheet name="CHC-Identification" sheetId="1" r:id="rId1"/>
@@ -818,8 +818,57 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Daniel Rodriguez Leon</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{5DB7C71F-74A1-4769-B493-011E979CE6AD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="10"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The target compound is the compound you are aiming to identify</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{B6AE3FCA-EC55-414B-AFDE-E31D15E24A1C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="10"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Below it is shown the total mass diagnostic ion for your target compound, depending on the expected hydrocarbon class.
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -841,7 +890,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="28">
   <si>
     <t>Alkane</t>
   </si>
@@ -902,12 +951,36 @@
   <si>
     <t>The blue fields correspond to the input fields. There you can enter the number corresponding to the expected trait of the hydrocarbon you are aiming to find. The input font color is red.                                                                                                                                                                                                                                                                                                                                                      Yellow cells display information, according to the entry you give to the input fields. These cells change to dark purple to indicate that they are not showing information regarding your target compound.                                                                                                                                                                                                                                                                                                                                                                           Extra explanatory information is displayed when you hover with the mouse over some cells.</t>
   </si>
+  <si>
+    <t>Alkadiene - ring</t>
+  </si>
+  <si>
+    <t>Alkadiene - no-ring</t>
+  </si>
+  <si>
+    <t>A+ (1)</t>
+  </si>
+  <si>
+    <t>A+ (2)</t>
+  </si>
+  <si>
+    <t>Total mass diagnostic Ion (M+) post-DMDS</t>
+  </si>
+  <si>
+    <t>C-chain length</t>
+  </si>
+  <si>
+    <t>A+ (-1)</t>
+  </si>
+  <si>
+    <t>A+ (-2)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -990,6 +1063,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1029,7 +1130,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -1480,12 +1581,387 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1664,13 +2140,208 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="58">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2039,6 +2710,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF3A1953"/>
       <color rgb="FF6600CC"/>
       <color rgb="FFD1B1D7"/>
       <color rgb="FFA8A2D6"/>
@@ -2455,7 +3127,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2465,8 +3137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FD13C8-9C57-4E7C-B7EE-A41A7F7BBBB9}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3764,264 +4436,264 @@
     <mergeCell ref="L14:Q14"/>
     <mergeCell ref="F13:Q13"/>
   </mergeCells>
+  <conditionalFormatting sqref="B3:B8">
+    <cfRule type="expression" dxfId="57" priority="108">
+      <formula>COUNTIF($B$1,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C4:C31">
-    <cfRule type="cellIs" dxfId="51" priority="201" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="56" priority="201" operator="greaterThanOrEqual">
       <formula>$B$3-14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D31">
-    <cfRule type="cellIs" dxfId="50" priority="200" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="55" priority="200" operator="greaterThanOrEqual">
       <formula>$B$4-14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E31">
-    <cfRule type="cellIs" dxfId="49" priority="198" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="54" priority="198" operator="greaterThanOrEqual">
       <formula>$B$5-14</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B8">
-    <cfRule type="expression" dxfId="48" priority="108">
-      <formula>COUNTIF($B$1,"")</formula>
+  <conditionalFormatting sqref="F16:G16">
+    <cfRule type="expression" dxfId="53" priority="41">
+      <formula>COUNTIF($G$15,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18:G18">
+    <cfRule type="expression" dxfId="52" priority="5">
+      <formula>COUNTIF($G$17,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20:G20">
+    <cfRule type="expression" dxfId="51" priority="4">
+      <formula>COUNTIF($G$19,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22:G22">
+    <cfRule type="expression" dxfId="50" priority="3">
+      <formula>COUNTIF($G$21,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="47" priority="97">
+    <cfRule type="expression" dxfId="49" priority="97">
       <formula>COUNTIF(F$6:G$6,"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="46" priority="90">
-      <formula>COUNTIF(J6:K6,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="expression" dxfId="45" priority="89">
-      <formula>COUNTIF(L6:M6,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="expression" dxfId="44" priority="88">
-      <formula>COUNTIF(N6:O6,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="expression" dxfId="43" priority="87">
-      <formula>COUNTIF(P6:Q6,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="42" priority="86">
+    <cfRule type="expression" dxfId="48" priority="86">
       <formula>COUNTIF(F8:G8,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="41" priority="68">
+    <cfRule type="expression" dxfId="47" priority="68">
       <formula>COUNTIF(F10:G10,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="40" priority="67">
+    <cfRule type="expression" dxfId="46" priority="67">
       <formula>COUNTIF(F12:G12,"")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H16:I16">
+    <cfRule type="expression" dxfId="45" priority="2">
+      <formula>COUNTIF($I$15,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18:I18">
+    <cfRule type="expression" dxfId="44" priority="36">
+      <formula>COUNTIF($I$17,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20:I20">
+    <cfRule type="expression" dxfId="43" priority="35">
+      <formula>COUNTIF($I$19,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22:I22">
+    <cfRule type="expression" dxfId="42" priority="34">
+      <formula>COUNTIF($I$21,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="39" priority="65">
+    <cfRule type="expression" dxfId="41" priority="65">
       <formula>COUNTIF(H$6:I$6,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="38" priority="60">
+    <cfRule type="expression" dxfId="40" priority="60">
       <formula>COUNTIF(H8:I8,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="37" priority="57">
+    <cfRule type="expression" dxfId="39" priority="57">
       <formula>COUNTIF(H10:I10,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="36" priority="56">
+    <cfRule type="expression" dxfId="38" priority="56">
       <formula>COUNTIF(H12:I12,"")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J16:K16">
+    <cfRule type="expression" dxfId="37" priority="1">
+      <formula>COUNTIF($K$15,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:K18">
+    <cfRule type="expression" dxfId="36" priority="32">
+      <formula>COUNTIF($K$17,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20:K20">
+    <cfRule type="expression" dxfId="35" priority="31">
+      <formula>COUNTIF($K$19,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22:K22">
+    <cfRule type="expression" dxfId="34" priority="30">
+      <formula>COUNTIF($K$21,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5">
+    <cfRule type="expression" dxfId="33" priority="90">
+      <formula>COUNTIF(J6:K6,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7">
+    <cfRule type="expression" dxfId="32" priority="52">
+      <formula>COUNTIF(J8:K8,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="35" priority="54">
+    <cfRule type="expression" dxfId="31" priority="54">
       <formula>COUNTIF(J10:K10,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="34" priority="53">
+    <cfRule type="expression" dxfId="30" priority="53">
       <formula>COUNTIF(J12:K12,"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7">
-    <cfRule type="expression" dxfId="33" priority="52">
-      <formula>COUNTIF(J8:K8,"")</formula>
+  <conditionalFormatting sqref="L16:M16">
+    <cfRule type="expression" dxfId="29" priority="17">
+      <formula>COUNTIF($M$15,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18:M18">
+    <cfRule type="expression" dxfId="28" priority="14">
+      <formula>COUNTIF($M$17,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L20:M20">
+    <cfRule type="expression" dxfId="27" priority="13">
+      <formula>COUNTIF($M$19,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22:M22">
+    <cfRule type="expression" dxfId="26" priority="12">
+      <formula>COUNTIF($M$21,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="expression" dxfId="25" priority="89">
+      <formula>COUNTIF(L6:M6,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7">
-    <cfRule type="expression" dxfId="32" priority="50">
+    <cfRule type="expression" dxfId="24" priority="50">
       <formula>COUNTIF(L8:M8,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="expression" dxfId="31" priority="49">
+    <cfRule type="expression" dxfId="23" priority="49">
       <formula>COUNTIF(L10:M10,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="expression" dxfId="30" priority="48">
+    <cfRule type="expression" dxfId="22" priority="48">
       <formula>COUNTIF(L12:M12,"")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N16:O16">
+    <cfRule type="expression" dxfId="21" priority="16">
+      <formula>COUNTIF($O$15,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N18:O18">
+    <cfRule type="expression" dxfId="20" priority="11">
+      <formula>COUNTIF($O$17,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N20:O20">
+    <cfRule type="expression" dxfId="19" priority="10">
+      <formula>COUNTIF($O$19,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N22:O22">
+    <cfRule type="expression" dxfId="18" priority="9">
+      <formula>COUNTIF($O$21,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="expression" dxfId="17" priority="88">
+      <formula>COUNTIF(N6:O6,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O7">
-    <cfRule type="expression" dxfId="29" priority="47">
+    <cfRule type="expression" dxfId="16" priority="47">
       <formula>COUNTIF(N8:O8,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9">
-    <cfRule type="expression" dxfId="28" priority="46">
+    <cfRule type="expression" dxfId="15" priority="46">
       <formula>COUNTIF(N10:O10,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11">
-    <cfRule type="expression" dxfId="27" priority="45">
+    <cfRule type="expression" dxfId="14" priority="45">
       <formula>COUNTIF(N12:O12,"")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P16:Q16">
+    <cfRule type="expression" dxfId="13" priority="15">
+      <formula>COUNTIF($Q$15,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P18:Q18">
+    <cfRule type="expression" dxfId="12" priority="8">
+      <formula>COUNTIF($Q$17,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P20:Q20">
+    <cfRule type="expression" dxfId="11" priority="7">
+      <formula>COUNTIF($Q$19,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P22:Q22">
+    <cfRule type="expression" dxfId="10" priority="6">
+      <formula>COUNTIF($Q$21,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="expression" dxfId="9" priority="87">
+      <formula>COUNTIF(P6:Q6,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Q7">
-    <cfRule type="expression" dxfId="26" priority="44">
+    <cfRule type="expression" dxfId="8" priority="44">
       <formula>COUNTIF(P8:Q8,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9">
-    <cfRule type="expression" dxfId="25" priority="43">
+    <cfRule type="expression" dxfId="7" priority="43">
       <formula>COUNTIF(P10:Q10,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11">
-    <cfRule type="expression" dxfId="24" priority="42">
+    <cfRule type="expression" dxfId="6" priority="42">
       <formula>COUNTIF(P12:Q12,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16:G16">
-    <cfRule type="expression" dxfId="23" priority="41">
-      <formula>COUNTIF($G$15,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18:I18">
-    <cfRule type="expression" dxfId="22" priority="36">
-      <formula>COUNTIF($I$17,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20:I20">
-    <cfRule type="expression" dxfId="21" priority="35">
-      <formula>COUNTIF($I$19,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22:I22">
-    <cfRule type="expression" dxfId="20" priority="34">
-      <formula>COUNTIF($I$21,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18:K18">
-    <cfRule type="expression" dxfId="19" priority="32">
-      <formula>COUNTIF($K$17,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20:K20">
-    <cfRule type="expression" dxfId="18" priority="31">
-      <formula>COUNTIF($K$19,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22:K22">
-    <cfRule type="expression" dxfId="17" priority="30">
-      <formula>COUNTIF($K$21,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L16:M16">
-    <cfRule type="expression" dxfId="16" priority="17">
-      <formula>COUNTIF($M$15,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N16:O16">
-    <cfRule type="expression" dxfId="15" priority="16">
-      <formula>COUNTIF($O$15,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P16:Q16">
-    <cfRule type="expression" dxfId="14" priority="15">
-      <formula>COUNTIF($Q$15,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L18:M18">
-    <cfRule type="expression" dxfId="13" priority="14">
-      <formula>COUNTIF($M$17,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N18:O18">
-    <cfRule type="expression" dxfId="12" priority="11">
-      <formula>COUNTIF($O$17,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P18:Q18">
-    <cfRule type="expression" dxfId="11" priority="8">
-      <formula>COUNTIF($Q$17,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L20:M20">
-    <cfRule type="expression" dxfId="10" priority="13">
-      <formula>COUNTIF($M$19,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N20:O20">
-    <cfRule type="expression" dxfId="9" priority="10">
-      <formula>COUNTIF($O$19,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P20:Q20">
-    <cfRule type="expression" dxfId="8" priority="7">
-      <formula>COUNTIF($Q$19,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L22:M22">
-    <cfRule type="expression" dxfId="7" priority="12">
-      <formula>COUNTIF($M$21,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N22:O22">
-    <cfRule type="expression" dxfId="6" priority="9">
-      <formula>COUNTIF($O$21,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P22:Q22">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>COUNTIF($Q$21,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18:G18">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>COUNTIF($G$17,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20:G20">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>COUNTIF($G$19,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22:G22">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>COUNTIF($G$21,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16:I16">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>COUNTIF($I$15,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16:K16">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>COUNTIF($K$15,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
@@ -4094,15 +4766,977 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7A751E-AC0F-4038-95D2-ABBAAB30BEF5}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7A751E-AC0F-4038-95D2-ABBAAB30BEF5}">
+  <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="9" width="17.7109375" style="64" customWidth="1"/>
+    <col min="10" max="13" width="1.5703125" style="64" customWidth="1"/>
+    <col min="14" max="15" width="10.5703125" style="64" customWidth="1"/>
+    <col min="16" max="16384" width="10.140625" style="64"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="61" customFormat="1" ht="126" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="82"/>
+    </row>
+    <row r="2" spans="1:15" s="61" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="75"/>
+      <c r="C2" s="96" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="97"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+    </row>
+    <row r="3" spans="1:15" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="66">
+        <f>B2*14+94</f>
+        <v>94</v>
+      </c>
+      <c r="E3" s="108"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+    </row>
+    <row r="4" spans="1:15" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="76"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="66"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+    </row>
+    <row r="5" spans="1:15" s="61" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="68"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+    </row>
+    <row r="6" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="80"/>
+      <c r="D6" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="98"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="98"/>
+      <c r="I6" s="63"/>
+    </row>
+    <row r="7" spans="1:15" s="94" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="90"/>
+      <c r="B7" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="103" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="87" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="95">
+        <v>1</v>
+      </c>
+      <c r="B8" s="104">
+        <v>61</v>
+      </c>
+      <c r="C8" s="88"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="84"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="91">
+        <v>2</v>
+      </c>
+      <c r="B9" s="105">
+        <f>B$8+(14*A8)</f>
+        <v>75</v>
+      </c>
+      <c r="C9" s="70">
+        <f>(($B$2-1)*14)+$B$8</f>
+        <v>47</v>
+      </c>
+      <c r="D9" s="99"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="70"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="91">
+        <v>3</v>
+      </c>
+      <c r="B10" s="105">
+        <f>B$8+(14*A9)</f>
+        <v>89</v>
+      </c>
+      <c r="C10" s="70">
+        <f t="shared" ref="C10:C46" si="0">(($B$2-1)*14)+$B$8</f>
+        <v>47</v>
+      </c>
+      <c r="D10" s="99"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="70"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="91">
+        <v>4</v>
+      </c>
+      <c r="B11" s="105">
+        <f>B$8+(14*A10)</f>
+        <v>103</v>
+      </c>
+      <c r="C11" s="70">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D11" s="99"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="70"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="91">
+        <v>5</v>
+      </c>
+      <c r="B12" s="105">
+        <f>B$8+(14*A11)</f>
+        <v>117</v>
+      </c>
+      <c r="C12" s="70">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D12" s="99"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="70"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="91">
+        <v>6</v>
+      </c>
+      <c r="B13" s="105">
+        <f>B$8+(14*A12)</f>
+        <v>131</v>
+      </c>
+      <c r="C13" s="70">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D13" s="99"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="70"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="91">
+        <v>7</v>
+      </c>
+      <c r="B14" s="105">
+        <f>B$8+(14*A13)</f>
+        <v>145</v>
+      </c>
+      <c r="C14" s="70">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D14" s="99"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="70"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="91">
+        <v>8</v>
+      </c>
+      <c r="B15" s="105">
+        <f>B$8+(14*A14)</f>
+        <v>159</v>
+      </c>
+      <c r="C15" s="70">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D15" s="99"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="70"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="91">
+        <v>9</v>
+      </c>
+      <c r="B16" s="105">
+        <f>B$8+(14*A15)</f>
+        <v>173</v>
+      </c>
+      <c r="C16" s="70">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D16" s="99"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="70"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="91">
+        <v>10</v>
+      </c>
+      <c r="B17" s="105">
+        <f>B$8+(14*A16)</f>
+        <v>187</v>
+      </c>
+      <c r="C17" s="70">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D17" s="99"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="70"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="91">
+        <v>11</v>
+      </c>
+      <c r="B18" s="105">
+        <f>B$8+(14*A17)</f>
+        <v>201</v>
+      </c>
+      <c r="C18" s="70">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D18" s="99"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="70"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="91">
+        <v>12</v>
+      </c>
+      <c r="B19" s="105">
+        <f>B$8+(14*A18)</f>
+        <v>215</v>
+      </c>
+      <c r="C19" s="70">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D19" s="99"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="70"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="91">
+        <v>13</v>
+      </c>
+      <c r="B20" s="105">
+        <f>B$8+(14*A19)</f>
+        <v>229</v>
+      </c>
+      <c r="C20" s="70">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D20" s="99"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="70"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="91">
+        <v>14</v>
+      </c>
+      <c r="B21" s="105">
+        <f>B$8+(14*A20)</f>
+        <v>243</v>
+      </c>
+      <c r="C21" s="70">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D21" s="99"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="70"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="91">
+        <v>15</v>
+      </c>
+      <c r="B22" s="105">
+        <f>B$8+(14*A21)</f>
+        <v>257</v>
+      </c>
+      <c r="C22" s="70">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D22" s="99"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="70"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="91">
+        <v>16</v>
+      </c>
+      <c r="B23" s="105">
+        <f>B$8+(14*A22)</f>
+        <v>271</v>
+      </c>
+      <c r="C23" s="70">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D23" s="99"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="70"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="91">
+        <v>17</v>
+      </c>
+      <c r="B24" s="105">
+        <f>B$8+(14*A23)</f>
+        <v>285</v>
+      </c>
+      <c r="C24" s="70">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D24" s="99"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="70"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="91">
+        <v>18</v>
+      </c>
+      <c r="B25" s="105">
+        <f>B$8+(14*A24)</f>
+        <v>299</v>
+      </c>
+      <c r="C25" s="70">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D25" s="99"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="70"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="91">
+        <v>19</v>
+      </c>
+      <c r="B26" s="105">
+        <f>B$8+(14*A25)</f>
+        <v>313</v>
+      </c>
+      <c r="C26" s="70">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D26" s="99"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="70"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="91">
+        <v>20</v>
+      </c>
+      <c r="B27" s="105">
+        <f>B$8+(14*A26)</f>
+        <v>327</v>
+      </c>
+      <c r="C27" s="70">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D27" s="99"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="70"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="91">
+        <v>21</v>
+      </c>
+      <c r="B28" s="105">
+        <f>B$8+(14*A27)</f>
+        <v>341</v>
+      </c>
+      <c r="C28" s="70">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D28" s="99"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="70"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="91">
+        <v>22</v>
+      </c>
+      <c r="B29" s="105">
+        <f>B$8+(14*A28)</f>
+        <v>355</v>
+      </c>
+      <c r="C29" s="70">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D29" s="99"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="70"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="91">
+        <v>23</v>
+      </c>
+      <c r="B30" s="105">
+        <f>B$8+(14*A29)</f>
+        <v>369</v>
+      </c>
+      <c r="C30" s="70">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D30" s="99"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="70"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="91">
+        <v>24</v>
+      </c>
+      <c r="B31" s="105">
+        <f>B$8+(14*A30)</f>
+        <v>383</v>
+      </c>
+      <c r="C31" s="70">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D31" s="99"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="70"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="91">
+        <v>25</v>
+      </c>
+      <c r="B32" s="105">
+        <f>B$8+(14*A31)</f>
+        <v>397</v>
+      </c>
+      <c r="C32" s="70">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D32" s="99"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="70"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="91">
+        <v>26</v>
+      </c>
+      <c r="B33" s="105">
+        <f>B$8+(14*A32)</f>
+        <v>411</v>
+      </c>
+      <c r="C33" s="70">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D33" s="99"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="70"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="91">
+        <v>27</v>
+      </c>
+      <c r="B34" s="105">
+        <f>B$8+(14*A33)</f>
+        <v>425</v>
+      </c>
+      <c r="C34" s="70">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D34" s="99"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="99"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="70"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="91">
+        <v>28</v>
+      </c>
+      <c r="B35" s="105">
+        <f>B$8+(14*A34)</f>
+        <v>439</v>
+      </c>
+      <c r="C35" s="70">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D35" s="99"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="70"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="91">
+        <v>29</v>
+      </c>
+      <c r="B36" s="105">
+        <f>B$8+(14*A35)</f>
+        <v>453</v>
+      </c>
+      <c r="C36" s="70">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D36" s="99"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="70"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="91">
+        <v>30</v>
+      </c>
+      <c r="B37" s="105">
+        <f>B$8+(14*A36)</f>
+        <v>467</v>
+      </c>
+      <c r="C37" s="70">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D37" s="99"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="70"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="91">
+        <v>31</v>
+      </c>
+      <c r="B38" s="105">
+        <f>B$8+(14*A37)</f>
+        <v>481</v>
+      </c>
+      <c r="C38" s="70">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D38" s="99"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="99"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="70"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="91">
+        <v>32</v>
+      </c>
+      <c r="B39" s="105">
+        <f>B$8+(14*A38)</f>
+        <v>495</v>
+      </c>
+      <c r="C39" s="70">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D39" s="99"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="99"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="70"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="91">
+        <v>33</v>
+      </c>
+      <c r="B40" s="105">
+        <f>B$8+(14*A39)</f>
+        <v>509</v>
+      </c>
+      <c r="C40" s="70">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D40" s="99"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="70"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="91">
+        <v>34</v>
+      </c>
+      <c r="B41" s="105">
+        <f>B$8+(14*A40)</f>
+        <v>523</v>
+      </c>
+      <c r="C41" s="70">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D41" s="99"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="70"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="91">
+        <v>35</v>
+      </c>
+      <c r="B42" s="105">
+        <f>B$8+(14*A41)</f>
+        <v>537</v>
+      </c>
+      <c r="C42" s="70">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D42" s="99"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="99"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="70"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="91">
+        <v>36</v>
+      </c>
+      <c r="B43" s="105">
+        <f>B$8+(14*A42)</f>
+        <v>551</v>
+      </c>
+      <c r="C43" s="70">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D43" s="99"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="99"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="70"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="91">
+        <v>37</v>
+      </c>
+      <c r="B44" s="105">
+        <f>B$8+(14*A43)</f>
+        <v>565</v>
+      </c>
+      <c r="C44" s="70">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D44" s="99"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="70"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="91">
+        <v>38</v>
+      </c>
+      <c r="B45" s="105">
+        <f>B$8+(14*A44)</f>
+        <v>579</v>
+      </c>
+      <c r="C45" s="70">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D45" s="99"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="99"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="70"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="91">
+        <v>39</v>
+      </c>
+      <c r="B46" s="105">
+        <f>B$8+(14*A45)</f>
+        <v>593</v>
+      </c>
+      <c r="C46" s="70">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D46" s="99"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="99"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="70"/>
+    </row>
+    <row r="47" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="92">
+        <v>40</v>
+      </c>
+      <c r="B47" s="106">
+        <f>B$8+(14*A46)</f>
+        <v>607</v>
+      </c>
+      <c r="C47" s="72">
+        <f>(($B$2-1)*14)+$B$8</f>
+        <v>47</v>
+      </c>
+      <c r="D47" s="100"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="100"/>
+      <c r="H47" s="71"/>
+      <c r="I47" s="72"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E2:I5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="expression" dxfId="5" priority="11">
+      <formula>COUNTIF($B$2,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:G47 B8:D47">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="greaterThan">
+      <formula>$B$8+(($B$2-1)*14)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:H47">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
+      <formula>$B$8+(($B$2-1)*14)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:I47">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+      <formula>$B$8+(($B$2-1)*14)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8:F47">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
+      <formula>$B$8+(($B$2-1)*14)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:C47">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>B9&gt;C9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Hydrocarbon chain length" prompt="Enter a whole number (greater than 1) indicating the number of carbons in the hydrocarbon chain of your target compound." sqref="B2" xr:uid="{F7014332-3719-4885-95BF-44AFD9FD41C8}">
+      <formula1>2</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Information display cell" prompt="Do not modify the content of this cell!_x000a_" sqref="D3:D5" xr:uid="{21ECB7F2-771B-4437-8B65-3F0ADFF96332}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/CHC-indentification.xlsx
+++ b/CHC-indentification.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Trabajo\Proyectos\Chemical Ecology\CHC-identification_tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daniel\GitRepos\CHC-identification_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C1C399-8DE4-4342-B08C-6478E4D0FE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD46C0D9-1FB6-4968-8600-D7C5639F5AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{E627A05E-6340-4C51-B36C-84944E4086CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E627A05E-6340-4C51-B36C-84944E4086CC}"/>
   </bookViews>
   <sheets>
     <sheet name="CHC-Identification" sheetId="1" r:id="rId1"/>
@@ -868,7 +868,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -890,7 +890,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="27">
   <si>
     <t>Alkane</t>
   </si>
@@ -958,22 +958,19 @@
     <t>Alkadiene - no-ring</t>
   </si>
   <si>
-    <t>A+ (1)</t>
-  </si>
-  <si>
-    <t>A+ (2)</t>
-  </si>
-  <si>
     <t>Total mass diagnostic Ion (M+) post-DMDS</t>
   </si>
   <si>
     <t>C-chain length</t>
   </si>
   <si>
-    <t>A+ (-1)</t>
+    <t>A+ (a)</t>
   </si>
   <si>
-    <t>A+ (-2)</t>
+    <t>A+ (b)</t>
+  </si>
+  <si>
+    <t>A+ (-b)</t>
   </si>
 </sst>
 </file>
@@ -1130,7 +1127,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="63">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -1597,21 +1594,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1711,7 +1693,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -1721,35 +1703,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -1846,26 +1800,6 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -1940,17 +1874,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1961,7 +1884,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2075,6 +1998,81 @@
     <xf numFmtId="1" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2141,109 +2139,7 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2252,54 +2148,60 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="56">
     <dxf>
       <fill>
         <patternFill>
@@ -2325,20 +2227,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6600CC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3137,7 +3025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FD13C8-9C57-4E7C-B7EE-A41A7F7BBBB9}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -3154,47 +3042,47 @@
         <v>3</v>
       </c>
       <c r="B1" s="24"/>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="47" t="s">
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="48"/>
+      <c r="P1" s="73"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="44" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="46"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="71"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -3213,20 +3101,20 @@
       <c r="E3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="52"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="77"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -3247,24 +3135,24 @@
         <f>D4-2</f>
         <v>39</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54" t="s">
+      <c r="G4" s="79"/>
+      <c r="H4" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="56" t="s">
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="58"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="83"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -3626,20 +3514,20 @@
         <f t="shared" si="8"/>
         <v>165</v>
       </c>
-      <c r="F13" s="50" t="s">
+      <c r="F13" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="52"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="77"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C14" s="11">
@@ -3653,24 +3541,24 @@
         <f t="shared" si="9"/>
         <v>179</v>
       </c>
-      <c r="F14" s="54" t="s">
+      <c r="F14" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54" t="s">
+      <c r="G14" s="79"/>
+      <c r="H14" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="56" t="s">
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="58"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="83"/>
     </row>
     <row r="15" spans="1:17" ht="21" x14ac:dyDescent="0.25">
       <c r="C15" s="11">
@@ -4182,40 +4070,40 @@
       </c>
     </row>
     <row r="34" spans="6:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F34" s="49" t="s">
+      <c r="F34" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="49"/>
-      <c r="O34" s="49"/>
-      <c r="P34" s="49"/>
-      <c r="Q34" s="49"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="74"/>
+      <c r="P34" s="74"/>
+      <c r="Q34" s="74"/>
     </row>
     <row r="35" spans="6:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F35" s="49" t="s">
+      <c r="F35" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49" t="s">
+      <c r="G35" s="74"/>
+      <c r="H35" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49" t="s">
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="M35" s="49"/>
-      <c r="N35" s="49"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="49"/>
+      <c r="M35" s="74"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="74"/>
+      <c r="P35" s="74"/>
+      <c r="Q35" s="74"/>
     </row>
     <row r="36" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F36" s="35" t="e" cm="1">
@@ -4437,262 +4325,262 @@
     <mergeCell ref="F13:Q13"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B8">
-    <cfRule type="expression" dxfId="57" priority="108">
+    <cfRule type="expression" dxfId="55" priority="108">
       <formula>COUNTIF($B$1,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C31">
-    <cfRule type="cellIs" dxfId="56" priority="201" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="54" priority="201" operator="greaterThanOrEqual">
       <formula>$B$3-14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D31">
-    <cfRule type="cellIs" dxfId="55" priority="200" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="53" priority="200" operator="greaterThanOrEqual">
       <formula>$B$4-14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E31">
-    <cfRule type="cellIs" dxfId="54" priority="198" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="52" priority="198" operator="greaterThanOrEqual">
       <formula>$B$5-14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:G16">
-    <cfRule type="expression" dxfId="53" priority="41">
+    <cfRule type="expression" dxfId="51" priority="41">
       <formula>COUNTIF($G$15,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:G18">
-    <cfRule type="expression" dxfId="52" priority="5">
+    <cfRule type="expression" dxfId="50" priority="5">
       <formula>COUNTIF($G$17,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:G20">
-    <cfRule type="expression" dxfId="51" priority="4">
+    <cfRule type="expression" dxfId="49" priority="4">
       <formula>COUNTIF($G$19,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:G22">
-    <cfRule type="expression" dxfId="50" priority="3">
+    <cfRule type="expression" dxfId="48" priority="3">
       <formula>COUNTIF($G$21,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="49" priority="97">
+    <cfRule type="expression" dxfId="47" priority="97">
       <formula>COUNTIF(F$6:G$6,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="48" priority="86">
+    <cfRule type="expression" dxfId="46" priority="86">
       <formula>COUNTIF(F8:G8,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="47" priority="68">
+    <cfRule type="expression" dxfId="45" priority="68">
       <formula>COUNTIF(F10:G10,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="46" priority="67">
+    <cfRule type="expression" dxfId="44" priority="67">
       <formula>COUNTIF(F12:G12,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:I16">
-    <cfRule type="expression" dxfId="45" priority="2">
+    <cfRule type="expression" dxfId="43" priority="2">
       <formula>COUNTIF($I$15,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:I18">
-    <cfRule type="expression" dxfId="44" priority="36">
+    <cfRule type="expression" dxfId="42" priority="36">
       <formula>COUNTIF($I$17,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:I20">
-    <cfRule type="expression" dxfId="43" priority="35">
+    <cfRule type="expression" dxfId="41" priority="35">
       <formula>COUNTIF($I$19,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:I22">
-    <cfRule type="expression" dxfId="42" priority="34">
+    <cfRule type="expression" dxfId="40" priority="34">
       <formula>COUNTIF($I$21,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="41" priority="65">
+    <cfRule type="expression" dxfId="39" priority="65">
       <formula>COUNTIF(H$6:I$6,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="40" priority="60">
+    <cfRule type="expression" dxfId="38" priority="60">
       <formula>COUNTIF(H8:I8,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="39" priority="57">
+    <cfRule type="expression" dxfId="37" priority="57">
       <formula>COUNTIF(H10:I10,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="38" priority="56">
+    <cfRule type="expression" dxfId="36" priority="56">
       <formula>COUNTIF(H12:I12,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:K16">
-    <cfRule type="expression" dxfId="37" priority="1">
+    <cfRule type="expression" dxfId="35" priority="1">
       <formula>COUNTIF($K$15,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:K18">
-    <cfRule type="expression" dxfId="36" priority="32">
+    <cfRule type="expression" dxfId="34" priority="32">
       <formula>COUNTIF($K$17,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:K20">
-    <cfRule type="expression" dxfId="35" priority="31">
+    <cfRule type="expression" dxfId="33" priority="31">
       <formula>COUNTIF($K$19,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:K22">
-    <cfRule type="expression" dxfId="34" priority="30">
+    <cfRule type="expression" dxfId="32" priority="30">
       <formula>COUNTIF($K$21,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="33" priority="90">
+    <cfRule type="expression" dxfId="31" priority="90">
       <formula>COUNTIF(J6:K6,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="expression" dxfId="32" priority="52">
+    <cfRule type="expression" dxfId="30" priority="52">
       <formula>COUNTIF(J8:K8,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="31" priority="54">
+    <cfRule type="expression" dxfId="29" priority="54">
       <formula>COUNTIF(J10:K10,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="30" priority="53">
+    <cfRule type="expression" dxfId="28" priority="53">
       <formula>COUNTIF(J12:K12,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16:M16">
-    <cfRule type="expression" dxfId="29" priority="17">
+    <cfRule type="expression" dxfId="27" priority="17">
       <formula>COUNTIF($M$15,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18:M18">
-    <cfRule type="expression" dxfId="28" priority="14">
+    <cfRule type="expression" dxfId="26" priority="14">
       <formula>COUNTIF($M$17,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20:M20">
-    <cfRule type="expression" dxfId="27" priority="13">
+    <cfRule type="expression" dxfId="25" priority="13">
       <formula>COUNTIF($M$19,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22:M22">
-    <cfRule type="expression" dxfId="26" priority="12">
+    <cfRule type="expression" dxfId="24" priority="12">
       <formula>COUNTIF($M$21,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="expression" dxfId="25" priority="89">
+    <cfRule type="expression" dxfId="23" priority="89">
       <formula>COUNTIF(L6:M6,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7">
-    <cfRule type="expression" dxfId="24" priority="50">
+    <cfRule type="expression" dxfId="22" priority="50">
       <formula>COUNTIF(L8:M8,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="expression" dxfId="23" priority="49">
+    <cfRule type="expression" dxfId="21" priority="49">
       <formula>COUNTIF(L10:M10,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="expression" dxfId="22" priority="48">
+    <cfRule type="expression" dxfId="20" priority="48">
       <formula>COUNTIF(L12:M12,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16:O16">
-    <cfRule type="expression" dxfId="21" priority="16">
+    <cfRule type="expression" dxfId="19" priority="16">
       <formula>COUNTIF($O$15,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18:O18">
-    <cfRule type="expression" dxfId="20" priority="11">
+    <cfRule type="expression" dxfId="18" priority="11">
       <formula>COUNTIF($O$17,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20:O20">
-    <cfRule type="expression" dxfId="19" priority="10">
+    <cfRule type="expression" dxfId="17" priority="10">
       <formula>COUNTIF($O$19,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22:O22">
-    <cfRule type="expression" dxfId="18" priority="9">
+    <cfRule type="expression" dxfId="16" priority="9">
       <formula>COUNTIF($O$21,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
-    <cfRule type="expression" dxfId="17" priority="88">
+    <cfRule type="expression" dxfId="15" priority="88">
       <formula>COUNTIF(N6:O6,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7">
-    <cfRule type="expression" dxfId="16" priority="47">
+    <cfRule type="expression" dxfId="14" priority="47">
       <formula>COUNTIF(N8:O8,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9">
-    <cfRule type="expression" dxfId="15" priority="46">
+    <cfRule type="expression" dxfId="13" priority="46">
       <formula>COUNTIF(N10:O10,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11">
-    <cfRule type="expression" dxfId="14" priority="45">
+    <cfRule type="expression" dxfId="12" priority="45">
       <formula>COUNTIF(N12:O12,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16:Q16">
-    <cfRule type="expression" dxfId="13" priority="15">
+    <cfRule type="expression" dxfId="11" priority="15">
       <formula>COUNTIF($Q$15,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18:Q18">
-    <cfRule type="expression" dxfId="12" priority="8">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>COUNTIF($Q$17,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:Q20">
-    <cfRule type="expression" dxfId="11" priority="7">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>COUNTIF($Q$19,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22:Q22">
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>COUNTIF($Q$21,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="expression" dxfId="9" priority="87">
+    <cfRule type="expression" dxfId="7" priority="87">
       <formula>COUNTIF(P6:Q6,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q7">
-    <cfRule type="expression" dxfId="8" priority="44">
+    <cfRule type="expression" dxfId="6" priority="44">
       <formula>COUNTIF(P8:Q8,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9">
-    <cfRule type="expression" dxfId="7" priority="43">
+    <cfRule type="expression" dxfId="5" priority="43">
       <formula>COUNTIF(P10:Q10,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11">
-    <cfRule type="expression" dxfId="6" priority="42">
+    <cfRule type="expression" dxfId="4" priority="42">
       <formula>COUNTIF(P12:Q12,"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4731,27 +4619,27 @@
       <c r="A1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="60"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4767,966 +4655,934 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7A751E-AC0F-4038-95D2-ABBAAB30BEF5}">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="17.7109375" style="64" customWidth="1"/>
-    <col min="10" max="13" width="1.5703125" style="64" customWidth="1"/>
-    <col min="14" max="15" width="10.5703125" style="64" customWidth="1"/>
-    <col min="16" max="16384" width="10.140625" style="64"/>
+    <col min="1" max="6" width="17.7109375" style="41" customWidth="1"/>
+    <col min="7" max="10" width="1.5703125" style="41" customWidth="1"/>
+    <col min="11" max="12" width="10.5703125" style="41" customWidth="1"/>
+    <col min="13" max="16384" width="10.140625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="61" customFormat="1" ht="126" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+    <row r="1" spans="1:12" s="39" customFormat="1" ht="126" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="82" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="82"/>
-    </row>
-    <row r="2" spans="1:15" s="61" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="L1" s="86"/>
+    </row>
+    <row r="2" spans="1:12" s="39" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="96" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-    </row>
-    <row r="3" spans="1:15" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="65" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="88"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+    </row>
+    <row r="3" spans="1:12" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="103"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="66">
+      <c r="D3" s="43">
         <f>B2*14+94</f>
         <v>94</v>
       </c>
-      <c r="E3" s="108"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-    </row>
-    <row r="4" spans="1:15" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="65" t="s">
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+    </row>
+    <row r="4" spans="1:12" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="103"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-    </row>
-    <row r="5" spans="1:15" s="61" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="78"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="67" t="s">
+      <c r="D4" s="43">
+        <f>D3+92</f>
+        <v>186</v>
+      </c>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+    </row>
+    <row r="5" spans="1:12" s="39" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="104"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-    </row>
-    <row r="6" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="45"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+    </row>
+    <row r="6" spans="1:12" s="39" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="96"/>
+      <c r="D6" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="94"/>
+    </row>
+    <row r="7" spans="1:12" s="54" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="90"/>
+      <c r="B7" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="102" t="s">
+      <c r="D7" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="51">
         <v>1</v>
       </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="98"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="98"/>
-      <c r="I6" s="63"/>
-    </row>
-    <row r="7" spans="1:15" s="94" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="90"/>
-      <c r="B7" s="103" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="103" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="87" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="95">
-        <v>1</v>
-      </c>
-      <c r="B8" s="104">
+      <c r="B8" s="59">
         <v>61</v>
       </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="84"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="91">
+      <c r="C8" s="43">
+        <f>$D$3-B8</f>
+        <v>33</v>
+      </c>
+      <c r="D8" s="63">
+        <f>$D$4-B8</f>
+        <v>125</v>
+      </c>
+      <c r="E8" s="57"/>
+      <c r="F8" s="48"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="52">
         <v>2</v>
       </c>
-      <c r="B9" s="105">
+      <c r="B9" s="60">
         <f>B$8+(14*A8)</f>
         <v>75</v>
       </c>
-      <c r="C9" s="70">
-        <f>(($B$2-1)*14)+$B$8</f>
-        <v>47</v>
-      </c>
-      <c r="D9" s="99"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="70"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="91">
+      <c r="C9" s="43">
+        <f t="shared" ref="C9:C47" si="0">$D$3-B9</f>
+        <v>19</v>
+      </c>
+      <c r="D9" s="63">
+        <f>$D$4-B9</f>
+        <v>111</v>
+      </c>
+      <c r="E9" s="55"/>
+      <c r="F9" s="46"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="52">
         <v>3</v>
       </c>
-      <c r="B10" s="105">
-        <f>B$8+(14*A9)</f>
+      <c r="B10" s="60">
+        <f t="shared" ref="B10:B47" si="1">B$8+(14*A9)</f>
         <v>89</v>
       </c>
-      <c r="C10" s="70">
-        <f t="shared" ref="C10:C46" si="0">(($B$2-1)*14)+$B$8</f>
-        <v>47</v>
-      </c>
-      <c r="D10" s="99"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="70"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="91">
+      <c r="C10" s="43">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D10" s="63">
+        <f t="shared" ref="D10:D47" si="2">$D$4-B10</f>
+        <v>97</v>
+      </c>
+      <c r="E10" s="55"/>
+      <c r="F10" s="46"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="52">
         <v>4</v>
       </c>
-      <c r="B11" s="105">
-        <f>B$8+(14*A10)</f>
+      <c r="B11" s="60">
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="C11" s="70">
+      <c r="C11" s="43">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D11" s="99"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="70"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="91">
+        <v>-9</v>
+      </c>
+      <c r="D11" s="63">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="E11" s="55"/>
+      <c r="F11" s="46"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="52">
         <v>5</v>
       </c>
-      <c r="B12" s="105">
-        <f>B$8+(14*A11)</f>
+      <c r="B12" s="60">
+        <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="C12" s="70">
+      <c r="C12" s="43">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D12" s="99"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="70"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="91">
+        <v>-23</v>
+      </c>
+      <c r="D12" s="63">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="E12" s="55"/>
+      <c r="F12" s="46"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="52">
         <v>6</v>
       </c>
-      <c r="B13" s="105">
-        <f>B$8+(14*A12)</f>
+      <c r="B13" s="60">
+        <f t="shared" si="1"/>
         <v>131</v>
       </c>
-      <c r="C13" s="70">
+      <c r="C13" s="43">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D13" s="99"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="70"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="91">
+        <v>-37</v>
+      </c>
+      <c r="D13" s="63">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="E13" s="55"/>
+      <c r="F13" s="46"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="52">
         <v>7</v>
       </c>
-      <c r="B14" s="105">
-        <f>B$8+(14*A13)</f>
+      <c r="B14" s="60">
+        <f t="shared" si="1"/>
         <v>145</v>
       </c>
-      <c r="C14" s="70">
+      <c r="C14" s="43">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D14" s="99"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="70"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="91">
+        <v>-51</v>
+      </c>
+      <c r="D14" s="63">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="E14" s="55"/>
+      <c r="F14" s="46"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="52">
         <v>8</v>
       </c>
-      <c r="B15" s="105">
-        <f>B$8+(14*A14)</f>
+      <c r="B15" s="60">
+        <f t="shared" si="1"/>
         <v>159</v>
       </c>
-      <c r="C15" s="70">
+      <c r="C15" s="43">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D15" s="99"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="70"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="91">
+        <v>-65</v>
+      </c>
+      <c r="D15" s="63">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="E15" s="55"/>
+      <c r="F15" s="46"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="52">
         <v>9</v>
       </c>
-      <c r="B16" s="105">
-        <f>B$8+(14*A15)</f>
+      <c r="B16" s="60">
+        <f t="shared" si="1"/>
         <v>173</v>
       </c>
-      <c r="C16" s="70">
+      <c r="C16" s="43">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D16" s="99"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="70"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="91">
+        <v>-79</v>
+      </c>
+      <c r="D16" s="63">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="E16" s="55"/>
+      <c r="F16" s="46"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="52">
         <v>10</v>
       </c>
-      <c r="B17" s="105">
-        <f>B$8+(14*A16)</f>
+      <c r="B17" s="60">
+        <f t="shared" si="1"/>
         <v>187</v>
       </c>
-      <c r="C17" s="70">
+      <c r="C17" s="43">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D17" s="99"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="70"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="91">
+        <v>-93</v>
+      </c>
+      <c r="D17" s="63">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="E17" s="55"/>
+      <c r="F17" s="46"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="52">
         <v>11</v>
       </c>
-      <c r="B18" s="105">
-        <f>B$8+(14*A17)</f>
+      <c r="B18" s="60">
+        <f t="shared" si="1"/>
         <v>201</v>
       </c>
-      <c r="C18" s="70">
+      <c r="C18" s="43">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D18" s="99"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="70"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="91">
+        <v>-107</v>
+      </c>
+      <c r="D18" s="63">
+        <f t="shared" si="2"/>
+        <v>-15</v>
+      </c>
+      <c r="E18" s="55"/>
+      <c r="F18" s="46"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="52">
         <v>12</v>
       </c>
-      <c r="B19" s="105">
-        <f>B$8+(14*A18)</f>
+      <c r="B19" s="60">
+        <f t="shared" si="1"/>
         <v>215</v>
       </c>
-      <c r="C19" s="70">
+      <c r="C19" s="43">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D19" s="99"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="70"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="91">
+        <v>-121</v>
+      </c>
+      <c r="D19" s="63">
+        <f t="shared" si="2"/>
+        <v>-29</v>
+      </c>
+      <c r="E19" s="55"/>
+      <c r="F19" s="46"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="52">
         <v>13</v>
       </c>
-      <c r="B20" s="105">
-        <f>B$8+(14*A19)</f>
+      <c r="B20" s="60">
+        <f t="shared" si="1"/>
         <v>229</v>
       </c>
-      <c r="C20" s="70">
+      <c r="C20" s="43">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D20" s="99"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="70"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="91">
+        <v>-135</v>
+      </c>
+      <c r="D20" s="63">
+        <f t="shared" si="2"/>
+        <v>-43</v>
+      </c>
+      <c r="E20" s="55"/>
+      <c r="F20" s="46"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="52">
         <v>14</v>
       </c>
-      <c r="B21" s="105">
-        <f>B$8+(14*A20)</f>
+      <c r="B21" s="60">
+        <f t="shared" si="1"/>
         <v>243</v>
       </c>
-      <c r="C21" s="70">
+      <c r="C21" s="43">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D21" s="99"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="70"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="91">
+        <v>-149</v>
+      </c>
+      <c r="D21" s="63">
+        <f t="shared" si="2"/>
+        <v>-57</v>
+      </c>
+      <c r="E21" s="55"/>
+      <c r="F21" s="46"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="52">
         <v>15</v>
       </c>
-      <c r="B22" s="105">
-        <f>B$8+(14*A21)</f>
+      <c r="B22" s="60">
+        <f t="shared" si="1"/>
         <v>257</v>
       </c>
-      <c r="C22" s="70">
+      <c r="C22" s="43">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D22" s="99"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="70"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="91">
+        <v>-163</v>
+      </c>
+      <c r="D22" s="63">
+        <f>$D$4-B22</f>
+        <v>-71</v>
+      </c>
+      <c r="E22" s="55"/>
+      <c r="F22" s="46"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="52">
         <v>16</v>
       </c>
-      <c r="B23" s="105">
-        <f>B$8+(14*A22)</f>
+      <c r="B23" s="60">
+        <f t="shared" si="1"/>
         <v>271</v>
       </c>
-      <c r="C23" s="70">
+      <c r="C23" s="43">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D23" s="99"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="70"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="91">
+        <v>-177</v>
+      </c>
+      <c r="D23" s="63">
+        <f>$D$4-B23</f>
+        <v>-85</v>
+      </c>
+      <c r="E23" s="55"/>
+      <c r="F23" s="46"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="52">
         <v>17</v>
       </c>
-      <c r="B24" s="105">
-        <f>B$8+(14*A23)</f>
+      <c r="B24" s="60">
+        <f t="shared" si="1"/>
         <v>285</v>
       </c>
-      <c r="C24" s="70">
+      <c r="C24" s="43">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D24" s="99"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="70"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="91">
+        <v>-191</v>
+      </c>
+      <c r="D24" s="63">
+        <f t="shared" si="2"/>
+        <v>-99</v>
+      </c>
+      <c r="E24" s="55"/>
+      <c r="F24" s="46"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="52">
         <v>18</v>
       </c>
-      <c r="B25" s="105">
-        <f>B$8+(14*A24)</f>
+      <c r="B25" s="60">
+        <f t="shared" si="1"/>
         <v>299</v>
       </c>
-      <c r="C25" s="70">
+      <c r="C25" s="43">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D25" s="99"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="70"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="91">
+        <v>-205</v>
+      </c>
+      <c r="D25" s="63">
+        <f t="shared" si="2"/>
+        <v>-113</v>
+      </c>
+      <c r="E25" s="55"/>
+      <c r="F25" s="46"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="52">
         <v>19</v>
       </c>
-      <c r="B26" s="105">
-        <f>B$8+(14*A25)</f>
+      <c r="B26" s="60">
+        <f t="shared" si="1"/>
         <v>313</v>
       </c>
-      <c r="C26" s="70">
+      <c r="C26" s="43">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D26" s="99"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="70"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="91">
+        <v>-219</v>
+      </c>
+      <c r="D26" s="63">
+        <f t="shared" si="2"/>
+        <v>-127</v>
+      </c>
+      <c r="E26" s="55"/>
+      <c r="F26" s="46"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="52">
         <v>20</v>
       </c>
-      <c r="B27" s="105">
-        <f>B$8+(14*A26)</f>
+      <c r="B27" s="60">
+        <f t="shared" si="1"/>
         <v>327</v>
       </c>
-      <c r="C27" s="70">
+      <c r="C27" s="43">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D27" s="99"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="70"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="91">
+        <v>-233</v>
+      </c>
+      <c r="D27" s="63">
+        <f t="shared" si="2"/>
+        <v>-141</v>
+      </c>
+      <c r="E27" s="55"/>
+      <c r="F27" s="46"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="52">
         <v>21</v>
       </c>
-      <c r="B28" s="105">
-        <f>B$8+(14*A27)</f>
+      <c r="B28" s="60">
+        <f t="shared" si="1"/>
         <v>341</v>
       </c>
-      <c r="C28" s="70">
+      <c r="C28" s="43">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D28" s="99"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="70"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="91">
+        <v>-247</v>
+      </c>
+      <c r="D28" s="63">
+        <f t="shared" si="2"/>
+        <v>-155</v>
+      </c>
+      <c r="E28" s="55"/>
+      <c r="F28" s="46"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="52">
         <v>22</v>
       </c>
-      <c r="B29" s="105">
-        <f>B$8+(14*A28)</f>
+      <c r="B29" s="60">
+        <f t="shared" si="1"/>
         <v>355</v>
       </c>
-      <c r="C29" s="70">
+      <c r="C29" s="43">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D29" s="99"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="70"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="91">
+        <v>-261</v>
+      </c>
+      <c r="D29" s="63">
+        <f t="shared" si="2"/>
+        <v>-169</v>
+      </c>
+      <c r="E29" s="55"/>
+      <c r="F29" s="46"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="52">
         <v>23</v>
       </c>
-      <c r="B30" s="105">
-        <f>B$8+(14*A29)</f>
+      <c r="B30" s="60">
+        <f t="shared" si="1"/>
         <v>369</v>
       </c>
-      <c r="C30" s="70">
+      <c r="C30" s="43">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D30" s="99"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="70"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="91">
+        <v>-275</v>
+      </c>
+      <c r="D30" s="63">
+        <f t="shared" si="2"/>
+        <v>-183</v>
+      </c>
+      <c r="E30" s="55"/>
+      <c r="F30" s="46"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="52">
         <v>24</v>
       </c>
-      <c r="B31" s="105">
-        <f>B$8+(14*A30)</f>
+      <c r="B31" s="60">
+        <f t="shared" si="1"/>
         <v>383</v>
       </c>
-      <c r="C31" s="70">
+      <c r="C31" s="43">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D31" s="99"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="70"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="91">
+        <v>-289</v>
+      </c>
+      <c r="D31" s="63">
+        <f t="shared" si="2"/>
+        <v>-197</v>
+      </c>
+      <c r="E31" s="55"/>
+      <c r="F31" s="46"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="52">
         <v>25</v>
       </c>
-      <c r="B32" s="105">
-        <f>B$8+(14*A31)</f>
+      <c r="B32" s="60">
+        <f t="shared" si="1"/>
         <v>397</v>
       </c>
-      <c r="C32" s="70">
+      <c r="C32" s="43">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D32" s="99"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="70"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="91">
+        <v>-303</v>
+      </c>
+      <c r="D32" s="63">
+        <f t="shared" si="2"/>
+        <v>-211</v>
+      </c>
+      <c r="E32" s="55"/>
+      <c r="F32" s="46"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="52">
         <v>26</v>
       </c>
-      <c r="B33" s="105">
-        <f>B$8+(14*A32)</f>
+      <c r="B33" s="60">
+        <f t="shared" si="1"/>
         <v>411</v>
       </c>
-      <c r="C33" s="70">
+      <c r="C33" s="43">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D33" s="99"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="70"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="91">
+        <v>-317</v>
+      </c>
+      <c r="D33" s="63">
+        <f t="shared" si="2"/>
+        <v>-225</v>
+      </c>
+      <c r="E33" s="55"/>
+      <c r="F33" s="46"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="52">
         <v>27</v>
       </c>
-      <c r="B34" s="105">
-        <f>B$8+(14*A33)</f>
+      <c r="B34" s="60">
+        <f t="shared" si="1"/>
         <v>425</v>
       </c>
-      <c r="C34" s="70">
+      <c r="C34" s="43">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D34" s="99"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="70"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="91">
+        <v>-331</v>
+      </c>
+      <c r="D34" s="63">
+        <f t="shared" si="2"/>
+        <v>-239</v>
+      </c>
+      <c r="E34" s="55"/>
+      <c r="F34" s="46"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="52">
         <v>28</v>
       </c>
-      <c r="B35" s="105">
-        <f>B$8+(14*A34)</f>
+      <c r="B35" s="60">
+        <f t="shared" si="1"/>
         <v>439</v>
       </c>
-      <c r="C35" s="70">
+      <c r="C35" s="43">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D35" s="99"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="99"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="70"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="91">
+        <v>-345</v>
+      </c>
+      <c r="D35" s="63">
+        <f t="shared" si="2"/>
+        <v>-253</v>
+      </c>
+      <c r="E35" s="55"/>
+      <c r="F35" s="46"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="52">
         <v>29</v>
       </c>
-      <c r="B36" s="105">
-        <f>B$8+(14*A35)</f>
+      <c r="B36" s="60">
+        <f t="shared" si="1"/>
         <v>453</v>
       </c>
-      <c r="C36" s="70">
+      <c r="C36" s="43">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D36" s="99"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="69"/>
-      <c r="I36" s="70"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="91">
+        <v>-359</v>
+      </c>
+      <c r="D36" s="63">
+        <f t="shared" si="2"/>
+        <v>-267</v>
+      </c>
+      <c r="E36" s="55"/>
+      <c r="F36" s="46"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="52">
         <v>30</v>
       </c>
-      <c r="B37" s="105">
-        <f>B$8+(14*A36)</f>
+      <c r="B37" s="60">
+        <f t="shared" si="1"/>
         <v>467</v>
       </c>
-      <c r="C37" s="70">
+      <c r="C37" s="43">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D37" s="99"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="99"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="70"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="91">
+        <v>-373</v>
+      </c>
+      <c r="D37" s="63">
+        <f t="shared" si="2"/>
+        <v>-281</v>
+      </c>
+      <c r="E37" s="55"/>
+      <c r="F37" s="46"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="52">
         <v>31</v>
       </c>
-      <c r="B38" s="105">
-        <f>B$8+(14*A37)</f>
+      <c r="B38" s="60">
+        <f t="shared" si="1"/>
         <v>481</v>
       </c>
-      <c r="C38" s="70">
+      <c r="C38" s="43">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D38" s="99"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="99"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="70"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="91">
+        <v>-387</v>
+      </c>
+      <c r="D38" s="63">
+        <f t="shared" si="2"/>
+        <v>-295</v>
+      </c>
+      <c r="E38" s="55"/>
+      <c r="F38" s="46"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="52">
         <v>32</v>
       </c>
-      <c r="B39" s="105">
-        <f>B$8+(14*A38)</f>
+      <c r="B39" s="60">
+        <f t="shared" si="1"/>
         <v>495</v>
       </c>
-      <c r="C39" s="70">
+      <c r="C39" s="43">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D39" s="99"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="99"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="70"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="91">
+        <v>-401</v>
+      </c>
+      <c r="D39" s="63">
+        <f>$D$4-B39</f>
+        <v>-309</v>
+      </c>
+      <c r="E39" s="55"/>
+      <c r="F39" s="46"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="52">
         <v>33</v>
       </c>
-      <c r="B40" s="105">
-        <f>B$8+(14*A39)</f>
+      <c r="B40" s="60">
+        <f t="shared" si="1"/>
         <v>509</v>
       </c>
-      <c r="C40" s="70">
+      <c r="C40" s="43">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D40" s="99"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="69"/>
-      <c r="I40" s="70"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="91">
+        <v>-415</v>
+      </c>
+      <c r="D40" s="63">
+        <f t="shared" si="2"/>
+        <v>-323</v>
+      </c>
+      <c r="E40" s="55"/>
+      <c r="F40" s="46"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="52">
         <v>34</v>
       </c>
-      <c r="B41" s="105">
-        <f>B$8+(14*A40)</f>
+      <c r="B41" s="60">
+        <f t="shared" si="1"/>
         <v>523</v>
       </c>
-      <c r="C41" s="70">
+      <c r="C41" s="43">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D41" s="99"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="99"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="70"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="91">
+        <v>-429</v>
+      </c>
+      <c r="D41" s="63">
+        <f t="shared" si="2"/>
+        <v>-337</v>
+      </c>
+      <c r="E41" s="55"/>
+      <c r="F41" s="46"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="52">
         <v>35</v>
       </c>
-      <c r="B42" s="105">
-        <f>B$8+(14*A41)</f>
+      <c r="B42" s="60">
+        <f t="shared" si="1"/>
         <v>537</v>
       </c>
-      <c r="C42" s="70">
+      <c r="C42" s="43">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D42" s="99"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="99"/>
-      <c r="H42" s="69"/>
-      <c r="I42" s="70"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="91">
+        <v>-443</v>
+      </c>
+      <c r="D42" s="63">
+        <f t="shared" si="2"/>
+        <v>-351</v>
+      </c>
+      <c r="E42" s="55"/>
+      <c r="F42" s="46"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="52">
         <v>36</v>
       </c>
-      <c r="B43" s="105">
-        <f>B$8+(14*A42)</f>
+      <c r="B43" s="60">
+        <f t="shared" si="1"/>
         <v>551</v>
       </c>
-      <c r="C43" s="70">
+      <c r="C43" s="43">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D43" s="99"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="99"/>
-      <c r="H43" s="69"/>
-      <c r="I43" s="70"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="91">
+        <v>-457</v>
+      </c>
+      <c r="D43" s="63">
+        <f t="shared" si="2"/>
+        <v>-365</v>
+      </c>
+      <c r="E43" s="55"/>
+      <c r="F43" s="46"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="52">
         <v>37</v>
       </c>
-      <c r="B44" s="105">
-        <f>B$8+(14*A43)</f>
+      <c r="B44" s="60">
+        <f t="shared" si="1"/>
         <v>565</v>
       </c>
-      <c r="C44" s="70">
+      <c r="C44" s="43">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D44" s="99"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="99"/>
-      <c r="H44" s="69"/>
-      <c r="I44" s="70"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="91">
+        <v>-471</v>
+      </c>
+      <c r="D44" s="63">
+        <f t="shared" si="2"/>
+        <v>-379</v>
+      </c>
+      <c r="E44" s="55"/>
+      <c r="F44" s="46"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="52">
         <v>38</v>
       </c>
-      <c r="B45" s="105">
-        <f>B$8+(14*A44)</f>
+      <c r="B45" s="60">
+        <f t="shared" si="1"/>
         <v>579</v>
       </c>
-      <c r="C45" s="70">
+      <c r="C45" s="43">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D45" s="99"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="99"/>
-      <c r="H45" s="69"/>
-      <c r="I45" s="70"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="91">
+        <v>-485</v>
+      </c>
+      <c r="D45" s="63">
+        <f t="shared" si="2"/>
+        <v>-393</v>
+      </c>
+      <c r="E45" s="55"/>
+      <c r="F45" s="46"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="52">
         <v>39</v>
       </c>
-      <c r="B46" s="105">
-        <f>B$8+(14*A45)</f>
+      <c r="B46" s="60">
+        <f t="shared" si="1"/>
         <v>593</v>
       </c>
-      <c r="C46" s="70">
+      <c r="C46" s="43">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D46" s="99"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="99"/>
-      <c r="H46" s="69"/>
-      <c r="I46" s="70"/>
-    </row>
-    <row r="47" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="92">
+        <v>-499</v>
+      </c>
+      <c r="D46" s="63">
+        <f t="shared" si="2"/>
+        <v>-407</v>
+      </c>
+      <c r="E46" s="55"/>
+      <c r="F46" s="46"/>
+    </row>
+    <row r="47" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="53">
         <v>40</v>
       </c>
-      <c r="B47" s="106">
-        <f>B$8+(14*A46)</f>
+      <c r="B47" s="61">
+        <f t="shared" si="1"/>
         <v>607</v>
       </c>
-      <c r="C47" s="72">
-        <f>(($B$2-1)*14)+$B$8</f>
-        <v>47</v>
-      </c>
-      <c r="D47" s="100"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="100"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="72"/>
+      <c r="C47" s="43">
+        <f t="shared" si="0"/>
+        <v>-513</v>
+      </c>
+      <c r="D47" s="63">
+        <f t="shared" si="2"/>
+        <v>-421</v>
+      </c>
+      <c r="E47" s="56"/>
+      <c r="F47" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E2:I5"/>
+    <mergeCell ref="E2:F5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="C2:D2"/>
   </mergeCells>
+  <conditionalFormatting sqref="B8:B47">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>(1+ ((B8-61)/14)) &gt; $B$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:C47">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>B8&gt;C8</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="expression" dxfId="5" priority="11">
+    <cfRule type="expression" dxfId="1" priority="14">
       <formula>COUNTIF($B$2,"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G47 B8:D47">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="greaterThan">
-      <formula>$B$8+(($B$2-1)*14)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H47">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
-      <formula>$B$8+(($B$2-1)*14)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I47">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
-      <formula>$B$8+(($B$2-1)*14)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8:F47">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
-      <formula>$B$8+(($B$2-1)*14)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:C47">
+  <conditionalFormatting sqref="D8:D47">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>B9&gt;C9</formula>
+      <formula>(1+ ((ABS(D8-$D$4)-61)/14)) &gt; $B$2</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">

--- a/CHC-indentification.xlsx
+++ b/CHC-indentification.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daniel\GitRepos\CHC-identification_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD46C0D9-1FB6-4968-8600-D7C5639F5AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8542AB3F-C6B3-4F6F-8894-BFD09C81FE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E627A05E-6340-4C51-B36C-84944E4086CC}"/>
   </bookViews>
@@ -890,7 +890,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="29">
   <si>
     <t>Alkane</t>
   </si>
@@ -972,12 +972,18 @@
   <si>
     <t>A+ (-b)</t>
   </si>
+  <si>
+    <t>A2+ (a)</t>
+  </si>
+  <si>
+    <t>A2+ (b)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1082,12 +1088,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1127,7 +1127,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="57">
+  <borders count="69">
     <border>
       <left/>
       <right/>
@@ -1879,12 +1879,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2001,9 +2157,6 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2070,7 +2223,58 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="4" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="4" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="4" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="4" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="4" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="4" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2145,6 +2349,9 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2172,12 +2379,6 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="12" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2195,13 +2396,107 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="69">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2727,9 +3022,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2767,7 +3062,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2873,7 +3168,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3015,7 +3310,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3026,7 +3321,7 @@
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3042,47 +3337,47 @@
         <v>3</v>
       </c>
       <c r="B1" s="24"/>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="72" t="s">
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="73"/>
+      <c r="P1" s="89"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="69" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="71"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="87"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -3101,20 +3396,20 @@
       <c r="E3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="75" t="s">
+      <c r="F3" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="77"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="93"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -3135,24 +3430,24 @@
         <f>D4-2</f>
         <v>39</v>
       </c>
-      <c r="F4" s="78" t="s">
+      <c r="F4" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79" t="s">
+      <c r="G4" s="95"/>
+      <c r="H4" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="81" t="s">
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="83"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="98"/>
+      <c r="Q4" s="99"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -3514,20 +3809,20 @@
         <f t="shared" si="8"/>
         <v>165</v>
       </c>
-      <c r="F13" s="75" t="s">
+      <c r="F13" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="76"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="77"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="93"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C14" s="11">
@@ -3541,24 +3836,24 @@
         <f t="shared" si="9"/>
         <v>179</v>
       </c>
-      <c r="F14" s="79" t="s">
+      <c r="F14" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79" t="s">
+      <c r="G14" s="95"/>
+      <c r="H14" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="81" t="s">
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="82"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="83"/>
+      <c r="M14" s="98"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="98"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="99"/>
     </row>
     <row r="15" spans="1:17" ht="21" x14ac:dyDescent="0.25">
       <c r="C15" s="11">
@@ -4070,40 +4365,40 @@
       </c>
     </row>
     <row r="34" spans="6:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F34" s="74" t="s">
+      <c r="F34" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="74"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="74"/>
-      <c r="M34" s="74"/>
-      <c r="N34" s="74"/>
-      <c r="O34" s="74"/>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="74"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="90"/>
+      <c r="M34" s="90"/>
+      <c r="N34" s="90"/>
+      <c r="O34" s="90"/>
+      <c r="P34" s="90"/>
+      <c r="Q34" s="90"/>
     </row>
     <row r="35" spans="6:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F35" s="74" t="s">
+      <c r="F35" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74" t="s">
+      <c r="G35" s="90"/>
+      <c r="H35" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74" t="s">
+      <c r="I35" s="90"/>
+      <c r="J35" s="90"/>
+      <c r="K35" s="90"/>
+      <c r="L35" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="M35" s="74"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="74"/>
-      <c r="P35" s="74"/>
-      <c r="Q35" s="74"/>
+      <c r="M35" s="90"/>
+      <c r="N35" s="90"/>
+      <c r="O35" s="90"/>
+      <c r="P35" s="90"/>
+      <c r="Q35" s="90"/>
     </row>
     <row r="36" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F36" s="35" t="e" cm="1">
@@ -4325,262 +4620,262 @@
     <mergeCell ref="F13:Q13"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B8">
-    <cfRule type="expression" dxfId="55" priority="108">
+    <cfRule type="expression" dxfId="68" priority="108">
       <formula>COUNTIF($B$1,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C31">
-    <cfRule type="cellIs" dxfId="54" priority="201" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="67" priority="201" operator="greaterThanOrEqual">
       <formula>$B$3-14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D31">
-    <cfRule type="cellIs" dxfId="53" priority="200" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="66" priority="200" operator="greaterThanOrEqual">
       <formula>$B$4-14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E31">
-    <cfRule type="cellIs" dxfId="52" priority="198" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="65" priority="198" operator="greaterThanOrEqual">
       <formula>$B$5-14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:G16">
-    <cfRule type="expression" dxfId="51" priority="41">
+    <cfRule type="expression" dxfId="64" priority="41">
       <formula>COUNTIF($G$15,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:G18">
-    <cfRule type="expression" dxfId="50" priority="5">
+    <cfRule type="expression" dxfId="63" priority="5">
       <formula>COUNTIF($G$17,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:G20">
-    <cfRule type="expression" dxfId="49" priority="4">
+    <cfRule type="expression" dxfId="62" priority="4">
       <formula>COUNTIF($G$19,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:G22">
-    <cfRule type="expression" dxfId="48" priority="3">
+    <cfRule type="expression" dxfId="61" priority="3">
       <formula>COUNTIF($G$21,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="47" priority="97">
+    <cfRule type="expression" dxfId="60" priority="97">
       <formula>COUNTIF(F$6:G$6,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="46" priority="86">
+    <cfRule type="expression" dxfId="59" priority="86">
       <formula>COUNTIF(F8:G8,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="45" priority="68">
+    <cfRule type="expression" dxfId="58" priority="68">
       <formula>COUNTIF(F10:G10,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="44" priority="67">
+    <cfRule type="expression" dxfId="57" priority="67">
       <formula>COUNTIF(F12:G12,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:I16">
-    <cfRule type="expression" dxfId="43" priority="2">
+    <cfRule type="expression" dxfId="56" priority="2">
       <formula>COUNTIF($I$15,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:I18">
-    <cfRule type="expression" dxfId="42" priority="36">
+    <cfRule type="expression" dxfId="55" priority="36">
       <formula>COUNTIF($I$17,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:I20">
-    <cfRule type="expression" dxfId="41" priority="35">
+    <cfRule type="expression" dxfId="54" priority="35">
       <formula>COUNTIF($I$19,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:I22">
-    <cfRule type="expression" dxfId="40" priority="34">
+    <cfRule type="expression" dxfId="53" priority="34">
       <formula>COUNTIF($I$21,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="39" priority="65">
+    <cfRule type="expression" dxfId="52" priority="65">
       <formula>COUNTIF(H$6:I$6,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="38" priority="60">
+    <cfRule type="expression" dxfId="51" priority="60">
       <formula>COUNTIF(H8:I8,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="37" priority="57">
+    <cfRule type="expression" dxfId="50" priority="57">
       <formula>COUNTIF(H10:I10,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="36" priority="56">
+    <cfRule type="expression" dxfId="49" priority="56">
       <formula>COUNTIF(H12:I12,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:K16">
-    <cfRule type="expression" dxfId="35" priority="1">
+    <cfRule type="expression" dxfId="48" priority="1">
       <formula>COUNTIF($K$15,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:K18">
-    <cfRule type="expression" dxfId="34" priority="32">
+    <cfRule type="expression" dxfId="47" priority="32">
       <formula>COUNTIF($K$17,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:K20">
-    <cfRule type="expression" dxfId="33" priority="31">
+    <cfRule type="expression" dxfId="46" priority="31">
       <formula>COUNTIF($K$19,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:K22">
-    <cfRule type="expression" dxfId="32" priority="30">
+    <cfRule type="expression" dxfId="45" priority="30">
       <formula>COUNTIF($K$21,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="31" priority="90">
+    <cfRule type="expression" dxfId="44" priority="90">
       <formula>COUNTIF(J6:K6,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="expression" dxfId="30" priority="52">
+    <cfRule type="expression" dxfId="43" priority="52">
       <formula>COUNTIF(J8:K8,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="29" priority="54">
+    <cfRule type="expression" dxfId="42" priority="54">
       <formula>COUNTIF(J10:K10,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="28" priority="53">
+    <cfRule type="expression" dxfId="41" priority="53">
       <formula>COUNTIF(J12:K12,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16:M16">
-    <cfRule type="expression" dxfId="27" priority="17">
+    <cfRule type="expression" dxfId="40" priority="17">
       <formula>COUNTIF($M$15,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18:M18">
-    <cfRule type="expression" dxfId="26" priority="14">
+    <cfRule type="expression" dxfId="39" priority="14">
       <formula>COUNTIF($M$17,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20:M20">
-    <cfRule type="expression" dxfId="25" priority="13">
+    <cfRule type="expression" dxfId="38" priority="13">
       <formula>COUNTIF($M$19,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22:M22">
-    <cfRule type="expression" dxfId="24" priority="12">
+    <cfRule type="expression" dxfId="37" priority="12">
       <formula>COUNTIF($M$21,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="expression" dxfId="23" priority="89">
+    <cfRule type="expression" dxfId="36" priority="89">
       <formula>COUNTIF(L6:M6,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7">
-    <cfRule type="expression" dxfId="22" priority="50">
+    <cfRule type="expression" dxfId="35" priority="50">
       <formula>COUNTIF(L8:M8,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="expression" dxfId="21" priority="49">
+    <cfRule type="expression" dxfId="34" priority="49">
       <formula>COUNTIF(L10:M10,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="expression" dxfId="20" priority="48">
+    <cfRule type="expression" dxfId="33" priority="48">
       <formula>COUNTIF(L12:M12,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16:O16">
-    <cfRule type="expression" dxfId="19" priority="16">
+    <cfRule type="expression" dxfId="32" priority="16">
       <formula>COUNTIF($O$15,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18:O18">
-    <cfRule type="expression" dxfId="18" priority="11">
+    <cfRule type="expression" dxfId="31" priority="11">
       <formula>COUNTIF($O$17,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20:O20">
-    <cfRule type="expression" dxfId="17" priority="10">
+    <cfRule type="expression" dxfId="30" priority="10">
       <formula>COUNTIF($O$19,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22:O22">
-    <cfRule type="expression" dxfId="16" priority="9">
+    <cfRule type="expression" dxfId="29" priority="9">
       <formula>COUNTIF($O$21,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
-    <cfRule type="expression" dxfId="15" priority="88">
+    <cfRule type="expression" dxfId="28" priority="88">
       <formula>COUNTIF(N6:O6,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7">
-    <cfRule type="expression" dxfId="14" priority="47">
+    <cfRule type="expression" dxfId="27" priority="47">
       <formula>COUNTIF(N8:O8,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9">
-    <cfRule type="expression" dxfId="13" priority="46">
+    <cfRule type="expression" dxfId="26" priority="46">
       <formula>COUNTIF(N10:O10,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11">
-    <cfRule type="expression" dxfId="12" priority="45">
+    <cfRule type="expression" dxfId="25" priority="45">
       <formula>COUNTIF(N12:O12,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16:Q16">
-    <cfRule type="expression" dxfId="11" priority="15">
+    <cfRule type="expression" dxfId="24" priority="15">
       <formula>COUNTIF($Q$15,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18:Q18">
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="23" priority="8">
       <formula>COUNTIF($Q$17,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:Q20">
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="22" priority="7">
       <formula>COUNTIF($Q$19,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22:Q22">
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="21" priority="6">
       <formula>COUNTIF($Q$21,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="expression" dxfId="7" priority="87">
+    <cfRule type="expression" dxfId="20" priority="87">
       <formula>COUNTIF(P6:Q6,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q7">
-    <cfRule type="expression" dxfId="6" priority="44">
+    <cfRule type="expression" dxfId="19" priority="44">
       <formula>COUNTIF(P8:Q8,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9">
-    <cfRule type="expression" dxfId="5" priority="43">
+    <cfRule type="expression" dxfId="18" priority="43">
       <formula>COUNTIF(P10:Q10,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11">
-    <cfRule type="expression" dxfId="4" priority="42">
+    <cfRule type="expression" dxfId="17" priority="42">
       <formula>COUNTIF(P12:Q12,"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4619,27 +4914,27 @@
       <c r="A1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="85"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4655,941 +4950,1272 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7A751E-AC0F-4038-95D2-ABBAAB30BEF5}">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B5"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="17.7109375" style="41" customWidth="1"/>
-    <col min="7" max="10" width="1.5703125" style="41" customWidth="1"/>
-    <col min="11" max="12" width="10.5703125" style="41" customWidth="1"/>
-    <col min="13" max="16384" width="10.140625" style="41"/>
+    <col min="1" max="9" width="17.7109375" style="40" customWidth="1"/>
+    <col min="10" max="13" width="1.5703125" style="40" customWidth="1"/>
+    <col min="14" max="15" width="10.5703125" style="40" customWidth="1"/>
+    <col min="16" max="16384" width="10.140625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="39" customFormat="1" ht="126" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
+    <row r="1" spans="1:15" s="39" customFormat="1" ht="126" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="86" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="86"/>
-    </row>
-    <row r="2" spans="1:12" s="39" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
+      <c r="O1" s="102"/>
+    </row>
+    <row r="2" spans="1:15" s="39" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="87" t="s">
+      <c r="B2" s="114"/>
+      <c r="C2" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="88"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="105"/>
       <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-    </row>
-    <row r="3" spans="1:12" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="103"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="42" t="s">
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+    </row>
+    <row r="3" spans="1:15" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="118"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="42">
         <f>B2*14+94</f>
         <v>94</v>
       </c>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
       <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-    </row>
-    <row r="4" spans="1:12" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="103"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="42" t="s">
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+    </row>
+    <row r="4" spans="1:15" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="118"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="43">
-        <f>D3+92</f>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="42">
+        <f>F3+92</f>
         <v>186</v>
       </c>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
       <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-    </row>
-    <row r="5" spans="1:12" s="39" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="104"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="44" t="s">
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+    </row>
+    <row r="5" spans="1:15" s="39" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="119"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-    </row>
-    <row r="6" spans="1:12" s="39" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="89" t="s">
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+    </row>
+    <row r="6" spans="1:15" s="39" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="40" t="s">
+      <c r="C6" s="113"/>
+      <c r="D6" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="93" t="s">
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="94"/>
-    </row>
-    <row r="7" spans="1:12" s="54" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="90"/>
-      <c r="B7" s="58" t="s">
+      <c r="I6" s="111"/>
+    </row>
+    <row r="7" spans="1:15" s="53" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="107"/>
+      <c r="B7" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="G7" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="I7" s="49" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="51">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="50">
         <v>1</v>
       </c>
-      <c r="B8" s="59">
+      <c r="B8" s="58">
         <v>61</v>
       </c>
-      <c r="C8" s="43">
-        <f>$D$3-B8</f>
+      <c r="C8" s="42">
+        <f>$F$3-B8</f>
         <v>33</v>
       </c>
-      <c r="D8" s="63">
-        <f>$D$4-B8</f>
-        <v>125</v>
-      </c>
-      <c r="E8" s="57"/>
-      <c r="F8" s="48"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="52">
+      <c r="D8" s="50">
+        <v>1</v>
+      </c>
+      <c r="E8" s="70">
+        <v>61</v>
+      </c>
+      <c r="F8" s="76">
+        <f t="shared" ref="F8:F47" si="0">$F$4-B8-94</f>
+        <v>31</v>
+      </c>
+      <c r="G8" s="77"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="47"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="51">
         <v>2</v>
       </c>
-      <c r="B9" s="60">
+      <c r="B9" s="59">
         <f>B$8+(14*A8)</f>
         <v>75</v>
       </c>
-      <c r="C9" s="43">
-        <f t="shared" ref="C9:C47" si="0">$D$3-B9</f>
+      <c r="C9" s="42">
+        <f t="shared" ref="C9:C47" si="1">$F$3-B9</f>
         <v>19</v>
       </c>
-      <c r="D9" s="63">
-        <f>$D$4-B9</f>
-        <v>111</v>
-      </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="46"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="52">
+      <c r="D9" s="51">
+        <v>2</v>
+      </c>
+      <c r="E9" s="72">
+        <f>E$8+(14*D8)</f>
+        <v>75</v>
+      </c>
+      <c r="F9" s="76">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G9" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="54"/>
+      <c r="I9" s="45"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="51">
         <v>3</v>
       </c>
-      <c r="B10" s="60">
-        <f t="shared" ref="B10:B47" si="1">B$8+(14*A9)</f>
+      <c r="B10" s="59">
+        <f t="shared" ref="B10:B47" si="2">B$8+(14*A9)</f>
         <v>89</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="42">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D10" s="51">
+        <v>3</v>
+      </c>
+      <c r="E10" s="72">
+        <f t="shared" ref="E10:E47" si="3">E$8+(14*D9)</f>
+        <v>89</v>
+      </c>
+      <c r="F10" s="76">
         <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G10" s="71">
+        <f>B2-(((G8-15-60)/14)+2)</f>
+        <v>3.3571428571428568</v>
+      </c>
+      <c r="H10" s="54"/>
+      <c r="I10" s="45"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="51">
+        <v>4</v>
+      </c>
+      <c r="B11" s="59">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="C11" s="42">
+        <f t="shared" si="1"/>
+        <v>-9</v>
+      </c>
+      <c r="D11" s="51">
+        <v>4</v>
+      </c>
+      <c r="E11" s="72">
+        <f t="shared" si="3"/>
+        <v>103</v>
+      </c>
+      <c r="F11" s="76">
+        <f t="shared" si="0"/>
+        <v>-11</v>
+      </c>
+      <c r="G11" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="54"/>
+      <c r="I11" s="45"/>
+    </row>
+    <row r="12" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="51">
         <v>5</v>
       </c>
-      <c r="D10" s="63">
-        <f t="shared" ref="D10:D47" si="2">$D$4-B10</f>
-        <v>97</v>
-      </c>
-      <c r="E10" s="55"/>
-      <c r="F10" s="46"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="52">
-        <v>4</v>
-      </c>
-      <c r="B11" s="60">
+      <c r="B12" s="59">
+        <f t="shared" si="2"/>
+        <v>117</v>
+      </c>
+      <c r="C12" s="42">
         <f t="shared" si="1"/>
-        <v>103</v>
-      </c>
-      <c r="C11" s="43">
+        <v>-23</v>
+      </c>
+      <c r="D12" s="51">
+        <v>5</v>
+      </c>
+      <c r="E12" s="72">
+        <f t="shared" si="3"/>
+        <v>117</v>
+      </c>
+      <c r="F12" s="76">
         <f t="shared" si="0"/>
-        <v>-9</v>
-      </c>
-      <c r="D11" s="63">
+        <v>-25</v>
+      </c>
+      <c r="G12" s="79">
+        <f>F4-G8-94</f>
+        <v>92</v>
+      </c>
+      <c r="H12" s="54"/>
+      <c r="I12" s="45"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="51">
+        <v>6</v>
+      </c>
+      <c r="B13" s="59">
         <f t="shared" si="2"/>
-        <v>83</v>
-      </c>
-      <c r="E11" s="55"/>
-      <c r="F11" s="46"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="52">
-        <v>5</v>
-      </c>
-      <c r="B12" s="60">
+        <v>131</v>
+      </c>
+      <c r="C13" s="42">
         <f t="shared" si="1"/>
-        <v>117</v>
-      </c>
-      <c r="C12" s="43">
+        <v>-37</v>
+      </c>
+      <c r="D13" s="51">
+        <v>6</v>
+      </c>
+      <c r="E13" s="72">
+        <f t="shared" si="3"/>
+        <v>131</v>
+      </c>
+      <c r="F13" s="71">
         <f t="shared" si="0"/>
-        <v>-23</v>
-      </c>
-      <c r="D12" s="63">
+        <v>-39</v>
+      </c>
+      <c r="H13" s="54"/>
+      <c r="I13" s="45"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="51">
+        <v>7</v>
+      </c>
+      <c r="B14" s="59">
         <f t="shared" si="2"/>
-        <v>69</v>
-      </c>
-      <c r="E12" s="55"/>
-      <c r="F12" s="46"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="52">
-        <v>6</v>
-      </c>
-      <c r="B13" s="60">
+        <v>145</v>
+      </c>
+      <c r="C14" s="42">
         <f t="shared" si="1"/>
-        <v>131</v>
-      </c>
-      <c r="C13" s="43">
+        <v>-51</v>
+      </c>
+      <c r="D14" s="51">
+        <v>7</v>
+      </c>
+      <c r="E14" s="72">
+        <f t="shared" si="3"/>
+        <v>145</v>
+      </c>
+      <c r="F14" s="71">
         <f t="shared" si="0"/>
-        <v>-37</v>
-      </c>
-      <c r="D13" s="63">
+        <v>-53</v>
+      </c>
+      <c r="H14" s="54"/>
+      <c r="I14" s="45"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="51">
+        <v>8</v>
+      </c>
+      <c r="B15" s="59">
         <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="E13" s="55"/>
-      <c r="F13" s="46"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="52">
-        <v>7</v>
-      </c>
-      <c r="B14" s="60">
+        <v>159</v>
+      </c>
+      <c r="C15" s="42">
         <f t="shared" si="1"/>
-        <v>145</v>
-      </c>
-      <c r="C14" s="43">
+        <v>-65</v>
+      </c>
+      <c r="D15" s="51">
+        <v>8</v>
+      </c>
+      <c r="E15" s="72">
+        <f t="shared" si="3"/>
+        <v>159</v>
+      </c>
+      <c r="F15" s="71">
         <f t="shared" si="0"/>
-        <v>-51</v>
-      </c>
-      <c r="D14" s="63">
+        <v>-67</v>
+      </c>
+      <c r="H15" s="54"/>
+      <c r="I15" s="45"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="51">
+        <v>9</v>
+      </c>
+      <c r="B16" s="59">
+        <f>B$8+(14*A15)</f>
+        <v>173</v>
+      </c>
+      <c r="C16" s="42">
+        <f t="shared" si="1"/>
+        <v>-79</v>
+      </c>
+      <c r="D16" s="51">
+        <v>9</v>
+      </c>
+      <c r="E16" s="72">
+        <f>E$8+(14*D15)</f>
+        <v>173</v>
+      </c>
+      <c r="F16" s="71">
+        <f t="shared" si="0"/>
+        <v>-81</v>
+      </c>
+      <c r="H16" s="54"/>
+      <c r="I16" s="45"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="51">
+        <v>10</v>
+      </c>
+      <c r="B17" s="59">
         <f t="shared" si="2"/>
-        <v>41</v>
-      </c>
-      <c r="E14" s="55"/>
-      <c r="F14" s="46"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="52">
-        <v>8</v>
-      </c>
-      <c r="B15" s="60">
+        <v>187</v>
+      </c>
+      <c r="C17" s="42">
         <f t="shared" si="1"/>
-        <v>159</v>
-      </c>
-      <c r="C15" s="43">
+        <v>-93</v>
+      </c>
+      <c r="D17" s="51">
+        <v>10</v>
+      </c>
+      <c r="E17" s="72">
+        <f t="shared" si="3"/>
+        <v>187</v>
+      </c>
+      <c r="F17" s="71">
         <f t="shared" si="0"/>
-        <v>-65</v>
-      </c>
-      <c r="D15" s="63">
+        <v>-95</v>
+      </c>
+      <c r="H17" s="54"/>
+      <c r="I17" s="45"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="51">
+        <v>11</v>
+      </c>
+      <c r="B18" s="59">
         <f t="shared" si="2"/>
+        <v>201</v>
+      </c>
+      <c r="C18" s="42">
+        <f t="shared" si="1"/>
+        <v>-107</v>
+      </c>
+      <c r="D18" s="51">
+        <v>11</v>
+      </c>
+      <c r="E18" s="72">
+        <f t="shared" si="3"/>
+        <v>201</v>
+      </c>
+      <c r="F18" s="71">
+        <f t="shared" si="0"/>
+        <v>-109</v>
+      </c>
+      <c r="H18" s="54"/>
+      <c r="I18" s="45"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="51">
+        <v>12</v>
+      </c>
+      <c r="B19" s="59">
+        <f t="shared" si="2"/>
+        <v>215</v>
+      </c>
+      <c r="C19" s="42">
+        <f t="shared" si="1"/>
+        <v>-121</v>
+      </c>
+      <c r="D19" s="51">
+        <v>12</v>
+      </c>
+      <c r="E19" s="72">
+        <f t="shared" si="3"/>
+        <v>215</v>
+      </c>
+      <c r="F19" s="71">
+        <f t="shared" si="0"/>
+        <v>-123</v>
+      </c>
+      <c r="H19" s="54"/>
+      <c r="I19" s="45"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="51">
+        <v>13</v>
+      </c>
+      <c r="B20" s="59">
+        <f t="shared" si="2"/>
+        <v>229</v>
+      </c>
+      <c r="C20" s="42">
+        <f t="shared" si="1"/>
+        <v>-135</v>
+      </c>
+      <c r="D20" s="51">
+        <v>13</v>
+      </c>
+      <c r="E20" s="72">
+        <f t="shared" si="3"/>
+        <v>229</v>
+      </c>
+      <c r="F20" s="71">
+        <f t="shared" si="0"/>
+        <v>-137</v>
+      </c>
+      <c r="H20" s="54"/>
+      <c r="I20" s="45"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="51">
+        <v>14</v>
+      </c>
+      <c r="B21" s="59">
+        <f t="shared" si="2"/>
+        <v>243</v>
+      </c>
+      <c r="C21" s="42">
+        <f t="shared" si="1"/>
+        <v>-149</v>
+      </c>
+      <c r="D21" s="51">
+        <v>14</v>
+      </c>
+      <c r="E21" s="72">
+        <f t="shared" si="3"/>
+        <v>243</v>
+      </c>
+      <c r="F21" s="71">
+        <f t="shared" si="0"/>
+        <v>-151</v>
+      </c>
+      <c r="H21" s="54"/>
+      <c r="I21" s="45"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="51">
+        <v>15</v>
+      </c>
+      <c r="B22" s="59">
+        <f t="shared" si="2"/>
+        <v>257</v>
+      </c>
+      <c r="C22" s="42">
+        <f t="shared" si="1"/>
+        <v>-163</v>
+      </c>
+      <c r="D22" s="51">
+        <v>15</v>
+      </c>
+      <c r="E22" s="72">
+        <f t="shared" si="3"/>
+        <v>257</v>
+      </c>
+      <c r="F22" s="71">
+        <f t="shared" si="0"/>
+        <v>-165</v>
+      </c>
+      <c r="H22" s="54"/>
+      <c r="I22" s="45"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="51">
+        <v>16</v>
+      </c>
+      <c r="B23" s="59">
+        <f t="shared" si="2"/>
+        <v>271</v>
+      </c>
+      <c r="C23" s="42">
+        <f t="shared" si="1"/>
+        <v>-177</v>
+      </c>
+      <c r="D23" s="51">
+        <v>16</v>
+      </c>
+      <c r="E23" s="72">
+        <f t="shared" si="3"/>
+        <v>271</v>
+      </c>
+      <c r="F23" s="71">
+        <f t="shared" si="0"/>
+        <v>-179</v>
+      </c>
+      <c r="H23" s="54"/>
+      <c r="I23" s="45"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="51">
+        <v>17</v>
+      </c>
+      <c r="B24" s="59">
+        <f t="shared" si="2"/>
+        <v>285</v>
+      </c>
+      <c r="C24" s="42">
+        <f t="shared" si="1"/>
+        <v>-191</v>
+      </c>
+      <c r="D24" s="51">
+        <v>17</v>
+      </c>
+      <c r="E24" s="72">
+        <f t="shared" si="3"/>
+        <v>285</v>
+      </c>
+      <c r="F24" s="71">
+        <f t="shared" si="0"/>
+        <v>-193</v>
+      </c>
+      <c r="H24" s="54"/>
+      <c r="I24" s="45"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="51">
+        <v>18</v>
+      </c>
+      <c r="B25" s="59">
+        <f t="shared" si="2"/>
+        <v>299</v>
+      </c>
+      <c r="C25" s="42">
+        <f t="shared" si="1"/>
+        <v>-205</v>
+      </c>
+      <c r="D25" s="51">
+        <v>18</v>
+      </c>
+      <c r="E25" s="72">
+        <f t="shared" si="3"/>
+        <v>299</v>
+      </c>
+      <c r="F25" s="71">
+        <f t="shared" si="0"/>
+        <v>-207</v>
+      </c>
+      <c r="H25" s="54"/>
+      <c r="I25" s="45"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="51">
+        <v>19</v>
+      </c>
+      <c r="B26" s="59">
+        <f t="shared" si="2"/>
+        <v>313</v>
+      </c>
+      <c r="C26" s="42">
+        <f t="shared" si="1"/>
+        <v>-219</v>
+      </c>
+      <c r="D26" s="51">
+        <v>19</v>
+      </c>
+      <c r="E26" s="72">
+        <f t="shared" si="3"/>
+        <v>313</v>
+      </c>
+      <c r="F26" s="71">
+        <f t="shared" si="0"/>
+        <v>-221</v>
+      </c>
+      <c r="H26" s="54"/>
+      <c r="I26" s="45"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="51">
+        <v>20</v>
+      </c>
+      <c r="B27" s="59">
+        <f t="shared" si="2"/>
+        <v>327</v>
+      </c>
+      <c r="C27" s="42">
+        <f t="shared" si="1"/>
+        <v>-233</v>
+      </c>
+      <c r="D27" s="51">
+        <v>20</v>
+      </c>
+      <c r="E27" s="72">
+        <f t="shared" si="3"/>
+        <v>327</v>
+      </c>
+      <c r="F27" s="71">
+        <f t="shared" si="0"/>
+        <v>-235</v>
+      </c>
+      <c r="H27" s="54"/>
+      <c r="I27" s="45"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="51">
+        <v>21</v>
+      </c>
+      <c r="B28" s="59">
+        <f t="shared" si="2"/>
+        <v>341</v>
+      </c>
+      <c r="C28" s="42">
+        <f t="shared" si="1"/>
+        <v>-247</v>
+      </c>
+      <c r="D28" s="51">
+        <v>21</v>
+      </c>
+      <c r="E28" s="72">
+        <f t="shared" si="3"/>
+        <v>341</v>
+      </c>
+      <c r="F28" s="71">
+        <f t="shared" si="0"/>
+        <v>-249</v>
+      </c>
+      <c r="H28" s="54"/>
+      <c r="I28" s="45"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="51">
+        <v>22</v>
+      </c>
+      <c r="B29" s="59">
+        <f t="shared" si="2"/>
+        <v>355</v>
+      </c>
+      <c r="C29" s="42">
+        <f t="shared" si="1"/>
+        <v>-261</v>
+      </c>
+      <c r="D29" s="51">
+        <v>22</v>
+      </c>
+      <c r="E29" s="72">
+        <f t="shared" si="3"/>
+        <v>355</v>
+      </c>
+      <c r="F29" s="71">
+        <f t="shared" si="0"/>
+        <v>-263</v>
+      </c>
+      <c r="H29" s="54"/>
+      <c r="I29" s="45"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="51">
+        <v>23</v>
+      </c>
+      <c r="B30" s="59">
+        <f t="shared" si="2"/>
+        <v>369</v>
+      </c>
+      <c r="C30" s="42">
+        <f t="shared" si="1"/>
+        <v>-275</v>
+      </c>
+      <c r="D30" s="51">
+        <v>23</v>
+      </c>
+      <c r="E30" s="72">
+        <f t="shared" si="3"/>
+        <v>369</v>
+      </c>
+      <c r="F30" s="71">
+        <f t="shared" si="0"/>
+        <v>-277</v>
+      </c>
+      <c r="H30" s="54"/>
+      <c r="I30" s="45"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="51">
+        <v>24</v>
+      </c>
+      <c r="B31" s="59">
+        <f t="shared" si="2"/>
+        <v>383</v>
+      </c>
+      <c r="C31" s="42">
+        <f t="shared" si="1"/>
+        <v>-289</v>
+      </c>
+      <c r="D31" s="51">
+        <v>24</v>
+      </c>
+      <c r="E31" s="72">
+        <f t="shared" si="3"/>
+        <v>383</v>
+      </c>
+      <c r="F31" s="71">
+        <f t="shared" si="0"/>
+        <v>-291</v>
+      </c>
+      <c r="H31" s="54"/>
+      <c r="I31" s="45"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="51">
+        <v>25</v>
+      </c>
+      <c r="B32" s="59">
+        <f t="shared" si="2"/>
+        <v>397</v>
+      </c>
+      <c r="C32" s="42">
+        <f t="shared" si="1"/>
+        <v>-303</v>
+      </c>
+      <c r="D32" s="51">
+        <v>25</v>
+      </c>
+      <c r="E32" s="72">
+        <f t="shared" si="3"/>
+        <v>397</v>
+      </c>
+      <c r="F32" s="71">
+        <f t="shared" si="0"/>
+        <v>-305</v>
+      </c>
+      <c r="H32" s="54"/>
+      <c r="I32" s="45"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="51">
+        <v>26</v>
+      </c>
+      <c r="B33" s="59">
+        <f t="shared" si="2"/>
+        <v>411</v>
+      </c>
+      <c r="C33" s="42">
+        <f t="shared" si="1"/>
+        <v>-317</v>
+      </c>
+      <c r="D33" s="51">
+        <v>26</v>
+      </c>
+      <c r="E33" s="72">
+        <f t="shared" si="3"/>
+        <v>411</v>
+      </c>
+      <c r="F33" s="71">
+        <f t="shared" si="0"/>
+        <v>-319</v>
+      </c>
+      <c r="H33" s="54"/>
+      <c r="I33" s="45"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="51">
         <v>27</v>
       </c>
-      <c r="E15" s="55"/>
-      <c r="F15" s="46"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="52">
-        <v>9</v>
-      </c>
-      <c r="B16" s="60">
+      <c r="B34" s="59">
+        <f t="shared" si="2"/>
+        <v>425</v>
+      </c>
+      <c r="C34" s="42">
         <f t="shared" si="1"/>
-        <v>173</v>
-      </c>
-      <c r="C16" s="43">
+        <v>-331</v>
+      </c>
+      <c r="D34" s="51">
+        <v>27</v>
+      </c>
+      <c r="E34" s="72">
+        <f t="shared" si="3"/>
+        <v>425</v>
+      </c>
+      <c r="F34" s="71">
         <f t="shared" si="0"/>
-        <v>-79</v>
-      </c>
-      <c r="D16" s="63">
+        <v>-333</v>
+      </c>
+      <c r="H34" s="54"/>
+      <c r="I34" s="45"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="51">
+        <v>28</v>
+      </c>
+      <c r="B35" s="59">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="46"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="52">
-        <v>10</v>
-      </c>
-      <c r="B17" s="60">
+        <v>439</v>
+      </c>
+      <c r="C35" s="42">
         <f t="shared" si="1"/>
-        <v>187</v>
-      </c>
-      <c r="C17" s="43">
+        <v>-345</v>
+      </c>
+      <c r="D35" s="51">
+        <v>28</v>
+      </c>
+      <c r="E35" s="72">
+        <f t="shared" si="3"/>
+        <v>439</v>
+      </c>
+      <c r="F35" s="71">
         <f t="shared" si="0"/>
-        <v>-93</v>
-      </c>
-      <c r="D17" s="63">
+        <v>-347</v>
+      </c>
+      <c r="H35" s="54"/>
+      <c r="I35" s="45"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="51">
+        <v>29</v>
+      </c>
+      <c r="B36" s="59">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="46"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="52">
-        <v>11</v>
-      </c>
-      <c r="B18" s="60">
+        <v>453</v>
+      </c>
+      <c r="C36" s="42">
         <f t="shared" si="1"/>
-        <v>201</v>
-      </c>
-      <c r="C18" s="43">
+        <v>-359</v>
+      </c>
+      <c r="D36" s="51">
+        <v>29</v>
+      </c>
+      <c r="E36" s="72">
+        <f t="shared" si="3"/>
+        <v>453</v>
+      </c>
+      <c r="F36" s="71">
         <f t="shared" si="0"/>
-        <v>-107</v>
-      </c>
-      <c r="D18" s="63">
+        <v>-361</v>
+      </c>
+      <c r="H36" s="54"/>
+      <c r="I36" s="45"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="51">
+        <v>30</v>
+      </c>
+      <c r="B37" s="59">
         <f t="shared" si="2"/>
-        <v>-15</v>
-      </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="46"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="52">
-        <v>12</v>
-      </c>
-      <c r="B19" s="60">
+        <v>467</v>
+      </c>
+      <c r="C37" s="42">
         <f t="shared" si="1"/>
-        <v>215</v>
-      </c>
-      <c r="C19" s="43">
+        <v>-373</v>
+      </c>
+      <c r="D37" s="51">
+        <v>30</v>
+      </c>
+      <c r="E37" s="72">
+        <f t="shared" si="3"/>
+        <v>467</v>
+      </c>
+      <c r="F37" s="71">
         <f t="shared" si="0"/>
-        <v>-121</v>
-      </c>
-      <c r="D19" s="63">
+        <v>-375</v>
+      </c>
+      <c r="H37" s="54"/>
+      <c r="I37" s="45"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="51">
+        <v>31</v>
+      </c>
+      <c r="B38" s="59">
         <f t="shared" si="2"/>
-        <v>-29</v>
-      </c>
-      <c r="E19" s="55"/>
-      <c r="F19" s="46"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="52">
-        <v>13</v>
-      </c>
-      <c r="B20" s="60">
+        <v>481</v>
+      </c>
+      <c r="C38" s="42">
         <f t="shared" si="1"/>
-        <v>229</v>
-      </c>
-      <c r="C20" s="43">
+        <v>-387</v>
+      </c>
+      <c r="D38" s="51">
+        <v>31</v>
+      </c>
+      <c r="E38" s="72">
+        <f t="shared" si="3"/>
+        <v>481</v>
+      </c>
+      <c r="F38" s="71">
         <f t="shared" si="0"/>
-        <v>-135</v>
-      </c>
-      <c r="D20" s="63">
+        <v>-389</v>
+      </c>
+      <c r="H38" s="54"/>
+      <c r="I38" s="45"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="51">
+        <v>32</v>
+      </c>
+      <c r="B39" s="59">
         <f t="shared" si="2"/>
-        <v>-43</v>
-      </c>
-      <c r="E20" s="55"/>
-      <c r="F20" s="46"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="52">
-        <v>14</v>
-      </c>
-      <c r="B21" s="60">
+        <v>495</v>
+      </c>
+      <c r="C39" s="42">
         <f t="shared" si="1"/>
-        <v>243</v>
-      </c>
-      <c r="C21" s="43">
+        <v>-401</v>
+      </c>
+      <c r="D39" s="51">
+        <v>32</v>
+      </c>
+      <c r="E39" s="72">
+        <f t="shared" si="3"/>
+        <v>495</v>
+      </c>
+      <c r="F39" s="71">
         <f t="shared" si="0"/>
-        <v>-149</v>
-      </c>
-      <c r="D21" s="63">
+        <v>-403</v>
+      </c>
+      <c r="H39" s="54"/>
+      <c r="I39" s="45"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="51">
+        <v>33</v>
+      </c>
+      <c r="B40" s="59">
         <f t="shared" si="2"/>
-        <v>-57</v>
-      </c>
-      <c r="E21" s="55"/>
-      <c r="F21" s="46"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="52">
-        <v>15</v>
-      </c>
-      <c r="B22" s="60">
+        <v>509</v>
+      </c>
+      <c r="C40" s="42">
         <f t="shared" si="1"/>
-        <v>257</v>
-      </c>
-      <c r="C22" s="43">
+        <v>-415</v>
+      </c>
+      <c r="D40" s="51">
+        <v>33</v>
+      </c>
+      <c r="E40" s="72">
+        <f t="shared" si="3"/>
+        <v>509</v>
+      </c>
+      <c r="F40" s="71">
         <f t="shared" si="0"/>
-        <v>-163</v>
-      </c>
-      <c r="D22" s="63">
-        <f>$D$4-B22</f>
-        <v>-71</v>
-      </c>
-      <c r="E22" s="55"/>
-      <c r="F22" s="46"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="52">
-        <v>16</v>
-      </c>
-      <c r="B23" s="60">
+        <v>-417</v>
+      </c>
+      <c r="H40" s="54"/>
+      <c r="I40" s="45"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="51">
+        <v>34</v>
+      </c>
+      <c r="B41" s="59">
+        <f t="shared" si="2"/>
+        <v>523</v>
+      </c>
+      <c r="C41" s="42">
         <f t="shared" si="1"/>
-        <v>271</v>
-      </c>
-      <c r="C23" s="43">
+        <v>-429</v>
+      </c>
+      <c r="D41" s="51">
+        <v>34</v>
+      </c>
+      <c r="E41" s="72">
+        <f t="shared" si="3"/>
+        <v>523</v>
+      </c>
+      <c r="F41" s="71">
         <f t="shared" si="0"/>
-        <v>-177</v>
-      </c>
-      <c r="D23" s="63">
-        <f>$D$4-B23</f>
-        <v>-85</v>
-      </c>
-      <c r="E23" s="55"/>
-      <c r="F23" s="46"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="52">
-        <v>17</v>
-      </c>
-      <c r="B24" s="60">
+        <v>-431</v>
+      </c>
+      <c r="H41" s="54"/>
+      <c r="I41" s="45"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="51">
+        <v>35</v>
+      </c>
+      <c r="B42" s="59">
+        <f t="shared" si="2"/>
+        <v>537</v>
+      </c>
+      <c r="C42" s="42">
         <f t="shared" si="1"/>
-        <v>285</v>
-      </c>
-      <c r="C24" s="43">
+        <v>-443</v>
+      </c>
+      <c r="D42" s="51">
+        <v>35</v>
+      </c>
+      <c r="E42" s="72">
+        <f t="shared" si="3"/>
+        <v>537</v>
+      </c>
+      <c r="F42" s="71">
         <f t="shared" si="0"/>
-        <v>-191</v>
-      </c>
-      <c r="D24" s="63">
+        <v>-445</v>
+      </c>
+      <c r="H42" s="54"/>
+      <c r="I42" s="45"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="51">
+        <v>36</v>
+      </c>
+      <c r="B43" s="59">
         <f t="shared" si="2"/>
-        <v>-99</v>
-      </c>
-      <c r="E24" s="55"/>
-      <c r="F24" s="46"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="52">
-        <v>18</v>
-      </c>
-      <c r="B25" s="60">
+        <v>551</v>
+      </c>
+      <c r="C43" s="42">
         <f t="shared" si="1"/>
-        <v>299</v>
-      </c>
-      <c r="C25" s="43">
+        <v>-457</v>
+      </c>
+      <c r="D43" s="51">
+        <v>36</v>
+      </c>
+      <c r="E43" s="72">
+        <f t="shared" si="3"/>
+        <v>551</v>
+      </c>
+      <c r="F43" s="71">
         <f t="shared" si="0"/>
-        <v>-205</v>
-      </c>
-      <c r="D25" s="63">
+        <v>-459</v>
+      </c>
+      <c r="H43" s="54"/>
+      <c r="I43" s="45"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="51">
+        <v>37</v>
+      </c>
+      <c r="B44" s="59">
         <f t="shared" si="2"/>
-        <v>-113</v>
-      </c>
-      <c r="E25" s="55"/>
-      <c r="F25" s="46"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="52">
-        <v>19</v>
-      </c>
-      <c r="B26" s="60">
+        <v>565</v>
+      </c>
+      <c r="C44" s="42">
         <f t="shared" si="1"/>
-        <v>313</v>
-      </c>
-      <c r="C26" s="43">
+        <v>-471</v>
+      </c>
+      <c r="D44" s="51">
+        <v>37</v>
+      </c>
+      <c r="E44" s="72">
+        <f t="shared" si="3"/>
+        <v>565</v>
+      </c>
+      <c r="F44" s="71">
         <f t="shared" si="0"/>
-        <v>-219</v>
-      </c>
-      <c r="D26" s="63">
+        <v>-473</v>
+      </c>
+      <c r="H44" s="54"/>
+      <c r="I44" s="45"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="51">
+        <v>38</v>
+      </c>
+      <c r="B45" s="59">
         <f t="shared" si="2"/>
-        <v>-127</v>
-      </c>
-      <c r="E26" s="55"/>
-      <c r="F26" s="46"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="52">
-        <v>20</v>
-      </c>
-      <c r="B27" s="60">
+        <v>579</v>
+      </c>
+      <c r="C45" s="42">
         <f t="shared" si="1"/>
-        <v>327</v>
-      </c>
-      <c r="C27" s="43">
+        <v>-485</v>
+      </c>
+      <c r="D45" s="51">
+        <v>38</v>
+      </c>
+      <c r="E45" s="72">
+        <f t="shared" si="3"/>
+        <v>579</v>
+      </c>
+      <c r="F45" s="71">
         <f t="shared" si="0"/>
-        <v>-233</v>
-      </c>
-      <c r="D27" s="63">
+        <v>-487</v>
+      </c>
+      <c r="H45" s="54"/>
+      <c r="I45" s="45"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="51">
+        <v>39</v>
+      </c>
+      <c r="B46" s="59">
         <f t="shared" si="2"/>
-        <v>-141</v>
-      </c>
-      <c r="E27" s="55"/>
-      <c r="F27" s="46"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="52">
-        <v>21</v>
-      </c>
-      <c r="B28" s="60">
+        <v>593</v>
+      </c>
+      <c r="C46" s="42">
         <f t="shared" si="1"/>
-        <v>341</v>
-      </c>
-      <c r="C28" s="43">
+        <v>-499</v>
+      </c>
+      <c r="D46" s="51">
+        <v>39</v>
+      </c>
+      <c r="E46" s="72">
+        <f t="shared" si="3"/>
+        <v>593</v>
+      </c>
+      <c r="F46" s="71">
         <f t="shared" si="0"/>
-        <v>-247</v>
-      </c>
-      <c r="D28" s="63">
+        <v>-501</v>
+      </c>
+      <c r="H46" s="54"/>
+      <c r="I46" s="45"/>
+    </row>
+    <row r="47" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="52">
+        <v>40</v>
+      </c>
+      <c r="B47" s="60">
         <f t="shared" si="2"/>
-        <v>-155</v>
-      </c>
-      <c r="E28" s="55"/>
-      <c r="F28" s="46"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="52">
-        <v>22</v>
-      </c>
-      <c r="B29" s="60">
+        <v>607</v>
+      </c>
+      <c r="C47" s="42">
         <f t="shared" si="1"/>
-        <v>355</v>
-      </c>
-      <c r="C29" s="43">
+        <v>-513</v>
+      </c>
+      <c r="D47" s="52">
+        <v>40</v>
+      </c>
+      <c r="E47" s="73">
+        <f t="shared" si="3"/>
+        <v>607</v>
+      </c>
+      <c r="F47" s="74">
         <f t="shared" si="0"/>
-        <v>-261</v>
-      </c>
-      <c r="D29" s="63">
-        <f t="shared" si="2"/>
-        <v>-169</v>
-      </c>
-      <c r="E29" s="55"/>
-      <c r="F29" s="46"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="52">
-        <v>23</v>
-      </c>
-      <c r="B30" s="60">
-        <f t="shared" si="1"/>
-        <v>369</v>
-      </c>
-      <c r="C30" s="43">
-        <f t="shared" si="0"/>
-        <v>-275</v>
-      </c>
-      <c r="D30" s="63">
-        <f t="shared" si="2"/>
-        <v>-183</v>
-      </c>
-      <c r="E30" s="55"/>
-      <c r="F30" s="46"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="52">
-        <v>24</v>
-      </c>
-      <c r="B31" s="60">
-        <f t="shared" si="1"/>
-        <v>383</v>
-      </c>
-      <c r="C31" s="43">
-        <f t="shared" si="0"/>
-        <v>-289</v>
-      </c>
-      <c r="D31" s="63">
-        <f t="shared" si="2"/>
-        <v>-197</v>
-      </c>
-      <c r="E31" s="55"/>
-      <c r="F31" s="46"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="52">
-        <v>25</v>
-      </c>
-      <c r="B32" s="60">
-        <f t="shared" si="1"/>
-        <v>397</v>
-      </c>
-      <c r="C32" s="43">
-        <f t="shared" si="0"/>
-        <v>-303</v>
-      </c>
-      <c r="D32" s="63">
-        <f t="shared" si="2"/>
-        <v>-211</v>
-      </c>
-      <c r="E32" s="55"/>
-      <c r="F32" s="46"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="52">
-        <v>26</v>
-      </c>
-      <c r="B33" s="60">
-        <f t="shared" si="1"/>
-        <v>411</v>
-      </c>
-      <c r="C33" s="43">
-        <f t="shared" si="0"/>
-        <v>-317</v>
-      </c>
-      <c r="D33" s="63">
-        <f t="shared" si="2"/>
-        <v>-225</v>
-      </c>
-      <c r="E33" s="55"/>
-      <c r="F33" s="46"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="52">
-        <v>27</v>
-      </c>
-      <c r="B34" s="60">
-        <f t="shared" si="1"/>
-        <v>425</v>
-      </c>
-      <c r="C34" s="43">
-        <f t="shared" si="0"/>
-        <v>-331</v>
-      </c>
-      <c r="D34" s="63">
-        <f t="shared" si="2"/>
-        <v>-239</v>
-      </c>
-      <c r="E34" s="55"/>
-      <c r="F34" s="46"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="52">
-        <v>28</v>
-      </c>
-      <c r="B35" s="60">
-        <f t="shared" si="1"/>
-        <v>439</v>
-      </c>
-      <c r="C35" s="43">
-        <f t="shared" si="0"/>
-        <v>-345</v>
-      </c>
-      <c r="D35" s="63">
-        <f t="shared" si="2"/>
-        <v>-253</v>
-      </c>
-      <c r="E35" s="55"/>
-      <c r="F35" s="46"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="52">
-        <v>29</v>
-      </c>
-      <c r="B36" s="60">
-        <f t="shared" si="1"/>
-        <v>453</v>
-      </c>
-      <c r="C36" s="43">
-        <f t="shared" si="0"/>
-        <v>-359</v>
-      </c>
-      <c r="D36" s="63">
-        <f t="shared" si="2"/>
-        <v>-267</v>
-      </c>
-      <c r="E36" s="55"/>
-      <c r="F36" s="46"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="52">
-        <v>30</v>
-      </c>
-      <c r="B37" s="60">
-        <f t="shared" si="1"/>
-        <v>467</v>
-      </c>
-      <c r="C37" s="43">
-        <f t="shared" si="0"/>
-        <v>-373</v>
-      </c>
-      <c r="D37" s="63">
-        <f t="shared" si="2"/>
-        <v>-281</v>
-      </c>
-      <c r="E37" s="55"/>
-      <c r="F37" s="46"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="52">
-        <v>31</v>
-      </c>
-      <c r="B38" s="60">
-        <f t="shared" si="1"/>
-        <v>481</v>
-      </c>
-      <c r="C38" s="43">
-        <f t="shared" si="0"/>
-        <v>-387</v>
-      </c>
-      <c r="D38" s="63">
-        <f t="shared" si="2"/>
-        <v>-295</v>
-      </c>
-      <c r="E38" s="55"/>
-      <c r="F38" s="46"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="52">
-        <v>32</v>
-      </c>
-      <c r="B39" s="60">
-        <f t="shared" si="1"/>
-        <v>495</v>
-      </c>
-      <c r="C39" s="43">
-        <f t="shared" si="0"/>
-        <v>-401</v>
-      </c>
-      <c r="D39" s="63">
-        <f>$D$4-B39</f>
-        <v>-309</v>
-      </c>
-      <c r="E39" s="55"/>
-      <c r="F39" s="46"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="52">
-        <v>33</v>
-      </c>
-      <c r="B40" s="60">
-        <f t="shared" si="1"/>
-        <v>509</v>
-      </c>
-      <c r="C40" s="43">
-        <f t="shared" si="0"/>
-        <v>-415</v>
-      </c>
-      <c r="D40" s="63">
-        <f t="shared" si="2"/>
-        <v>-323</v>
-      </c>
-      <c r="E40" s="55"/>
-      <c r="F40" s="46"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="52">
-        <v>34</v>
-      </c>
-      <c r="B41" s="60">
-        <f t="shared" si="1"/>
-        <v>523</v>
-      </c>
-      <c r="C41" s="43">
-        <f t="shared" si="0"/>
-        <v>-429</v>
-      </c>
-      <c r="D41" s="63">
-        <f t="shared" si="2"/>
-        <v>-337</v>
-      </c>
-      <c r="E41" s="55"/>
-      <c r="F41" s="46"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="52">
-        <v>35</v>
-      </c>
-      <c r="B42" s="60">
-        <f t="shared" si="1"/>
-        <v>537</v>
-      </c>
-      <c r="C42" s="43">
-        <f t="shared" si="0"/>
-        <v>-443</v>
-      </c>
-      <c r="D42" s="63">
-        <f t="shared" si="2"/>
-        <v>-351</v>
-      </c>
-      <c r="E42" s="55"/>
-      <c r="F42" s="46"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="52">
-        <v>36</v>
-      </c>
-      <c r="B43" s="60">
-        <f t="shared" si="1"/>
-        <v>551</v>
-      </c>
-      <c r="C43" s="43">
-        <f t="shared" si="0"/>
-        <v>-457</v>
-      </c>
-      <c r="D43" s="63">
-        <f t="shared" si="2"/>
-        <v>-365</v>
-      </c>
-      <c r="E43" s="55"/>
-      <c r="F43" s="46"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="52">
-        <v>37</v>
-      </c>
-      <c r="B44" s="60">
-        <f t="shared" si="1"/>
-        <v>565</v>
-      </c>
-      <c r="C44" s="43">
-        <f t="shared" si="0"/>
-        <v>-471</v>
-      </c>
-      <c r="D44" s="63">
-        <f t="shared" si="2"/>
-        <v>-379</v>
-      </c>
-      <c r="E44" s="55"/>
-      <c r="F44" s="46"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="52">
-        <v>38</v>
-      </c>
-      <c r="B45" s="60">
-        <f t="shared" si="1"/>
-        <v>579</v>
-      </c>
-      <c r="C45" s="43">
-        <f t="shared" si="0"/>
-        <v>-485</v>
-      </c>
-      <c r="D45" s="63">
-        <f t="shared" si="2"/>
-        <v>-393</v>
-      </c>
-      <c r="E45" s="55"/>
-      <c r="F45" s="46"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="52">
-        <v>39</v>
-      </c>
-      <c r="B46" s="60">
-        <f t="shared" si="1"/>
-        <v>593</v>
-      </c>
-      <c r="C46" s="43">
-        <f t="shared" si="0"/>
-        <v>-499</v>
-      </c>
-      <c r="D46" s="63">
-        <f t="shared" si="2"/>
-        <v>-407</v>
-      </c>
-      <c r="E46" s="55"/>
-      <c r="F46" s="46"/>
-    </row>
-    <row r="47" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="53">
-        <v>40</v>
-      </c>
-      <c r="B47" s="61">
-        <f t="shared" si="1"/>
-        <v>607</v>
-      </c>
-      <c r="C47" s="43">
-        <f t="shared" si="0"/>
-        <v>-513</v>
-      </c>
-      <c r="D47" s="63">
-        <f t="shared" si="2"/>
-        <v>-421</v>
-      </c>
-      <c r="E47" s="56"/>
-      <c r="F47" s="47"/>
+        <v>-515</v>
+      </c>
+      <c r="H47" s="55"/>
+      <c r="I47" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="C2:F2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="H6:I6"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E2:F5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="A2:A5"/>
+    <mergeCell ref="D6:G6"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:B47">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="11" priority="4">
       <formula>(1+ ((B8-61)/14)) &gt; $B$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C47">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="10" priority="5">
       <formula>B8&gt;C8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="expression" dxfId="1" priority="14">
+  <conditionalFormatting sqref="E8:E47">
+    <cfRule type="expression" dxfId="9" priority="2">
+      <formula>(1+ ((E8-61)/14)) &gt; $B$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F5">
+    <cfRule type="expression" dxfId="8" priority="16">
       <formula>COUNTIF($B$2,"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D47">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>(1+ ((ABS(D8-$D$4)-61)/14)) &gt; $B$2</formula>
+  <conditionalFormatting sqref="F8:F47">
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>(1+ ((ABS(F8-$F$4)-61)/14)) &gt; $B$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10 G12">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>COUNTIF($G$8,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Hydrocarbon chain length" prompt="Enter a whole number (greater than 1) indicating the number of carbons in the hydrocarbon chain of your target compound." sqref="B2" xr:uid="{F7014332-3719-4885-95BF-44AFD9FD41C8}">
       <formula1>2</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Information display cell" prompt="Do not modify the content of this cell!_x000a_" sqref="D3:D5" xr:uid="{21ECB7F2-771B-4437-8B65-3F0ADFF96332}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Information display cell" prompt="Do not modify the content of this cell!_x000a_" sqref="F3:F5" xr:uid="{21ECB7F2-771B-4437-8B65-3F0ADFF96332}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/CHC-indentification.xlsx
+++ b/CHC-indentification.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daniel\GitRepos\CHC-identification_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8542AB3F-C6B3-4F6F-8894-BFD09C81FE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A04396-ABE4-4A0E-9F90-E755C6AF69EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E627A05E-6340-4C51-B36C-84944E4086CC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E627A05E-6340-4C51-B36C-84944E4086CC}"/>
   </bookViews>
   <sheets>
     <sheet name="CHC-Identification" sheetId="1" r:id="rId1"/>
@@ -890,7 +890,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="29">
   <si>
     <t>Alkane</t>
   </si>
@@ -973,10 +973,10 @@
     <t>A+ (-b)</t>
   </si>
   <si>
-    <t>A2+ (a)</t>
+    <t>2nd pair</t>
   </si>
   <si>
-    <t>A2+ (b)</t>
+    <t>1st pair</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1127,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="69">
+  <borders count="74">
     <border>
       <left/>
       <right/>
@@ -1828,21 +1828,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="mediumDashed">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1889,17 +1874,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -2021,6 +1995,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="mediumDashed">
         <color indexed="64"/>
       </left>
@@ -2030,7 +2050,48 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="mediumDashed">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2040,7 +2101,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2160,9 +2221,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="13" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2208,73 +2266,49 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="4" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="4" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="4" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="4" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="4" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="4" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="4" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="4" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="4" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2349,7 +2383,7 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2397,7 +2431,58 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="4" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="4" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2405,7 +2490,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="69">
+  <dxfs count="88">
     <dxf>
       <fill>
         <patternFill>
@@ -2528,6 +2613,62 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF6600CC"/>
         </patternFill>
       </fill>
@@ -2886,6 +3027,83 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF6600CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3337,47 +3555,47 @@
         <v>3</v>
       </c>
       <c r="B1" s="24"/>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="88" t="s">
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="89"/>
+      <c r="P1" s="80"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="85" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="87"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="78"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -3396,20 +3614,20 @@
       <c r="E3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="91" t="s">
+      <c r="F3" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="93"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="84"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -3430,24 +3648,24 @@
         <f>D4-2</f>
         <v>39</v>
       </c>
-      <c r="F4" s="94" t="s">
+      <c r="F4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95" t="s">
+      <c r="G4" s="86"/>
+      <c r="H4" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="97" t="s">
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="99"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="90"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -3809,20 +4027,20 @@
         <f t="shared" si="8"/>
         <v>165</v>
       </c>
-      <c r="F13" s="91" t="s">
+      <c r="F13" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="92"/>
-      <c r="Q13" s="93"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="84"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C14" s="11">
@@ -3836,24 +4054,24 @@
         <f t="shared" si="9"/>
         <v>179</v>
       </c>
-      <c r="F14" s="95" t="s">
+      <c r="F14" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95" t="s">
+      <c r="G14" s="86"/>
+      <c r="H14" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="97" t="s">
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="98"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="98"/>
-      <c r="P14" s="98"/>
-      <c r="Q14" s="99"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="90"/>
     </row>
     <row r="15" spans="1:17" ht="21" x14ac:dyDescent="0.25">
       <c r="C15" s="11">
@@ -4365,40 +4583,40 @@
       </c>
     </row>
     <row r="34" spans="6:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F34" s="90" t="s">
+      <c r="F34" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="90"/>
-      <c r="L34" s="90"/>
-      <c r="M34" s="90"/>
-      <c r="N34" s="90"/>
-      <c r="O34" s="90"/>
-      <c r="P34" s="90"/>
-      <c r="Q34" s="90"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="81"/>
+      <c r="J34" s="81"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="81"/>
+      <c r="M34" s="81"/>
+      <c r="N34" s="81"/>
+      <c r="O34" s="81"/>
+      <c r="P34" s="81"/>
+      <c r="Q34" s="81"/>
     </row>
     <row r="35" spans="6:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F35" s="90" t="s">
+      <c r="F35" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="90"/>
-      <c r="H35" s="90" t="s">
+      <c r="G35" s="81"/>
+      <c r="H35" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="I35" s="90"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="90"/>
-      <c r="L35" s="90" t="s">
+      <c r="I35" s="81"/>
+      <c r="J35" s="81"/>
+      <c r="K35" s="81"/>
+      <c r="L35" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="M35" s="90"/>
-      <c r="N35" s="90"/>
-      <c r="O35" s="90"/>
-      <c r="P35" s="90"/>
-      <c r="Q35" s="90"/>
+      <c r="M35" s="81"/>
+      <c r="N35" s="81"/>
+      <c r="O35" s="81"/>
+      <c r="P35" s="81"/>
+      <c r="Q35" s="81"/>
     </row>
     <row r="36" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F36" s="35" t="e" cm="1">
@@ -4620,262 +4838,262 @@
     <mergeCell ref="F13:Q13"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B8">
-    <cfRule type="expression" dxfId="68" priority="108">
+    <cfRule type="expression" dxfId="76" priority="108">
       <formula>COUNTIF($B$1,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C31">
-    <cfRule type="cellIs" dxfId="67" priority="201" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="75" priority="201" operator="greaterThanOrEqual">
       <formula>$B$3-14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D31">
-    <cfRule type="cellIs" dxfId="66" priority="200" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="74" priority="200" operator="greaterThanOrEqual">
       <formula>$B$4-14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E31">
-    <cfRule type="cellIs" dxfId="65" priority="198" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="73" priority="198" operator="greaterThanOrEqual">
       <formula>$B$5-14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:G16">
-    <cfRule type="expression" dxfId="64" priority="41">
+    <cfRule type="expression" dxfId="72" priority="41">
       <formula>COUNTIF($G$15,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:G18">
-    <cfRule type="expression" dxfId="63" priority="5">
+    <cfRule type="expression" dxfId="71" priority="5">
       <formula>COUNTIF($G$17,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:G20">
-    <cfRule type="expression" dxfId="62" priority="4">
+    <cfRule type="expression" dxfId="70" priority="4">
       <formula>COUNTIF($G$19,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:G22">
-    <cfRule type="expression" dxfId="61" priority="3">
+    <cfRule type="expression" dxfId="69" priority="3">
       <formula>COUNTIF($G$21,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="60" priority="97">
+    <cfRule type="expression" dxfId="68" priority="97">
       <formula>COUNTIF(F$6:G$6,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="59" priority="86">
+    <cfRule type="expression" dxfId="67" priority="86">
       <formula>COUNTIF(F8:G8,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="58" priority="68">
+    <cfRule type="expression" dxfId="66" priority="68">
       <formula>COUNTIF(F10:G10,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="57" priority="67">
+    <cfRule type="expression" dxfId="65" priority="67">
       <formula>COUNTIF(F12:G12,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:I16">
-    <cfRule type="expression" dxfId="56" priority="2">
+    <cfRule type="expression" dxfId="64" priority="2">
       <formula>COUNTIF($I$15,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:I18">
-    <cfRule type="expression" dxfId="55" priority="36">
+    <cfRule type="expression" dxfId="63" priority="36">
       <formula>COUNTIF($I$17,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:I20">
-    <cfRule type="expression" dxfId="54" priority="35">
+    <cfRule type="expression" dxfId="62" priority="35">
       <formula>COUNTIF($I$19,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:I22">
-    <cfRule type="expression" dxfId="53" priority="34">
+    <cfRule type="expression" dxfId="61" priority="34">
       <formula>COUNTIF($I$21,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="52" priority="65">
+    <cfRule type="expression" dxfId="60" priority="65">
       <formula>COUNTIF(H$6:I$6,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="51" priority="60">
+    <cfRule type="expression" dxfId="59" priority="60">
       <formula>COUNTIF(H8:I8,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="50" priority="57">
+    <cfRule type="expression" dxfId="58" priority="57">
       <formula>COUNTIF(H10:I10,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="49" priority="56">
+    <cfRule type="expression" dxfId="57" priority="56">
       <formula>COUNTIF(H12:I12,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:K16">
-    <cfRule type="expression" dxfId="48" priority="1">
+    <cfRule type="expression" dxfId="56" priority="1">
       <formula>COUNTIF($K$15,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:K18">
-    <cfRule type="expression" dxfId="47" priority="32">
+    <cfRule type="expression" dxfId="55" priority="32">
       <formula>COUNTIF($K$17,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:K20">
-    <cfRule type="expression" dxfId="46" priority="31">
+    <cfRule type="expression" dxfId="54" priority="31">
       <formula>COUNTIF($K$19,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:K22">
-    <cfRule type="expression" dxfId="45" priority="30">
+    <cfRule type="expression" dxfId="53" priority="30">
       <formula>COUNTIF($K$21,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="44" priority="90">
+    <cfRule type="expression" dxfId="52" priority="90">
       <formula>COUNTIF(J6:K6,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="expression" dxfId="43" priority="52">
+    <cfRule type="expression" dxfId="51" priority="52">
       <formula>COUNTIF(J8:K8,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="42" priority="54">
+    <cfRule type="expression" dxfId="50" priority="54">
       <formula>COUNTIF(J10:K10,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="41" priority="53">
+    <cfRule type="expression" dxfId="49" priority="53">
       <formula>COUNTIF(J12:K12,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16:M16">
-    <cfRule type="expression" dxfId="40" priority="17">
+    <cfRule type="expression" dxfId="48" priority="17">
       <formula>COUNTIF($M$15,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18:M18">
-    <cfRule type="expression" dxfId="39" priority="14">
+    <cfRule type="expression" dxfId="47" priority="14">
       <formula>COUNTIF($M$17,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20:M20">
-    <cfRule type="expression" dxfId="38" priority="13">
+    <cfRule type="expression" dxfId="46" priority="13">
       <formula>COUNTIF($M$19,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22:M22">
-    <cfRule type="expression" dxfId="37" priority="12">
+    <cfRule type="expression" dxfId="45" priority="12">
       <formula>COUNTIF($M$21,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="expression" dxfId="36" priority="89">
+    <cfRule type="expression" dxfId="44" priority="89">
       <formula>COUNTIF(L6:M6,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7">
-    <cfRule type="expression" dxfId="35" priority="50">
+    <cfRule type="expression" dxfId="43" priority="50">
       <formula>COUNTIF(L8:M8,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="expression" dxfId="34" priority="49">
+    <cfRule type="expression" dxfId="42" priority="49">
       <formula>COUNTIF(L10:M10,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="expression" dxfId="33" priority="48">
+    <cfRule type="expression" dxfId="41" priority="48">
       <formula>COUNTIF(L12:M12,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16:O16">
-    <cfRule type="expression" dxfId="32" priority="16">
+    <cfRule type="expression" dxfId="40" priority="16">
       <formula>COUNTIF($O$15,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18:O18">
-    <cfRule type="expression" dxfId="31" priority="11">
+    <cfRule type="expression" dxfId="39" priority="11">
       <formula>COUNTIF($O$17,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20:O20">
-    <cfRule type="expression" dxfId="30" priority="10">
+    <cfRule type="expression" dxfId="38" priority="10">
       <formula>COUNTIF($O$19,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22:O22">
-    <cfRule type="expression" dxfId="29" priority="9">
+    <cfRule type="expression" dxfId="37" priority="9">
       <formula>COUNTIF($O$21,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
-    <cfRule type="expression" dxfId="28" priority="88">
+    <cfRule type="expression" dxfId="36" priority="88">
       <formula>COUNTIF(N6:O6,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7">
-    <cfRule type="expression" dxfId="27" priority="47">
+    <cfRule type="expression" dxfId="35" priority="47">
       <formula>COUNTIF(N8:O8,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9">
-    <cfRule type="expression" dxfId="26" priority="46">
+    <cfRule type="expression" dxfId="34" priority="46">
       <formula>COUNTIF(N10:O10,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11">
-    <cfRule type="expression" dxfId="25" priority="45">
+    <cfRule type="expression" dxfId="33" priority="45">
       <formula>COUNTIF(N12:O12,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16:Q16">
-    <cfRule type="expression" dxfId="24" priority="15">
+    <cfRule type="expression" dxfId="32" priority="15">
       <formula>COUNTIF($Q$15,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18:Q18">
-    <cfRule type="expression" dxfId="23" priority="8">
+    <cfRule type="expression" dxfId="31" priority="8">
       <formula>COUNTIF($Q$17,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:Q20">
-    <cfRule type="expression" dxfId="22" priority="7">
+    <cfRule type="expression" dxfId="30" priority="7">
       <formula>COUNTIF($Q$19,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22:Q22">
-    <cfRule type="expression" dxfId="21" priority="6">
+    <cfRule type="expression" dxfId="29" priority="6">
       <formula>COUNTIF($Q$21,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="expression" dxfId="20" priority="87">
+    <cfRule type="expression" dxfId="28" priority="87">
       <formula>COUNTIF(P6:Q6,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q7">
-    <cfRule type="expression" dxfId="19" priority="44">
+    <cfRule type="expression" dxfId="27" priority="44">
       <formula>COUNTIF(P8:Q8,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9">
-    <cfRule type="expression" dxfId="18" priority="43">
+    <cfRule type="expression" dxfId="26" priority="43">
       <formula>COUNTIF(P10:Q10,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11">
-    <cfRule type="expression" dxfId="17" priority="42">
+    <cfRule type="expression" dxfId="25" priority="42">
       <formula>COUNTIF(P12:Q12,"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4914,27 +5132,27 @@
       <c r="A1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="101"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4950,1272 +5168,1790 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7A751E-AC0F-4038-95D2-ABBAAB30BEF5}">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="17.7109375" style="40" customWidth="1"/>
-    <col min="10" max="13" width="1.5703125" style="40" customWidth="1"/>
-    <col min="14" max="15" width="10.5703125" style="40" customWidth="1"/>
-    <col min="16" max="16384" width="10.140625" style="40"/>
+    <col min="1" max="11" width="17.7109375" style="40" customWidth="1"/>
+    <col min="12" max="15" width="1.5703125" style="40" customWidth="1"/>
+    <col min="16" max="17" width="10.5703125" style="40" customWidth="1"/>
+    <col min="18" max="16384" width="10.140625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="39" customFormat="1" ht="126" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:17" s="39" customFormat="1" ht="126" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="102" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="102"/>
-    </row>
-    <row r="2" spans="1:15" s="39" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="117" t="s">
+      <c r="Q1" s="93"/>
+    </row>
+    <row r="2" spans="1:17" s="39" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="103" t="s">
+      <c r="B2" s="105"/>
+      <c r="C2" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-    </row>
-    <row r="3" spans="1:15" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="118"/>
-      <c r="B3" s="115"/>
-      <c r="C3" s="41" t="s">
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+    </row>
+    <row r="3" spans="1:17" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="109"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="42">
+      <c r="D3" s="123"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="41">
         <f>B2*14+94</f>
         <v>94</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-    </row>
-    <row r="4" spans="1:15" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="118"/>
-      <c r="B4" s="115"/>
-      <c r="C4" s="41" t="s">
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+    </row>
+    <row r="4" spans="1:17" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="109"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="42">
+      <c r="D4" s="123"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="41">
         <f>F3+92</f>
         <v>186</v>
       </c>
-      <c r="G4" s="62"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-    </row>
-    <row r="5" spans="1:15" s="39" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="119"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="43" t="s">
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+    </row>
+    <row r="5" spans="1:17" s="39" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="110"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
       <c r="J5" s="61"/>
       <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-    </row>
-    <row r="6" spans="1:15" s="39" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="106" t="s">
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+    </row>
+    <row r="6" spans="1:17" s="39" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="110" t="s">
+      <c r="C6" s="104"/>
+      <c r="D6" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
       <c r="G6" s="111"/>
-      <c r="H6" s="110" t="s">
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="111"/>
-    </row>
-    <row r="7" spans="1:15" s="53" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="107"/>
-      <c r="B7" s="57" t="s">
+      <c r="K6" s="102"/>
+    </row>
+    <row r="7" spans="1:17" s="39" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="115"/>
+      <c r="B7" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="125" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="116"/>
+    </row>
+    <row r="8" spans="1:17" s="52" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="98"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="E8" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="69" t="s">
+      <c r="F8" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="48" t="s">
+      <c r="G8" s="127" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="49" t="s">
+      <c r="J8" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="48" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="50">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="49">
         <v>1</v>
       </c>
-      <c r="B8" s="58">
+      <c r="B9" s="56">
         <v>61</v>
       </c>
-      <c r="C8" s="42">
-        <f>$F$3-B8</f>
+      <c r="C9" s="41">
+        <f>$F$3-B9</f>
         <v>33</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D9" s="49">
         <v>1</v>
       </c>
-      <c r="E8" s="70">
+      <c r="E9" s="65">
         <v>61</v>
       </c>
-      <c r="F8" s="76">
-        <f t="shared" ref="F8:F47" si="0">$F$4-B8-94</f>
+      <c r="F9" s="70">
+        <f>$F$4-B9-94</f>
         <v>31</v>
       </c>
-      <c r="G8" s="77"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="47"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="51">
+      <c r="G9" s="124">
+        <f>$B$2-D9</f>
+        <v>-1</v>
+      </c>
+      <c r="H9" s="70">
+        <f>$F$4-E9-94</f>
+        <v>31</v>
+      </c>
+      <c r="I9" s="56">
+        <v>61</v>
+      </c>
+      <c r="J9" s="55"/>
+      <c r="K9" s="46"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="50">
         <v>2</v>
       </c>
-      <c r="B9" s="59">
-        <f>B$8+(14*A8)</f>
+      <c r="B10" s="57">
+        <f>B$9+(14*A9)</f>
         <v>75</v>
       </c>
-      <c r="C9" s="42">
-        <f t="shared" ref="C9:C47" si="1">$F$3-B9</f>
+      <c r="C10" s="41">
+        <f t="shared" ref="C10:C48" si="0">$F$3-B10</f>
         <v>19</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D10" s="50">
         <v>2</v>
       </c>
-      <c r="E9" s="72">
-        <f>E$8+(14*D8)</f>
+      <c r="E10" s="67">
+        <f>E$9+(14*D9)</f>
         <v>75</v>
       </c>
-      <c r="F9" s="76">
+      <c r="F10" s="70">
+        <f>$F$4-B10-94</f>
+        <v>17</v>
+      </c>
+      <c r="G10" s="124">
+        <f t="shared" ref="G10:G48" si="1">$B$2-D10</f>
+        <v>-2</v>
+      </c>
+      <c r="H10" s="70">
+        <f>$F$4-E10-94</f>
+        <v>17</v>
+      </c>
+      <c r="I10" s="57">
+        <f>I$9+(14*D9)</f>
+        <v>75</v>
+      </c>
+      <c r="J10" s="53"/>
+      <c r="K10" s="44"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="50">
+        <v>3</v>
+      </c>
+      <c r="B11" s="57">
+        <f>B$9+(14*A10)</f>
+        <v>89</v>
+      </c>
+      <c r="C11" s="41">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="G9" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="54"/>
-      <c r="I9" s="45"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="51">
+        <v>5</v>
+      </c>
+      <c r="D11" s="50">
         <v>3</v>
       </c>
-      <c r="B10" s="59">
-        <f t="shared" ref="B10:B47" si="2">B$8+(14*A9)</f>
+      <c r="E11" s="67">
+        <f t="shared" ref="E11:E48" si="2">E$9+(14*D10)</f>
         <v>89</v>
       </c>
-      <c r="C10" s="42">
+      <c r="F11" s="70">
+        <f t="shared" ref="F11:F48" si="3">$F$4-B11-94</f>
+        <v>3</v>
+      </c>
+      <c r="G11" s="124">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D10" s="51">
+        <v>-3</v>
+      </c>
+      <c r="H11" s="70">
+        <f>$F$4-E11-94</f>
         <v>3</v>
       </c>
-      <c r="E10" s="72">
-        <f t="shared" ref="E10:E47" si="3">E$8+(14*D9)</f>
+      <c r="I11" s="57">
+        <f>I$9+(14*D10)</f>
         <v>89</v>
       </c>
-      <c r="F10" s="76">
+      <c r="J11" s="53"/>
+      <c r="K11" s="44"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="50">
+        <v>4</v>
+      </c>
+      <c r="B12" s="57">
+        <f>B$9+(14*A11)</f>
+        <v>103</v>
+      </c>
+      <c r="C12" s="41">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G10" s="71">
-        <f>B2-(((G8-15-60)/14)+2)</f>
-        <v>3.3571428571428568</v>
-      </c>
-      <c r="H10" s="54"/>
-      <c r="I10" s="45"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="51">
+        <v>-9</v>
+      </c>
+      <c r="D12" s="50">
         <v>4</v>
       </c>
-      <c r="B11" s="59">
+      <c r="E12" s="67">
         <f t="shared" si="2"/>
         <v>103</v>
       </c>
-      <c r="C11" s="42">
+      <c r="F12" s="70">
+        <f t="shared" si="3"/>
+        <v>-11</v>
+      </c>
+      <c r="G12" s="124">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="H12" s="70">
+        <f>$F$4-E12-94</f>
+        <v>-11</v>
+      </c>
+      <c r="I12" s="57">
+        <f>I$9+(14*D11)</f>
+        <v>103</v>
+      </c>
+      <c r="J12" s="53"/>
+      <c r="K12" s="44"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="50">
+        <v>5</v>
+      </c>
+      <c r="B13" s="57">
+        <f>B$9+(14*A12)</f>
+        <v>117</v>
+      </c>
+      <c r="C13" s="41">
+        <f t="shared" si="0"/>
+        <v>-23</v>
+      </c>
+      <c r="D13" s="50">
+        <v>5</v>
+      </c>
+      <c r="E13" s="67">
+        <f t="shared" si="2"/>
+        <v>117</v>
+      </c>
+      <c r="F13" s="70">
+        <f t="shared" si="3"/>
+        <v>-25</v>
+      </c>
+      <c r="G13" s="124">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="H13" s="70">
+        <f>$F$4-E13-94</f>
+        <v>-25</v>
+      </c>
+      <c r="I13" s="57">
+        <f>I$9+(14*D12)</f>
+        <v>117</v>
+      </c>
+      <c r="J13" s="53"/>
+      <c r="K13" s="44"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="50">
+        <v>6</v>
+      </c>
+      <c r="B14" s="57">
+        <f>B$9+(14*A13)</f>
+        <v>131</v>
+      </c>
+      <c r="C14" s="41">
+        <f t="shared" si="0"/>
+        <v>-37</v>
+      </c>
+      <c r="D14" s="50">
+        <v>6</v>
+      </c>
+      <c r="E14" s="67">
+        <f t="shared" si="2"/>
+        <v>131</v>
+      </c>
+      <c r="F14" s="66">
+        <f t="shared" si="3"/>
+        <v>-39</v>
+      </c>
+      <c r="G14" s="124">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="H14" s="66">
+        <f>$F$4-E14-94</f>
+        <v>-39</v>
+      </c>
+      <c r="I14" s="57">
+        <f>I$9+(14*D13)</f>
+        <v>131</v>
+      </c>
+      <c r="J14" s="53"/>
+      <c r="K14" s="44"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="50">
+        <v>7</v>
+      </c>
+      <c r="B15" s="57">
+        <f>B$9+(14*A14)</f>
+        <v>145</v>
+      </c>
+      <c r="C15" s="41">
+        <f t="shared" si="0"/>
+        <v>-51</v>
+      </c>
+      <c r="D15" s="50">
+        <v>7</v>
+      </c>
+      <c r="E15" s="67">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+      <c r="F15" s="66">
+        <f t="shared" si="3"/>
+        <v>-53</v>
+      </c>
+      <c r="G15" s="124">
+        <f t="shared" si="1"/>
+        <v>-7</v>
+      </c>
+      <c r="H15" s="66">
+        <f>$F$4-E15-94</f>
+        <v>-53</v>
+      </c>
+      <c r="I15" s="57">
+        <f>I$9+(14*D14)</f>
+        <v>145</v>
+      </c>
+      <c r="J15" s="53"/>
+      <c r="K15" s="44"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="50">
+        <v>8</v>
+      </c>
+      <c r="B16" s="57">
+        <f>B$9+(14*A15)</f>
+        <v>159</v>
+      </c>
+      <c r="C16" s="41">
+        <f t="shared" si="0"/>
+        <v>-65</v>
+      </c>
+      <c r="D16" s="50">
+        <v>8</v>
+      </c>
+      <c r="E16" s="67">
+        <f t="shared" si="2"/>
+        <v>159</v>
+      </c>
+      <c r="F16" s="66">
+        <f t="shared" si="3"/>
+        <v>-67</v>
+      </c>
+      <c r="G16" s="124">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+      <c r="H16" s="66">
+        <f>$F$4-E16-94</f>
+        <v>-67</v>
+      </c>
+      <c r="I16" s="57">
+        <f>I$9+(14*D15)</f>
+        <v>159</v>
+      </c>
+      <c r="J16" s="53"/>
+      <c r="K16" s="44"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="50">
+        <v>9</v>
+      </c>
+      <c r="B17" s="57">
+        <f>B$9+(14*A16)</f>
+        <v>173</v>
+      </c>
+      <c r="C17" s="41">
+        <f t="shared" si="0"/>
+        <v>-79</v>
+      </c>
+      <c r="D17" s="50">
+        <v>9</v>
+      </c>
+      <c r="E17" s="67">
+        <f>E$9+(14*D16)</f>
+        <v>173</v>
+      </c>
+      <c r="F17" s="66">
+        <f>$F$4-B17-94</f>
+        <v>-81</v>
+      </c>
+      <c r="G17" s="124">
         <f t="shared" si="1"/>
         <v>-9</v>
       </c>
-      <c r="D11" s="51">
-        <v>4</v>
-      </c>
-      <c r="E11" s="72">
+      <c r="H17" s="66">
+        <f>$F$4-E17-94</f>
+        <v>-81</v>
+      </c>
+      <c r="I17" s="57">
+        <f>I$9+(14*D16)</f>
+        <v>173</v>
+      </c>
+      <c r="J17" s="53"/>
+      <c r="K17" s="44"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="50">
+        <v>10</v>
+      </c>
+      <c r="B18" s="57">
+        <f>B$9+(14*A17)</f>
+        <v>187</v>
+      </c>
+      <c r="C18" s="41">
+        <f t="shared" si="0"/>
+        <v>-93</v>
+      </c>
+      <c r="D18" s="50">
+        <v>10</v>
+      </c>
+      <c r="E18" s="67">
+        <f t="shared" si="2"/>
+        <v>187</v>
+      </c>
+      <c r="F18" s="66">
         <f t="shared" si="3"/>
-        <v>103</v>
-      </c>
-      <c r="F11" s="76">
+        <v>-95</v>
+      </c>
+      <c r="G18" s="124">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="H18" s="66">
+        <f>$F$4-E18-94</f>
+        <v>-95</v>
+      </c>
+      <c r="I18" s="57">
+        <f>I$9+(14*D17)</f>
+        <v>187</v>
+      </c>
+      <c r="J18" s="53"/>
+      <c r="K18" s="44"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="50">
+        <v>11</v>
+      </c>
+      <c r="B19" s="57">
+        <f>B$9+(14*A18)</f>
+        <v>201</v>
+      </c>
+      <c r="C19" s="41">
         <f t="shared" si="0"/>
+        <v>-107</v>
+      </c>
+      <c r="D19" s="50">
+        <v>11</v>
+      </c>
+      <c r="E19" s="67">
+        <f t="shared" si="2"/>
+        <v>201</v>
+      </c>
+      <c r="F19" s="66">
+        <f t="shared" si="3"/>
+        <v>-109</v>
+      </c>
+      <c r="G19" s="124">
+        <f t="shared" si="1"/>
         <v>-11</v>
       </c>
-      <c r="G11" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="54"/>
-      <c r="I11" s="45"/>
-    </row>
-    <row r="12" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="51">
-        <v>5</v>
-      </c>
-      <c r="B12" s="59">
+      <c r="H19" s="66">
+        <f>$F$4-E19-94</f>
+        <v>-109</v>
+      </c>
+      <c r="I19" s="57">
+        <f>I$9+(14*D18)</f>
+        <v>201</v>
+      </c>
+      <c r="J19" s="53"/>
+      <c r="K19" s="44"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="50">
+        <v>12</v>
+      </c>
+      <c r="B20" s="57">
+        <f>B$9+(14*A19)</f>
+        <v>215</v>
+      </c>
+      <c r="C20" s="41">
+        <f t="shared" si="0"/>
+        <v>-121</v>
+      </c>
+      <c r="D20" s="50">
+        <v>12</v>
+      </c>
+      <c r="E20" s="67">
         <f t="shared" si="2"/>
-        <v>117</v>
-      </c>
-      <c r="C12" s="42">
+        <v>215</v>
+      </c>
+      <c r="F20" s="66">
+        <f t="shared" si="3"/>
+        <v>-123</v>
+      </c>
+      <c r="G20" s="124">
+        <f t="shared" si="1"/>
+        <v>-12</v>
+      </c>
+      <c r="H20" s="66">
+        <f>$F$4-E20-94</f>
+        <v>-123</v>
+      </c>
+      <c r="I20" s="57">
+        <f>I$9+(14*D19)</f>
+        <v>215</v>
+      </c>
+      <c r="J20" s="53"/>
+      <c r="K20" s="44"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="50">
+        <v>13</v>
+      </c>
+      <c r="B21" s="57">
+        <f>B$9+(14*A20)</f>
+        <v>229</v>
+      </c>
+      <c r="C21" s="41">
+        <f t="shared" si="0"/>
+        <v>-135</v>
+      </c>
+      <c r="D21" s="50">
+        <v>13</v>
+      </c>
+      <c r="E21" s="67">
+        <f t="shared" si="2"/>
+        <v>229</v>
+      </c>
+      <c r="F21" s="66">
+        <f t="shared" si="3"/>
+        <v>-137</v>
+      </c>
+      <c r="G21" s="124">
+        <f t="shared" si="1"/>
+        <v>-13</v>
+      </c>
+      <c r="H21" s="66">
+        <f>$F$4-E21-94</f>
+        <v>-137</v>
+      </c>
+      <c r="I21" s="57">
+        <f>I$9+(14*D20)</f>
+        <v>229</v>
+      </c>
+      <c r="J21" s="53"/>
+      <c r="K21" s="44"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="50">
+        <v>14</v>
+      </c>
+      <c r="B22" s="57">
+        <f>B$9+(14*A21)</f>
+        <v>243</v>
+      </c>
+      <c r="C22" s="41">
+        <f t="shared" si="0"/>
+        <v>-149</v>
+      </c>
+      <c r="D22" s="50">
+        <v>14</v>
+      </c>
+      <c r="E22" s="67">
+        <f t="shared" si="2"/>
+        <v>243</v>
+      </c>
+      <c r="F22" s="66">
+        <f t="shared" si="3"/>
+        <v>-151</v>
+      </c>
+      <c r="G22" s="124">
+        <f t="shared" si="1"/>
+        <v>-14</v>
+      </c>
+      <c r="H22" s="66">
+        <f>$F$4-E22-94</f>
+        <v>-151</v>
+      </c>
+      <c r="I22" s="57">
+        <f>I$9+(14*D21)</f>
+        <v>243</v>
+      </c>
+      <c r="J22" s="53"/>
+      <c r="K22" s="44"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="50">
+        <v>15</v>
+      </c>
+      <c r="B23" s="57">
+        <f>B$9+(14*A22)</f>
+        <v>257</v>
+      </c>
+      <c r="C23" s="41">
+        <f t="shared" si="0"/>
+        <v>-163</v>
+      </c>
+      <c r="D23" s="50">
+        <v>15</v>
+      </c>
+      <c r="E23" s="67">
+        <f t="shared" si="2"/>
+        <v>257</v>
+      </c>
+      <c r="F23" s="66">
+        <f t="shared" si="3"/>
+        <v>-165</v>
+      </c>
+      <c r="G23" s="124">
+        <f t="shared" si="1"/>
+        <v>-15</v>
+      </c>
+      <c r="H23" s="66">
+        <f>$F$4-E23-94</f>
+        <v>-165</v>
+      </c>
+      <c r="I23" s="57">
+        <f>I$9+(14*D22)</f>
+        <v>257</v>
+      </c>
+      <c r="J23" s="53"/>
+      <c r="K23" s="44"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="50">
+        <v>16</v>
+      </c>
+      <c r="B24" s="57">
+        <f>B$9+(14*A23)</f>
+        <v>271</v>
+      </c>
+      <c r="C24" s="41">
+        <f t="shared" si="0"/>
+        <v>-177</v>
+      </c>
+      <c r="D24" s="50">
+        <v>16</v>
+      </c>
+      <c r="E24" s="67">
+        <f t="shared" si="2"/>
+        <v>271</v>
+      </c>
+      <c r="F24" s="66">
+        <f t="shared" si="3"/>
+        <v>-179</v>
+      </c>
+      <c r="G24" s="124">
+        <f t="shared" si="1"/>
+        <v>-16</v>
+      </c>
+      <c r="H24" s="66">
+        <f>$F$4-E24-94</f>
+        <v>-179</v>
+      </c>
+      <c r="I24" s="57">
+        <f>I$9+(14*D23)</f>
+        <v>271</v>
+      </c>
+      <c r="J24" s="53"/>
+      <c r="K24" s="44"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="50">
+        <v>17</v>
+      </c>
+      <c r="B25" s="57">
+        <f>B$9+(14*A24)</f>
+        <v>285</v>
+      </c>
+      <c r="C25" s="41">
+        <f t="shared" si="0"/>
+        <v>-191</v>
+      </c>
+      <c r="D25" s="50">
+        <v>17</v>
+      </c>
+      <c r="E25" s="67">
+        <f t="shared" si="2"/>
+        <v>285</v>
+      </c>
+      <c r="F25" s="66">
+        <f t="shared" si="3"/>
+        <v>-193</v>
+      </c>
+      <c r="G25" s="124">
+        <f t="shared" si="1"/>
+        <v>-17</v>
+      </c>
+      <c r="H25" s="66">
+        <f>$F$4-E25-94</f>
+        <v>-193</v>
+      </c>
+      <c r="I25" s="57">
+        <f>I$9+(14*D24)</f>
+        <v>285</v>
+      </c>
+      <c r="J25" s="53"/>
+      <c r="K25" s="44"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="50">
+        <v>18</v>
+      </c>
+      <c r="B26" s="57">
+        <f>B$9+(14*A25)</f>
+        <v>299</v>
+      </c>
+      <c r="C26" s="41">
+        <f t="shared" si="0"/>
+        <v>-205</v>
+      </c>
+      <c r="D26" s="50">
+        <v>18</v>
+      </c>
+      <c r="E26" s="67">
+        <f t="shared" si="2"/>
+        <v>299</v>
+      </c>
+      <c r="F26" s="66">
+        <f t="shared" si="3"/>
+        <v>-207</v>
+      </c>
+      <c r="G26" s="124">
+        <f t="shared" si="1"/>
+        <v>-18</v>
+      </c>
+      <c r="H26" s="66">
+        <f>$F$4-E26-94</f>
+        <v>-207</v>
+      </c>
+      <c r="I26" s="57">
+        <f>I$9+(14*D25)</f>
+        <v>299</v>
+      </c>
+      <c r="J26" s="53"/>
+      <c r="K26" s="44"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="50">
+        <v>19</v>
+      </c>
+      <c r="B27" s="57">
+        <f>B$9+(14*A26)</f>
+        <v>313</v>
+      </c>
+      <c r="C27" s="41">
+        <f t="shared" si="0"/>
+        <v>-219</v>
+      </c>
+      <c r="D27" s="50">
+        <v>19</v>
+      </c>
+      <c r="E27" s="67">
+        <f t="shared" si="2"/>
+        <v>313</v>
+      </c>
+      <c r="F27" s="66">
+        <f t="shared" si="3"/>
+        <v>-221</v>
+      </c>
+      <c r="G27" s="124">
+        <f t="shared" si="1"/>
+        <v>-19</v>
+      </c>
+      <c r="H27" s="66">
+        <f>$F$4-E27-94</f>
+        <v>-221</v>
+      </c>
+      <c r="I27" s="57">
+        <f>I$9+(14*D26)</f>
+        <v>313</v>
+      </c>
+      <c r="J27" s="53"/>
+      <c r="K27" s="44"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="50">
+        <v>20</v>
+      </c>
+      <c r="B28" s="57">
+        <f>B$9+(14*A27)</f>
+        <v>327</v>
+      </c>
+      <c r="C28" s="41">
+        <f t="shared" si="0"/>
+        <v>-233</v>
+      </c>
+      <c r="D28" s="50">
+        <v>20</v>
+      </c>
+      <c r="E28" s="67">
+        <f t="shared" si="2"/>
+        <v>327</v>
+      </c>
+      <c r="F28" s="66">
+        <f t="shared" si="3"/>
+        <v>-235</v>
+      </c>
+      <c r="G28" s="124">
+        <f t="shared" si="1"/>
+        <v>-20</v>
+      </c>
+      <c r="H28" s="66">
+        <f>$F$4-E28-94</f>
+        <v>-235</v>
+      </c>
+      <c r="I28" s="57">
+        <f>I$9+(14*D27)</f>
+        <v>327</v>
+      </c>
+      <c r="J28" s="53"/>
+      <c r="K28" s="44"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="50">
+        <v>21</v>
+      </c>
+      <c r="B29" s="57">
+        <f>B$9+(14*A28)</f>
+        <v>341</v>
+      </c>
+      <c r="C29" s="41">
+        <f t="shared" si="0"/>
+        <v>-247</v>
+      </c>
+      <c r="D29" s="50">
+        <v>21</v>
+      </c>
+      <c r="E29" s="67">
+        <f t="shared" si="2"/>
+        <v>341</v>
+      </c>
+      <c r="F29" s="66">
+        <f t="shared" si="3"/>
+        <v>-249</v>
+      </c>
+      <c r="G29" s="124">
+        <f t="shared" si="1"/>
+        <v>-21</v>
+      </c>
+      <c r="H29" s="66">
+        <f>$F$4-E29-94</f>
+        <v>-249</v>
+      </c>
+      <c r="I29" s="57">
+        <f>I$9+(14*D28)</f>
+        <v>341</v>
+      </c>
+      <c r="J29" s="53"/>
+      <c r="K29" s="44"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="50">
+        <v>22</v>
+      </c>
+      <c r="B30" s="57">
+        <f>B$9+(14*A29)</f>
+        <v>355</v>
+      </c>
+      <c r="C30" s="41">
+        <f t="shared" si="0"/>
+        <v>-261</v>
+      </c>
+      <c r="D30" s="50">
+        <v>22</v>
+      </c>
+      <c r="E30" s="67">
+        <f t="shared" si="2"/>
+        <v>355</v>
+      </c>
+      <c r="F30" s="66">
+        <f t="shared" si="3"/>
+        <v>-263</v>
+      </c>
+      <c r="G30" s="124">
+        <f t="shared" si="1"/>
+        <v>-22</v>
+      </c>
+      <c r="H30" s="66">
+        <f>$F$4-E30-94</f>
+        <v>-263</v>
+      </c>
+      <c r="I30" s="57">
+        <f>I$9+(14*D29)</f>
+        <v>355</v>
+      </c>
+      <c r="J30" s="53"/>
+      <c r="K30" s="44"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="50">
+        <v>23</v>
+      </c>
+      <c r="B31" s="57">
+        <f>B$9+(14*A30)</f>
+        <v>369</v>
+      </c>
+      <c r="C31" s="41">
+        <f t="shared" si="0"/>
+        <v>-275</v>
+      </c>
+      <c r="D31" s="50">
+        <v>23</v>
+      </c>
+      <c r="E31" s="67">
+        <f t="shared" si="2"/>
+        <v>369</v>
+      </c>
+      <c r="F31" s="66">
+        <f t="shared" si="3"/>
+        <v>-277</v>
+      </c>
+      <c r="G31" s="124">
         <f t="shared" si="1"/>
         <v>-23</v>
       </c>
-      <c r="D12" s="51">
-        <v>5</v>
-      </c>
-      <c r="E12" s="72">
+      <c r="H31" s="66">
+        <f>$F$4-E31-94</f>
+        <v>-277</v>
+      </c>
+      <c r="I31" s="57">
+        <f>I$9+(14*D30)</f>
+        <v>369</v>
+      </c>
+      <c r="J31" s="53"/>
+      <c r="K31" s="44"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="50">
+        <v>24</v>
+      </c>
+      <c r="B32" s="57">
+        <f>B$9+(14*A31)</f>
+        <v>383</v>
+      </c>
+      <c r="C32" s="41">
+        <f t="shared" si="0"/>
+        <v>-289</v>
+      </c>
+      <c r="D32" s="50">
+        <v>24</v>
+      </c>
+      <c r="E32" s="67">
+        <f t="shared" si="2"/>
+        <v>383</v>
+      </c>
+      <c r="F32" s="66">
         <f t="shared" si="3"/>
-        <v>117</v>
-      </c>
-      <c r="F12" s="76">
+        <v>-291</v>
+      </c>
+      <c r="G32" s="124">
+        <f t="shared" si="1"/>
+        <v>-24</v>
+      </c>
+      <c r="H32" s="66">
+        <f>$F$4-E32-94</f>
+        <v>-291</v>
+      </c>
+      <c r="I32" s="57">
+        <f>I$9+(14*D31)</f>
+        <v>383</v>
+      </c>
+      <c r="J32" s="53"/>
+      <c r="K32" s="44"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="50">
+        <v>25</v>
+      </c>
+      <c r="B33" s="57">
+        <f>B$9+(14*A32)</f>
+        <v>397</v>
+      </c>
+      <c r="C33" s="41">
         <f t="shared" si="0"/>
+        <v>-303</v>
+      </c>
+      <c r="D33" s="50">
+        <v>25</v>
+      </c>
+      <c r="E33" s="67">
+        <f t="shared" si="2"/>
+        <v>397</v>
+      </c>
+      <c r="F33" s="66">
+        <f t="shared" si="3"/>
+        <v>-305</v>
+      </c>
+      <c r="G33" s="124">
+        <f t="shared" si="1"/>
         <v>-25</v>
       </c>
-      <c r="G12" s="79">
-        <f>F4-G8-94</f>
-        <v>92</v>
-      </c>
-      <c r="H12" s="54"/>
-      <c r="I12" s="45"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="51">
-        <v>6</v>
-      </c>
-      <c r="B13" s="59">
+      <c r="H33" s="66">
+        <f>$F$4-E33-94</f>
+        <v>-305</v>
+      </c>
+      <c r="I33" s="57">
+        <f>I$9+(14*D32)</f>
+        <v>397</v>
+      </c>
+      <c r="J33" s="53"/>
+      <c r="K33" s="44"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="50">
+        <v>26</v>
+      </c>
+      <c r="B34" s="57">
+        <f>B$9+(14*A33)</f>
+        <v>411</v>
+      </c>
+      <c r="C34" s="41">
+        <f t="shared" si="0"/>
+        <v>-317</v>
+      </c>
+      <c r="D34" s="50">
+        <v>26</v>
+      </c>
+      <c r="E34" s="67">
         <f t="shared" si="2"/>
-        <v>131</v>
-      </c>
-      <c r="C13" s="42">
+        <v>411</v>
+      </c>
+      <c r="F34" s="66">
+        <f t="shared" si="3"/>
+        <v>-319</v>
+      </c>
+      <c r="G34" s="124">
+        <f t="shared" si="1"/>
+        <v>-26</v>
+      </c>
+      <c r="H34" s="66">
+        <f>$F$4-E34-94</f>
+        <v>-319</v>
+      </c>
+      <c r="I34" s="57">
+        <f>I$9+(14*D33)</f>
+        <v>411</v>
+      </c>
+      <c r="J34" s="53"/>
+      <c r="K34" s="44"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="50">
+        <v>27</v>
+      </c>
+      <c r="B35" s="57">
+        <f>B$9+(14*A34)</f>
+        <v>425</v>
+      </c>
+      <c r="C35" s="41">
+        <f t="shared" si="0"/>
+        <v>-331</v>
+      </c>
+      <c r="D35" s="50">
+        <v>27</v>
+      </c>
+      <c r="E35" s="67">
+        <f t="shared" si="2"/>
+        <v>425</v>
+      </c>
+      <c r="F35" s="66">
+        <f t="shared" si="3"/>
+        <v>-333</v>
+      </c>
+      <c r="G35" s="124">
+        <f t="shared" si="1"/>
+        <v>-27</v>
+      </c>
+      <c r="H35" s="66">
+        <f>$F$4-E35-94</f>
+        <v>-333</v>
+      </c>
+      <c r="I35" s="57">
+        <f>I$9+(14*D34)</f>
+        <v>425</v>
+      </c>
+      <c r="J35" s="53"/>
+      <c r="K35" s="44"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="50">
+        <v>28</v>
+      </c>
+      <c r="B36" s="57">
+        <f>B$9+(14*A35)</f>
+        <v>439</v>
+      </c>
+      <c r="C36" s="41">
+        <f t="shared" si="0"/>
+        <v>-345</v>
+      </c>
+      <c r="D36" s="50">
+        <v>28</v>
+      </c>
+      <c r="E36" s="67">
+        <f t="shared" si="2"/>
+        <v>439</v>
+      </c>
+      <c r="F36" s="66">
+        <f t="shared" si="3"/>
+        <v>-347</v>
+      </c>
+      <c r="G36" s="124">
+        <f t="shared" si="1"/>
+        <v>-28</v>
+      </c>
+      <c r="H36" s="66">
+        <f>$F$4-E36-94</f>
+        <v>-347</v>
+      </c>
+      <c r="I36" s="57">
+        <f>I$9+(14*D35)</f>
+        <v>439</v>
+      </c>
+      <c r="J36" s="53"/>
+      <c r="K36" s="44"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="50">
+        <v>29</v>
+      </c>
+      <c r="B37" s="57">
+        <f>B$9+(14*A36)</f>
+        <v>453</v>
+      </c>
+      <c r="C37" s="41">
+        <f t="shared" si="0"/>
+        <v>-359</v>
+      </c>
+      <c r="D37" s="50">
+        <v>29</v>
+      </c>
+      <c r="E37" s="67">
+        <f t="shared" si="2"/>
+        <v>453</v>
+      </c>
+      <c r="F37" s="66">
+        <f t="shared" si="3"/>
+        <v>-361</v>
+      </c>
+      <c r="G37" s="124">
+        <f t="shared" si="1"/>
+        <v>-29</v>
+      </c>
+      <c r="H37" s="66">
+        <f>$F$4-E37-94</f>
+        <v>-361</v>
+      </c>
+      <c r="I37" s="57">
+        <f>I$9+(14*D36)</f>
+        <v>453</v>
+      </c>
+      <c r="J37" s="53"/>
+      <c r="K37" s="44"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="50">
+        <v>30</v>
+      </c>
+      <c r="B38" s="57">
+        <f>B$9+(14*A37)</f>
+        <v>467</v>
+      </c>
+      <c r="C38" s="41">
+        <f t="shared" si="0"/>
+        <v>-373</v>
+      </c>
+      <c r="D38" s="50">
+        <v>30</v>
+      </c>
+      <c r="E38" s="67">
+        <f t="shared" si="2"/>
+        <v>467</v>
+      </c>
+      <c r="F38" s="66">
+        <f t="shared" si="3"/>
+        <v>-375</v>
+      </c>
+      <c r="G38" s="124">
+        <f t="shared" si="1"/>
+        <v>-30</v>
+      </c>
+      <c r="H38" s="66">
+        <f>$F$4-E38-94</f>
+        <v>-375</v>
+      </c>
+      <c r="I38" s="57">
+        <f>I$9+(14*D37)</f>
+        <v>467</v>
+      </c>
+      <c r="J38" s="53"/>
+      <c r="K38" s="44"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="50">
+        <v>31</v>
+      </c>
+      <c r="B39" s="57">
+        <f>B$9+(14*A38)</f>
+        <v>481</v>
+      </c>
+      <c r="C39" s="41">
+        <f t="shared" si="0"/>
+        <v>-387</v>
+      </c>
+      <c r="D39" s="50">
+        <v>31</v>
+      </c>
+      <c r="E39" s="67">
+        <f t="shared" si="2"/>
+        <v>481</v>
+      </c>
+      <c r="F39" s="66">
+        <f t="shared" si="3"/>
+        <v>-389</v>
+      </c>
+      <c r="G39" s="124">
+        <f t="shared" si="1"/>
+        <v>-31</v>
+      </c>
+      <c r="H39" s="66">
+        <f>$F$4-E39-94</f>
+        <v>-389</v>
+      </c>
+      <c r="I39" s="57">
+        <f>I$9+(14*D38)</f>
+        <v>481</v>
+      </c>
+      <c r="J39" s="53"/>
+      <c r="K39" s="44"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="50">
+        <v>32</v>
+      </c>
+      <c r="B40" s="57">
+        <f>B$9+(14*A39)</f>
+        <v>495</v>
+      </c>
+      <c r="C40" s="41">
+        <f t="shared" si="0"/>
+        <v>-401</v>
+      </c>
+      <c r="D40" s="50">
+        <v>32</v>
+      </c>
+      <c r="E40" s="67">
+        <f t="shared" si="2"/>
+        <v>495</v>
+      </c>
+      <c r="F40" s="66">
+        <f t="shared" si="3"/>
+        <v>-403</v>
+      </c>
+      <c r="G40" s="124">
+        <f t="shared" si="1"/>
+        <v>-32</v>
+      </c>
+      <c r="H40" s="66">
+        <f>$F$4-E40-94</f>
+        <v>-403</v>
+      </c>
+      <c r="I40" s="57">
+        <f>I$9+(14*D39)</f>
+        <v>495</v>
+      </c>
+      <c r="J40" s="53"/>
+      <c r="K40" s="44"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="50">
+        <v>33</v>
+      </c>
+      <c r="B41" s="57">
+        <f>B$9+(14*A40)</f>
+        <v>509</v>
+      </c>
+      <c r="C41" s="41">
+        <f t="shared" si="0"/>
+        <v>-415</v>
+      </c>
+      <c r="D41" s="50">
+        <v>33</v>
+      </c>
+      <c r="E41" s="67">
+        <f t="shared" si="2"/>
+        <v>509</v>
+      </c>
+      <c r="F41" s="66">
+        <f t="shared" si="3"/>
+        <v>-417</v>
+      </c>
+      <c r="G41" s="124">
+        <f t="shared" si="1"/>
+        <v>-33</v>
+      </c>
+      <c r="H41" s="66">
+        <f>$F$4-E41-94</f>
+        <v>-417</v>
+      </c>
+      <c r="I41" s="57">
+        <f>I$9+(14*D40)</f>
+        <v>509</v>
+      </c>
+      <c r="J41" s="53"/>
+      <c r="K41" s="44"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="50">
+        <v>34</v>
+      </c>
+      <c r="B42" s="57">
+        <f>B$9+(14*A41)</f>
+        <v>523</v>
+      </c>
+      <c r="C42" s="41">
+        <f t="shared" si="0"/>
+        <v>-429</v>
+      </c>
+      <c r="D42" s="50">
+        <v>34</v>
+      </c>
+      <c r="E42" s="67">
+        <f t="shared" si="2"/>
+        <v>523</v>
+      </c>
+      <c r="F42" s="66">
+        <f t="shared" si="3"/>
+        <v>-431</v>
+      </c>
+      <c r="G42" s="124">
+        <f t="shared" si="1"/>
+        <v>-34</v>
+      </c>
+      <c r="H42" s="66">
+        <f>$F$4-E42-94</f>
+        <v>-431</v>
+      </c>
+      <c r="I42" s="57">
+        <f>I$9+(14*D41)</f>
+        <v>523</v>
+      </c>
+      <c r="J42" s="53"/>
+      <c r="K42" s="44"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="50">
+        <v>35</v>
+      </c>
+      <c r="B43" s="57">
+        <f>B$9+(14*A42)</f>
+        <v>537</v>
+      </c>
+      <c r="C43" s="41">
+        <f t="shared" si="0"/>
+        <v>-443</v>
+      </c>
+      <c r="D43" s="50">
+        <v>35</v>
+      </c>
+      <c r="E43" s="67">
+        <f t="shared" si="2"/>
+        <v>537</v>
+      </c>
+      <c r="F43" s="66">
+        <f t="shared" si="3"/>
+        <v>-445</v>
+      </c>
+      <c r="G43" s="124">
+        <f t="shared" si="1"/>
+        <v>-35</v>
+      </c>
+      <c r="H43" s="66">
+        <f>$F$4-E43-94</f>
+        <v>-445</v>
+      </c>
+      <c r="I43" s="57">
+        <f>I$9+(14*D42)</f>
+        <v>537</v>
+      </c>
+      <c r="J43" s="53"/>
+      <c r="K43" s="44"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="50">
+        <v>36</v>
+      </c>
+      <c r="B44" s="57">
+        <f>B$9+(14*A43)</f>
+        <v>551</v>
+      </c>
+      <c r="C44" s="41">
+        <f t="shared" si="0"/>
+        <v>-457</v>
+      </c>
+      <c r="D44" s="50">
+        <v>36</v>
+      </c>
+      <c r="E44" s="67">
+        <f t="shared" si="2"/>
+        <v>551</v>
+      </c>
+      <c r="F44" s="66">
+        <f t="shared" si="3"/>
+        <v>-459</v>
+      </c>
+      <c r="G44" s="124">
+        <f t="shared" si="1"/>
+        <v>-36</v>
+      </c>
+      <c r="H44" s="66">
+        <f>$F$4-E44-94</f>
+        <v>-459</v>
+      </c>
+      <c r="I44" s="57">
+        <f>I$9+(14*D43)</f>
+        <v>551</v>
+      </c>
+      <c r="J44" s="53"/>
+      <c r="K44" s="44"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="50">
+        <v>37</v>
+      </c>
+      <c r="B45" s="57">
+        <f>B$9+(14*A44)</f>
+        <v>565</v>
+      </c>
+      <c r="C45" s="41">
+        <f t="shared" si="0"/>
+        <v>-471</v>
+      </c>
+      <c r="D45" s="50">
+        <v>37</v>
+      </c>
+      <c r="E45" s="67">
+        <f t="shared" si="2"/>
+        <v>565</v>
+      </c>
+      <c r="F45" s="66">
+        <f t="shared" si="3"/>
+        <v>-473</v>
+      </c>
+      <c r="G45" s="124">
         <f t="shared" si="1"/>
         <v>-37</v>
       </c>
-      <c r="D13" s="51">
-        <v>6</v>
-      </c>
-      <c r="E13" s="72">
-        <f t="shared" si="3"/>
-        <v>131</v>
-      </c>
-      <c r="F13" s="71">
+      <c r="H45" s="66">
+        <f>$F$4-E45-94</f>
+        <v>-473</v>
+      </c>
+      <c r="I45" s="57">
+        <f>I$9+(14*D44)</f>
+        <v>565</v>
+      </c>
+      <c r="J45" s="53"/>
+      <c r="K45" s="44"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="50">
+        <v>38</v>
+      </c>
+      <c r="B46" s="57">
+        <f>B$9+(14*A45)</f>
+        <v>579</v>
+      </c>
+      <c r="C46" s="41">
         <f t="shared" si="0"/>
-        <v>-39</v>
-      </c>
-      <c r="H13" s="54"/>
-      <c r="I13" s="45"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="51">
-        <v>7</v>
-      </c>
-      <c r="B14" s="59">
-        <f t="shared" si="2"/>
-        <v>145</v>
-      </c>
-      <c r="C14" s="42">
-        <f t="shared" si="1"/>
-        <v>-51</v>
-      </c>
-      <c r="D14" s="51">
-        <v>7</v>
-      </c>
-      <c r="E14" s="72">
-        <f t="shared" si="3"/>
-        <v>145</v>
-      </c>
-      <c r="F14" s="71">
-        <f t="shared" si="0"/>
-        <v>-53</v>
-      </c>
-      <c r="H14" s="54"/>
-      <c r="I14" s="45"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="51">
-        <v>8</v>
-      </c>
-      <c r="B15" s="59">
-        <f t="shared" si="2"/>
-        <v>159</v>
-      </c>
-      <c r="C15" s="42">
-        <f t="shared" si="1"/>
-        <v>-65</v>
-      </c>
-      <c r="D15" s="51">
-        <v>8</v>
-      </c>
-      <c r="E15" s="72">
-        <f t="shared" si="3"/>
-        <v>159</v>
-      </c>
-      <c r="F15" s="71">
-        <f t="shared" si="0"/>
-        <v>-67</v>
-      </c>
-      <c r="H15" s="54"/>
-      <c r="I15" s="45"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="51">
-        <v>9</v>
-      </c>
-      <c r="B16" s="59">
-        <f>B$8+(14*A15)</f>
-        <v>173</v>
-      </c>
-      <c r="C16" s="42">
-        <f t="shared" si="1"/>
-        <v>-79</v>
-      </c>
-      <c r="D16" s="51">
-        <v>9</v>
-      </c>
-      <c r="E16" s="72">
-        <f>E$8+(14*D15)</f>
-        <v>173</v>
-      </c>
-      <c r="F16" s="71">
-        <f t="shared" si="0"/>
-        <v>-81</v>
-      </c>
-      <c r="H16" s="54"/>
-      <c r="I16" s="45"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="51">
-        <v>10</v>
-      </c>
-      <c r="B17" s="59">
-        <f t="shared" si="2"/>
-        <v>187</v>
-      </c>
-      <c r="C17" s="42">
-        <f t="shared" si="1"/>
-        <v>-93</v>
-      </c>
-      <c r="D17" s="51">
-        <v>10</v>
-      </c>
-      <c r="E17" s="72">
-        <f t="shared" si="3"/>
-        <v>187</v>
-      </c>
-      <c r="F17" s="71">
-        <f t="shared" si="0"/>
-        <v>-95</v>
-      </c>
-      <c r="H17" s="54"/>
-      <c r="I17" s="45"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="51">
-        <v>11</v>
-      </c>
-      <c r="B18" s="59">
-        <f t="shared" si="2"/>
-        <v>201</v>
-      </c>
-      <c r="C18" s="42">
-        <f t="shared" si="1"/>
-        <v>-107</v>
-      </c>
-      <c r="D18" s="51">
-        <v>11</v>
-      </c>
-      <c r="E18" s="72">
-        <f t="shared" si="3"/>
-        <v>201</v>
-      </c>
-      <c r="F18" s="71">
-        <f t="shared" si="0"/>
-        <v>-109</v>
-      </c>
-      <c r="H18" s="54"/>
-      <c r="I18" s="45"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="51">
-        <v>12</v>
-      </c>
-      <c r="B19" s="59">
-        <f t="shared" si="2"/>
-        <v>215</v>
-      </c>
-      <c r="C19" s="42">
-        <f t="shared" si="1"/>
-        <v>-121</v>
-      </c>
-      <c r="D19" s="51">
-        <v>12</v>
-      </c>
-      <c r="E19" s="72">
-        <f t="shared" si="3"/>
-        <v>215</v>
-      </c>
-      <c r="F19" s="71">
-        <f t="shared" si="0"/>
-        <v>-123</v>
-      </c>
-      <c r="H19" s="54"/>
-      <c r="I19" s="45"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="51">
-        <v>13</v>
-      </c>
-      <c r="B20" s="59">
-        <f t="shared" si="2"/>
-        <v>229</v>
-      </c>
-      <c r="C20" s="42">
-        <f t="shared" si="1"/>
-        <v>-135</v>
-      </c>
-      <c r="D20" s="51">
-        <v>13</v>
-      </c>
-      <c r="E20" s="72">
-        <f t="shared" si="3"/>
-        <v>229</v>
-      </c>
-      <c r="F20" s="71">
-        <f t="shared" si="0"/>
-        <v>-137</v>
-      </c>
-      <c r="H20" s="54"/>
-      <c r="I20" s="45"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="51">
-        <v>14</v>
-      </c>
-      <c r="B21" s="59">
-        <f t="shared" si="2"/>
-        <v>243</v>
-      </c>
-      <c r="C21" s="42">
-        <f t="shared" si="1"/>
-        <v>-149</v>
-      </c>
-      <c r="D21" s="51">
-        <v>14</v>
-      </c>
-      <c r="E21" s="72">
-        <f t="shared" si="3"/>
-        <v>243</v>
-      </c>
-      <c r="F21" s="71">
-        <f t="shared" si="0"/>
-        <v>-151</v>
-      </c>
-      <c r="H21" s="54"/>
-      <c r="I21" s="45"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="51">
-        <v>15</v>
-      </c>
-      <c r="B22" s="59">
-        <f t="shared" si="2"/>
-        <v>257</v>
-      </c>
-      <c r="C22" s="42">
-        <f t="shared" si="1"/>
-        <v>-163</v>
-      </c>
-      <c r="D22" s="51">
-        <v>15</v>
-      </c>
-      <c r="E22" s="72">
-        <f t="shared" si="3"/>
-        <v>257</v>
-      </c>
-      <c r="F22" s="71">
-        <f t="shared" si="0"/>
-        <v>-165</v>
-      </c>
-      <c r="H22" s="54"/>
-      <c r="I22" s="45"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="51">
-        <v>16</v>
-      </c>
-      <c r="B23" s="59">
-        <f t="shared" si="2"/>
-        <v>271</v>
-      </c>
-      <c r="C23" s="42">
-        <f t="shared" si="1"/>
-        <v>-177</v>
-      </c>
-      <c r="D23" s="51">
-        <v>16</v>
-      </c>
-      <c r="E23" s="72">
-        <f t="shared" si="3"/>
-        <v>271</v>
-      </c>
-      <c r="F23" s="71">
-        <f t="shared" si="0"/>
-        <v>-179</v>
-      </c>
-      <c r="H23" s="54"/>
-      <c r="I23" s="45"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="51">
-        <v>17</v>
-      </c>
-      <c r="B24" s="59">
-        <f t="shared" si="2"/>
-        <v>285</v>
-      </c>
-      <c r="C24" s="42">
-        <f t="shared" si="1"/>
-        <v>-191</v>
-      </c>
-      <c r="D24" s="51">
-        <v>17</v>
-      </c>
-      <c r="E24" s="72">
-        <f t="shared" si="3"/>
-        <v>285</v>
-      </c>
-      <c r="F24" s="71">
-        <f t="shared" si="0"/>
-        <v>-193</v>
-      </c>
-      <c r="H24" s="54"/>
-      <c r="I24" s="45"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="51">
-        <v>18</v>
-      </c>
-      <c r="B25" s="59">
-        <f t="shared" si="2"/>
-        <v>299</v>
-      </c>
-      <c r="C25" s="42">
-        <f t="shared" si="1"/>
-        <v>-205</v>
-      </c>
-      <c r="D25" s="51">
-        <v>18</v>
-      </c>
-      <c r="E25" s="72">
-        <f t="shared" si="3"/>
-        <v>299</v>
-      </c>
-      <c r="F25" s="71">
-        <f t="shared" si="0"/>
-        <v>-207</v>
-      </c>
-      <c r="H25" s="54"/>
-      <c r="I25" s="45"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="51">
-        <v>19</v>
-      </c>
-      <c r="B26" s="59">
-        <f t="shared" si="2"/>
-        <v>313</v>
-      </c>
-      <c r="C26" s="42">
-        <f t="shared" si="1"/>
-        <v>-219</v>
-      </c>
-      <c r="D26" s="51">
-        <v>19</v>
-      </c>
-      <c r="E26" s="72">
-        <f t="shared" si="3"/>
-        <v>313</v>
-      </c>
-      <c r="F26" s="71">
-        <f t="shared" si="0"/>
-        <v>-221</v>
-      </c>
-      <c r="H26" s="54"/>
-      <c r="I26" s="45"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="51">
-        <v>20</v>
-      </c>
-      <c r="B27" s="59">
-        <f t="shared" si="2"/>
-        <v>327</v>
-      </c>
-      <c r="C27" s="42">
-        <f t="shared" si="1"/>
-        <v>-233</v>
-      </c>
-      <c r="D27" s="51">
-        <v>20</v>
-      </c>
-      <c r="E27" s="72">
-        <f t="shared" si="3"/>
-        <v>327</v>
-      </c>
-      <c r="F27" s="71">
-        <f t="shared" si="0"/>
-        <v>-235</v>
-      </c>
-      <c r="H27" s="54"/>
-      <c r="I27" s="45"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="51">
-        <v>21</v>
-      </c>
-      <c r="B28" s="59">
-        <f t="shared" si="2"/>
-        <v>341</v>
-      </c>
-      <c r="C28" s="42">
-        <f t="shared" si="1"/>
-        <v>-247</v>
-      </c>
-      <c r="D28" s="51">
-        <v>21</v>
-      </c>
-      <c r="E28" s="72">
-        <f t="shared" si="3"/>
-        <v>341</v>
-      </c>
-      <c r="F28" s="71">
-        <f t="shared" si="0"/>
-        <v>-249</v>
-      </c>
-      <c r="H28" s="54"/>
-      <c r="I28" s="45"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="51">
-        <v>22</v>
-      </c>
-      <c r="B29" s="59">
-        <f t="shared" si="2"/>
-        <v>355</v>
-      </c>
-      <c r="C29" s="42">
-        <f t="shared" si="1"/>
-        <v>-261</v>
-      </c>
-      <c r="D29" s="51">
-        <v>22</v>
-      </c>
-      <c r="E29" s="72">
-        <f t="shared" si="3"/>
-        <v>355</v>
-      </c>
-      <c r="F29" s="71">
-        <f t="shared" si="0"/>
-        <v>-263</v>
-      </c>
-      <c r="H29" s="54"/>
-      <c r="I29" s="45"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="51">
-        <v>23</v>
-      </c>
-      <c r="B30" s="59">
-        <f t="shared" si="2"/>
-        <v>369</v>
-      </c>
-      <c r="C30" s="42">
-        <f t="shared" si="1"/>
-        <v>-275</v>
-      </c>
-      <c r="D30" s="51">
-        <v>23</v>
-      </c>
-      <c r="E30" s="72">
-        <f t="shared" si="3"/>
-        <v>369</v>
-      </c>
-      <c r="F30" s="71">
-        <f t="shared" si="0"/>
-        <v>-277</v>
-      </c>
-      <c r="H30" s="54"/>
-      <c r="I30" s="45"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="51">
-        <v>24</v>
-      </c>
-      <c r="B31" s="59">
-        <f t="shared" si="2"/>
-        <v>383</v>
-      </c>
-      <c r="C31" s="42">
-        <f t="shared" si="1"/>
-        <v>-289</v>
-      </c>
-      <c r="D31" s="51">
-        <v>24</v>
-      </c>
-      <c r="E31" s="72">
-        <f t="shared" si="3"/>
-        <v>383</v>
-      </c>
-      <c r="F31" s="71">
-        <f t="shared" si="0"/>
-        <v>-291</v>
-      </c>
-      <c r="H31" s="54"/>
-      <c r="I31" s="45"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="51">
-        <v>25</v>
-      </c>
-      <c r="B32" s="59">
-        <f t="shared" si="2"/>
-        <v>397</v>
-      </c>
-      <c r="C32" s="42">
-        <f t="shared" si="1"/>
-        <v>-303</v>
-      </c>
-      <c r="D32" s="51">
-        <v>25</v>
-      </c>
-      <c r="E32" s="72">
-        <f t="shared" si="3"/>
-        <v>397</v>
-      </c>
-      <c r="F32" s="71">
-        <f t="shared" si="0"/>
-        <v>-305</v>
-      </c>
-      <c r="H32" s="54"/>
-      <c r="I32" s="45"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="51">
-        <v>26</v>
-      </c>
-      <c r="B33" s="59">
-        <f t="shared" si="2"/>
-        <v>411</v>
-      </c>
-      <c r="C33" s="42">
-        <f t="shared" si="1"/>
-        <v>-317</v>
-      </c>
-      <c r="D33" s="51">
-        <v>26</v>
-      </c>
-      <c r="E33" s="72">
-        <f t="shared" si="3"/>
-        <v>411</v>
-      </c>
-      <c r="F33" s="71">
-        <f t="shared" si="0"/>
-        <v>-319</v>
-      </c>
-      <c r="H33" s="54"/>
-      <c r="I33" s="45"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="51">
-        <v>27</v>
-      </c>
-      <c r="B34" s="59">
-        <f t="shared" si="2"/>
-        <v>425</v>
-      </c>
-      <c r="C34" s="42">
-        <f t="shared" si="1"/>
-        <v>-331</v>
-      </c>
-      <c r="D34" s="51">
-        <v>27</v>
-      </c>
-      <c r="E34" s="72">
-        <f t="shared" si="3"/>
-        <v>425</v>
-      </c>
-      <c r="F34" s="71">
-        <f t="shared" si="0"/>
-        <v>-333</v>
-      </c>
-      <c r="H34" s="54"/>
-      <c r="I34" s="45"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="51">
-        <v>28</v>
-      </c>
-      <c r="B35" s="59">
-        <f t="shared" si="2"/>
-        <v>439</v>
-      </c>
-      <c r="C35" s="42">
-        <f t="shared" si="1"/>
-        <v>-345</v>
-      </c>
-      <c r="D35" s="51">
-        <v>28</v>
-      </c>
-      <c r="E35" s="72">
-        <f t="shared" si="3"/>
-        <v>439</v>
-      </c>
-      <c r="F35" s="71">
-        <f t="shared" si="0"/>
-        <v>-347</v>
-      </c>
-      <c r="H35" s="54"/>
-      <c r="I35" s="45"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="51">
-        <v>29</v>
-      </c>
-      <c r="B36" s="59">
-        <f t="shared" si="2"/>
-        <v>453</v>
-      </c>
-      <c r="C36" s="42">
-        <f t="shared" si="1"/>
-        <v>-359</v>
-      </c>
-      <c r="D36" s="51">
-        <v>29</v>
-      </c>
-      <c r="E36" s="72">
-        <f t="shared" si="3"/>
-        <v>453</v>
-      </c>
-      <c r="F36" s="71">
-        <f t="shared" si="0"/>
-        <v>-361</v>
-      </c>
-      <c r="H36" s="54"/>
-      <c r="I36" s="45"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="51">
-        <v>30</v>
-      </c>
-      <c r="B37" s="59">
-        <f t="shared" si="2"/>
-        <v>467</v>
-      </c>
-      <c r="C37" s="42">
-        <f t="shared" si="1"/>
-        <v>-373</v>
-      </c>
-      <c r="D37" s="51">
-        <v>30</v>
-      </c>
-      <c r="E37" s="72">
-        <f t="shared" si="3"/>
-        <v>467</v>
-      </c>
-      <c r="F37" s="71">
-        <f t="shared" si="0"/>
-        <v>-375</v>
-      </c>
-      <c r="H37" s="54"/>
-      <c r="I37" s="45"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="51">
-        <v>31</v>
-      </c>
-      <c r="B38" s="59">
-        <f t="shared" si="2"/>
-        <v>481</v>
-      </c>
-      <c r="C38" s="42">
-        <f t="shared" si="1"/>
-        <v>-387</v>
-      </c>
-      <c r="D38" s="51">
-        <v>31</v>
-      </c>
-      <c r="E38" s="72">
-        <f t="shared" si="3"/>
-        <v>481</v>
-      </c>
-      <c r="F38" s="71">
-        <f t="shared" si="0"/>
-        <v>-389</v>
-      </c>
-      <c r="H38" s="54"/>
-      <c r="I38" s="45"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="51">
-        <v>32</v>
-      </c>
-      <c r="B39" s="59">
-        <f t="shared" si="2"/>
-        <v>495</v>
-      </c>
-      <c r="C39" s="42">
-        <f t="shared" si="1"/>
-        <v>-401</v>
-      </c>
-      <c r="D39" s="51">
-        <v>32</v>
-      </c>
-      <c r="E39" s="72">
-        <f t="shared" si="3"/>
-        <v>495</v>
-      </c>
-      <c r="F39" s="71">
-        <f t="shared" si="0"/>
-        <v>-403</v>
-      </c>
-      <c r="H39" s="54"/>
-      <c r="I39" s="45"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="51">
-        <v>33</v>
-      </c>
-      <c r="B40" s="59">
-        <f t="shared" si="2"/>
-        <v>509</v>
-      </c>
-      <c r="C40" s="42">
-        <f t="shared" si="1"/>
-        <v>-415</v>
-      </c>
-      <c r="D40" s="51">
-        <v>33</v>
-      </c>
-      <c r="E40" s="72">
-        <f t="shared" si="3"/>
-        <v>509</v>
-      </c>
-      <c r="F40" s="71">
-        <f t="shared" si="0"/>
-        <v>-417</v>
-      </c>
-      <c r="H40" s="54"/>
-      <c r="I40" s="45"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="51">
-        <v>34</v>
-      </c>
-      <c r="B41" s="59">
-        <f t="shared" si="2"/>
-        <v>523</v>
-      </c>
-      <c r="C41" s="42">
-        <f t="shared" si="1"/>
-        <v>-429</v>
-      </c>
-      <c r="D41" s="51">
-        <v>34</v>
-      </c>
-      <c r="E41" s="72">
-        <f t="shared" si="3"/>
-        <v>523</v>
-      </c>
-      <c r="F41" s="71">
-        <f t="shared" si="0"/>
-        <v>-431</v>
-      </c>
-      <c r="H41" s="54"/>
-      <c r="I41" s="45"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="51">
-        <v>35</v>
-      </c>
-      <c r="B42" s="59">
-        <f t="shared" si="2"/>
-        <v>537</v>
-      </c>
-      <c r="C42" s="42">
-        <f t="shared" si="1"/>
-        <v>-443</v>
-      </c>
-      <c r="D42" s="51">
-        <v>35</v>
-      </c>
-      <c r="E42" s="72">
-        <f t="shared" si="3"/>
-        <v>537</v>
-      </c>
-      <c r="F42" s="71">
-        <f t="shared" si="0"/>
-        <v>-445</v>
-      </c>
-      <c r="H42" s="54"/>
-      <c r="I42" s="45"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="51">
-        <v>36</v>
-      </c>
-      <c r="B43" s="59">
-        <f t="shared" si="2"/>
-        <v>551</v>
-      </c>
-      <c r="C43" s="42">
-        <f t="shared" si="1"/>
-        <v>-457</v>
-      </c>
-      <c r="D43" s="51">
-        <v>36</v>
-      </c>
-      <c r="E43" s="72">
-        <f t="shared" si="3"/>
-        <v>551</v>
-      </c>
-      <c r="F43" s="71">
-        <f t="shared" si="0"/>
-        <v>-459</v>
-      </c>
-      <c r="H43" s="54"/>
-      <c r="I43" s="45"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="51">
-        <v>37</v>
-      </c>
-      <c r="B44" s="59">
-        <f t="shared" si="2"/>
-        <v>565</v>
-      </c>
-      <c r="C44" s="42">
-        <f t="shared" si="1"/>
-        <v>-471</v>
-      </c>
-      <c r="D44" s="51">
-        <v>37</v>
-      </c>
-      <c r="E44" s="72">
-        <f t="shared" si="3"/>
-        <v>565</v>
-      </c>
-      <c r="F44" s="71">
-        <f t="shared" si="0"/>
-        <v>-473</v>
-      </c>
-      <c r="H44" s="54"/>
-      <c r="I44" s="45"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="51">
+        <v>-485</v>
+      </c>
+      <c r="D46" s="50">
         <v>38</v>
       </c>
-      <c r="B45" s="59">
+      <c r="E46" s="67">
         <f t="shared" si="2"/>
         <v>579</v>
       </c>
-      <c r="C45" s="42">
+      <c r="F46" s="66">
+        <f t="shared" si="3"/>
+        <v>-487</v>
+      </c>
+      <c r="G46" s="124">
         <f t="shared" si="1"/>
-        <v>-485</v>
-      </c>
-      <c r="D45" s="51">
-        <v>38</v>
-      </c>
-      <c r="E45" s="72">
-        <f t="shared" si="3"/>
+        <v>-38</v>
+      </c>
+      <c r="H46" s="66">
+        <f>$F$4-E46-94</f>
+        <v>-487</v>
+      </c>
+      <c r="I46" s="57">
+        <f>I$9+(14*D45)</f>
         <v>579</v>
       </c>
-      <c r="F45" s="71">
+      <c r="J46" s="53"/>
+      <c r="K46" s="44"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="50">
+        <v>39</v>
+      </c>
+      <c r="B47" s="57">
+        <f>B$9+(14*A46)</f>
+        <v>593</v>
+      </c>
+      <c r="C47" s="41">
         <f t="shared" si="0"/>
-        <v>-487</v>
-      </c>
-      <c r="H45" s="54"/>
-      <c r="I45" s="45"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="51">
+        <v>-499</v>
+      </c>
+      <c r="D47" s="50">
         <v>39</v>
       </c>
-      <c r="B46" s="59">
+      <c r="E47" s="67">
         <f t="shared" si="2"/>
         <v>593</v>
       </c>
-      <c r="C46" s="42">
+      <c r="F47" s="66">
+        <f t="shared" si="3"/>
+        <v>-501</v>
+      </c>
+      <c r="G47" s="124">
         <f t="shared" si="1"/>
-        <v>-499</v>
-      </c>
-      <c r="D46" s="51">
-        <v>39</v>
-      </c>
-      <c r="E46" s="72">
-        <f t="shared" si="3"/>
+        <v>-39</v>
+      </c>
+      <c r="H47" s="66">
+        <f>$F$4-E47-94</f>
+        <v>-501</v>
+      </c>
+      <c r="I47" s="57">
+        <f>I$9+(14*D46)</f>
         <v>593</v>
       </c>
-      <c r="F46" s="71">
+      <c r="J47" s="53"/>
+      <c r="K47" s="44"/>
+    </row>
+    <row r="48" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="51">
+        <v>40</v>
+      </c>
+      <c r="B48" s="58">
+        <f>B$9+(14*A47)</f>
+        <v>607</v>
+      </c>
+      <c r="C48" s="41">
         <f t="shared" si="0"/>
-        <v>-501</v>
-      </c>
-      <c r="H46" s="54"/>
-      <c r="I46" s="45"/>
-    </row>
-    <row r="47" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="52">
+        <v>-513</v>
+      </c>
+      <c r="D48" s="51">
         <v>40</v>
       </c>
-      <c r="B47" s="60">
+      <c r="E48" s="68">
         <f t="shared" si="2"/>
         <v>607</v>
       </c>
-      <c r="C47" s="42">
+      <c r="F48" s="69">
+        <f t="shared" si="3"/>
+        <v>-515</v>
+      </c>
+      <c r="G48" s="124">
         <f t="shared" si="1"/>
-        <v>-513</v>
-      </c>
-      <c r="D47" s="52">
-        <v>40</v>
-      </c>
-      <c r="E47" s="73">
-        <f t="shared" si="3"/>
+        <v>-40</v>
+      </c>
+      <c r="H48" s="69">
+        <f>$F$4-E48-94</f>
+        <v>-515</v>
+      </c>
+      <c r="I48" s="57">
+        <f>I$9+(14*D47)</f>
         <v>607</v>
       </c>
-      <c r="F47" s="74">
-        <f t="shared" si="0"/>
-        <v>-515</v>
-      </c>
-      <c r="H47" s="55"/>
-      <c r="I47" s="46"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="N1:O1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G9:G48">
+    <sortCondition descending="1" ref="G8:G48"/>
+  </sortState>
+  <mergeCells count="15">
+    <mergeCell ref="P1:Q1"/>
     <mergeCell ref="C2:F2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
   </mergeCells>
-  <conditionalFormatting sqref="B8:B47">
-    <cfRule type="expression" dxfId="11" priority="4">
-      <formula>(1+ ((B8-61)/14)) &gt; $B$2</formula>
+  <conditionalFormatting sqref="B9:B48">
+    <cfRule type="expression" dxfId="15" priority="12">
+      <formula>(1+ ((B9-61)/14)) &gt; $B$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8:C47">
-    <cfRule type="expression" dxfId="10" priority="5">
-      <formula>B8&gt;C8</formula>
+  <conditionalFormatting sqref="C9:C48">
+    <cfRule type="expression" dxfId="14" priority="13">
+      <formula>B9&gt;C9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E47">
-    <cfRule type="expression" dxfId="9" priority="2">
-      <formula>(1+ ((E8-61)/14)) &gt; $B$2</formula>
+  <conditionalFormatting sqref="E9:E48">
+    <cfRule type="expression" dxfId="13" priority="10">
+      <formula>(1+ ((E9-61)/14)) &gt; $B$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F5">
-    <cfRule type="expression" dxfId="8" priority="16">
+  <conditionalFormatting sqref="F3:I5">
+    <cfRule type="expression" dxfId="12" priority="24">
       <formula>COUNTIF($B$2,"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F47">
-    <cfRule type="expression" dxfId="7" priority="3">
-      <formula>(1+ ((ABS(F8-$F$4)-61)/14)) &gt; $B$2</formula>
+  <conditionalFormatting sqref="F9:F48">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>(1+ ((ABS(F9-$F$4)-61)/14)) &gt; $B$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10 G12">
-    <cfRule type="expression" dxfId="6" priority="1">
-      <formula>COUNTIF($G$8,"")</formula>
+  <conditionalFormatting sqref="I9:I48">
+    <cfRule type="expression" dxfId="10" priority="3">
+      <formula>(1+ ((I9-61)/14)) &gt; $B$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:G48">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="lessThan">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:H48">
+    <cfRule type="expression" dxfId="9" priority="2">
+      <formula>(1+ ((ABS(H9-$F$4)-61)/14)) &gt; $B$2</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Hydrocarbon chain length" prompt="Enter a whole number (greater than 1) indicating the number of carbons in the hydrocarbon chain of your target compound." sqref="B2" xr:uid="{F7014332-3719-4885-95BF-44AFD9FD41C8}">
       <formula1>2</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Information display cell" prompt="Do not modify the content of this cell!_x000a_" sqref="F3:F5" xr:uid="{21ECB7F2-771B-4437-8B65-3F0ADFF96332}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Information display cell" prompt="Do not modify the content of this cell!_x000a_" sqref="F3:I5" xr:uid="{21ECB7F2-771B-4437-8B65-3F0ADFF96332}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
